--- a/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BK15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2784,6 +2784,818 @@
         <v>13</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5406440</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45038.66666666666</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>['11', '67']</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>10</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6</v>
+      </c>
+      <c r="S12" t="n">
+        <v>16</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5406449</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45038.77083333334</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>9</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5406442</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45038.77083333334</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>['21', '82', '90+5']</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5406445</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45038.875</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>11</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>16</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK15"/>
+  <dimension ref="A1:BK21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3596,6 +3596,1224 @@
         <v>10</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5406446</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45039.45833333334</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>['67', '90+8']</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>8</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5406443</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45039.66666666666</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>9</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6</v>
+      </c>
+      <c r="S17" t="n">
+        <v>15</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5406441</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45039.66666666666</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>['29', '40']</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>['45+1', '62']</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>7</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5406447</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45039.77083333334</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>['51', '83', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5406444</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45039.79166666666</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>['31', '80', '90+4']</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>13</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5406448</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45040.83333333334</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>['29', '78']</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>6</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>9</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V21" t="n">
+        <v>4</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK21"/>
+  <dimension ref="A1:BK27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
         <v>3</v>
@@ -2527,7 +2527,7 @@
         <v>3</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT19" t="n">
         <v>3</v>
@@ -4812,6 +4812,1224 @@
       </c>
       <c r="BK21" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5406458</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45045.6875</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>['29', '35', '60', '79']</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>['45+2', '69']</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>8</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>13</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>19</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5406457</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45045.6875</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>7</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6</v>
+      </c>
+      <c r="S23" t="n">
+        <v>13</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5406452</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45045.77083333334</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>['16', '36']</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>12</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>15</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>6</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5406453</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45045.77083333334</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>['19', '40', '69']</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>['7', '49']</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6</v>
+      </c>
+      <c r="S25" t="n">
+        <v>8</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5406454</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45045.77083333334</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>['1', '64', '87']</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>9</v>
+      </c>
+      <c r="S26" t="n">
+        <v>14</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5406455</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45045.875</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>['10', '84']</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>6</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK27"/>
+  <dimension ref="A1:BK31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -6030,6 +6030,818 @@
       </c>
       <c r="BK27" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5406450</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45046.66666666666</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>['59', '86']</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>['30', '45+5', '71']</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>7</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>9</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V28" t="n">
+        <v>6</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5406459</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45046.77083333334</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>['10', '68']</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>7</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>12</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5406456</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45046.77083333334</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>8</v>
+      </c>
+      <c r="R30" t="n">
+        <v>11</v>
+      </c>
+      <c r="S30" t="n">
+        <v>19</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5406451</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45047.83333333334</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>7</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6</v>
+      </c>
+      <c r="S31" t="n">
+        <v>13</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK31"/>
+  <dimension ref="A1:BK33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>0</v>
@@ -6842,6 +6842,412 @@
       </c>
       <c r="BK31" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5406465</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45052.66666666666</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>['21', '62']</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>8</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5406460</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45052.875</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>9</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V33" t="n">
+        <v>5</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK33"/>
+  <dimension ref="A1:BK41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
         <v>1.5</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>0.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT21" t="n">
         <v>3</v>
@@ -7248,6 +7248,1630 @@
       </c>
       <c r="BK33" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5406469</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45053.45833333334</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>['85', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5406462</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45053.66666666666</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>['33', '70']</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>9</v>
+      </c>
+      <c r="S35" t="n">
+        <v>13</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5406467</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45053.66666666666</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['29', '80']</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>8</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5406468</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45053.66666666666</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>['16', '65', '68']</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>8</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5406461</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45053.77083333334</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['30', '60']</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>9</v>
+      </c>
+      <c r="S38" t="n">
+        <v>14</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5406464</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45053.77083333334</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['10', '48', '78', '83', '90']</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5406466</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45053.77083333334</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['6', '56', '62']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['9', '53', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>7</v>
+      </c>
+      <c r="S40" t="n">
+        <v>11</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>5</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5406463</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45054.83333333334</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V41" t="n">
+        <v>4</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK41"/>
+  <dimension ref="A1:BK48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
         <v>1.91</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT25" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU25" t="n">
         <v>1.18</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT26" t="n">
         <v>1.5</v>
@@ -5978,7 +5978,7 @@
         <v>1.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU27" t="n">
         <v>2.44</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
         <v>3</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>1.39</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU31" t="n">
         <v>1.31</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT32" t="n">
         <v>0</v>
@@ -8211,7 +8211,7 @@
         <v>3</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU38" t="n">
         <v>1.26</v>
@@ -8872,6 +8872,1427 @@
       </c>
       <c r="BK41" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5406474</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45056.79166666666</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['33', '44']</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['15', '78']</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>9</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5406473</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45056.79166666666</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['4', '14', '51']</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>4</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5406476</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45056.79166666666</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['79', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>7</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>5</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5406470</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45056.83333333334</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['8', '49']</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>8</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7</v>
+      </c>
+      <c r="S45" t="n">
+        <v>15</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V45" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5406479</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45056.83333333334</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>['13', '51', '72', '87']</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>6</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>7</v>
+      </c>
+      <c r="T46" t="n">
+        <v>4</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5406475</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45056.89583333334</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>['43', '54']</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>16</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>19</v>
+      </c>
+      <c r="T47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>23</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>29</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5406472</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45056.89583333334</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>4</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>5</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['23', '56', '68', '73']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>7</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>11</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK48"/>
+  <dimension ref="A1:BK51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT7" t="n">
         <v>0.5</v>
@@ -2121,7 +2121,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT19" t="n">
         <v>2</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT22" t="n">
         <v>2</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU23" t="n">
         <v>1.73</v>
@@ -7196,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU33" t="n">
         <v>2.02</v>
@@ -10293,6 +10293,615 @@
       </c>
       <c r="BK48" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5406477</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45057.79166666666</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>10</v>
+      </c>
+      <c r="T49" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5406471</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45057.8125</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['12', '65', '81']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>6</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V50" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5406478</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45057.83333333334</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>10</v>
+      </c>
+      <c r="S51" t="n">
+        <v>14</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK51"/>
+  <dimension ref="A1:BK61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.67</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>1.67</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT18" t="n">
         <v>2</v>
@@ -4354,7 +4354,7 @@
         <v>0.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>0.67</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU23" t="n">
         <v>1.73</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT24" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1.33</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU26" t="n">
         <v>1.72</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
         <v>2.3</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT31" t="n">
         <v>1</v>
@@ -6993,7 +6993,7 @@
         <v>2</v>
       </c>
       <c r="AT32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.94</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT33" t="n">
         <v>1.67</v>
@@ -7399,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>2.02</v>
@@ -7602,7 +7602,7 @@
         <v>3</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU35" t="n">
         <v>1.72</v>
@@ -7805,7 +7805,7 @@
         <v>3</v>
       </c>
       <c r="AT36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>1.11</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT37" t="n">
         <v>0</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT39" t="n">
         <v>2</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT40" t="n">
         <v>1</v>
@@ -8817,10 +8817,10 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT41" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU41" t="n">
         <v>1.64</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -10850,7 +10850,7 @@
         <v>1.67</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU51" t="n">
         <v>2.41</v>
@@ -10902,6 +10902,2036 @@
       </c>
       <c r="BK51" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5406488</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45059.66666666666</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3</v>
+      </c>
+      <c r="K52" t="n">
+        <v>4</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="n">
+        <v>5</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['35', '51']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>['23', '29', '45+4']</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>10</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>14</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5406482</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45059.77083333334</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>15</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6</v>
+      </c>
+      <c r="S53" t="n">
+        <v>21</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X53" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5406480</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45059.77083333334</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['6', '56']</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>7</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>10</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5406485</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45059.875</v>
+      </c>
+      <c r="F55" t="n">
+        <v>6</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['3', '90+5']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>6</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V55" t="n">
+        <v>6</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5406483</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45060.66666666666</v>
+      </c>
+      <c r="F56" t="n">
+        <v>6</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['45+6']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>9</v>
+      </c>
+      <c r="T56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5406486</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45060.66666666666</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>9</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>14</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5406481</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45060.66666666666</v>
+      </c>
+      <c r="F58" t="n">
+        <v>6</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>14</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>15</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V58" t="n">
+        <v>5</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5406484</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45060.77083333334</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['45+5', '57']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7</v>
+      </c>
+      <c r="S59" t="n">
+        <v>11</v>
+      </c>
+      <c r="T59" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5406487</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45060.77083333334</v>
+      </c>
+      <c r="F60" t="n">
+        <v>6</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['49', '90+1', '90+7']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['20', '66']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V60" t="n">
+        <v>6</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5406489</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45060.77083333334</v>
+      </c>
+      <c r="F61" t="n">
+        <v>6</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['33', '70', '84', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>6</v>
+      </c>
+      <c r="S61" t="n">
+        <v>11</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK61"/>
+  <dimension ref="A1:BK68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>2.33</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>0.33</v>
       </c>
       <c r="AT18" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.67</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.91</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT23" t="n">
         <v>0.75</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT25" t="n">
         <v>0.33</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT26" t="n">
         <v>2</v>
@@ -5978,7 +5978,7 @@
         <v>2</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU27" t="n">
         <v>2.44</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU30" t="n">
         <v>1.28</v>
@@ -7196,7 +7196,7 @@
         <v>2.33</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU33" t="n">
         <v>2.02</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -8211,7 +8211,7 @@
         <v>3</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU38" t="n">
         <v>1.26</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU39" t="n">
         <v>1.92</v>
@@ -8820,7 +8820,7 @@
         <v>1.67</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU41" t="n">
         <v>1.64</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT42" t="n">
         <v>0.33</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT43" t="n">
         <v>1</v>
@@ -9429,7 +9429,7 @@
         <v>2</v>
       </c>
       <c r="AT44" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU44" t="n">
         <v>1.75</v>
@@ -9632,7 +9632,7 @@
         <v>2</v>
       </c>
       <c r="AT45" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU45" t="n">
         <v>2.7</v>
@@ -9835,7 +9835,7 @@
         <v>0.33</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU46" t="n">
         <v>1.7</v>
@@ -10038,7 +10038,7 @@
         <v>2</v>
       </c>
       <c r="AT47" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU47" t="n">
         <v>1.63</v>
@@ -10441,10 +10441,10 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU49" t="n">
         <v>1.69</v>
@@ -12068,7 +12068,7 @@
         <v>1.67</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU57" t="n">
         <v>1.43</v>
@@ -12877,7 +12877,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT61" t="n">
         <v>2</v>
@@ -12932,6 +12932,1427 @@
       </c>
       <c r="BK61" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5406498</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45066.66666666666</v>
+      </c>
+      <c r="F62" t="n">
+        <v>7</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>6</v>
+      </c>
+      <c r="S62" t="n">
+        <v>10</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>5</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5406499</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45066.77083333334</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['2', '33']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="n">
+        <v>3</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5406494</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45066.77083333334</v>
+      </c>
+      <c r="F64" t="n">
+        <v>7</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['16', '86']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>6</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>11</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5406497</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45066.77083333334</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['37', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>7</v>
+      </c>
+      <c r="S65" t="n">
+        <v>12</v>
+      </c>
+      <c r="T65" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5406492</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45066.77083333334</v>
+      </c>
+      <c r="F66" t="n">
+        <v>7</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['24', '42', '89', '90+2']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['45', '83']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>9</v>
+      </c>
+      <c r="S66" t="n">
+        <v>12</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V66" t="n">
+        <v>5</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5406491</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45066.77083333334</v>
+      </c>
+      <c r="F67" t="n">
+        <v>7</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>7</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>11</v>
+      </c>
+      <c r="T67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5406493</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45066.875</v>
+      </c>
+      <c r="F68" t="n">
+        <v>7</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>7</v>
+      </c>
+      <c r="T68" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK68"/>
+  <dimension ref="A1:BK70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.67</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT28" t="n">
         <v>2</v>
@@ -7602,7 +7602,7 @@
         <v>3</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU35" t="n">
         <v>1.72</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT40" t="n">
         <v>1</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT45" t="n">
         <v>0.25</v>
@@ -11662,7 +11662,7 @@
         <v>2</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU55" t="n">
         <v>2.15</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT57" t="n">
         <v>1.25</v>
@@ -14353,6 +14353,412 @@
       </c>
       <c r="BK68" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5406490</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45067.66666666666</v>
+      </c>
+      <c r="F69" t="n">
+        <v>7</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>6</v>
+      </c>
+      <c r="R69" t="n">
+        <v>9</v>
+      </c>
+      <c r="S69" t="n">
+        <v>15</v>
+      </c>
+      <c r="T69" t="n">
+        <v>2</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>7</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5406496</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45067.77083333334</v>
+      </c>
+      <c r="F70" t="n">
+        <v>7</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>3</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['7', '31', '65']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>7</v>
+      </c>
+      <c r="S70" t="n">
+        <v>10</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V70" t="n">
+        <v>4</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>20</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK70"/>
+  <dimension ref="A1:BK71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT32" t="n">
         <v>1</v>
@@ -7399,7 +7399,7 @@
         <v>0.75</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU34" t="n">
         <v>2.02</v>
@@ -10035,7 +10035,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT47" t="n">
         <v>1.5</v>
@@ -11459,7 +11459,7 @@
         <v>2.33</v>
       </c>
       <c r="AT54" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU54" t="n">
         <v>2.57</v>
@@ -14759,6 +14759,209 @@
       </c>
       <c r="BK70" t="n">
         <v>25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5406495</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45068.83333333334</v>
+      </c>
+      <c r="F71" t="n">
+        <v>7</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>6</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>8</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>6</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK71"/>
+  <dimension ref="A1:BK81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>0.25</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>0.33</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU22" t="n">
         <v>1.91</v>
@@ -5572,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU25" t="n">
         <v>1.18</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT26" t="n">
         <v>1.75</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2</v>
       </c>
       <c r="AU26" t="n">
         <v>1.72</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT27" t="n">
         <v>0.75</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
         <v>2</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU29" t="n">
         <v>1.39</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU30" t="n">
         <v>1.28</v>
@@ -6790,7 +6790,7 @@
         <v>0.33</v>
       </c>
       <c r="AT31" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU31" t="n">
         <v>1.31</v>
@@ -6993,7 +6993,7 @@
         <v>1.5</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU32" t="n">
         <v>1.94</v>
@@ -7196,7 +7196,7 @@
         <v>2.33</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>2.02</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8008,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU37" t="n">
         <v>1.06</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU39" t="n">
         <v>1.92</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT41" t="n">
         <v>1.25</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU42" t="n">
         <v>1.58</v>
@@ -9226,7 +9226,7 @@
         <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU43" t="n">
         <v>1.33</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT44" t="n">
         <v>0.75</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU45" t="n">
         <v>2.7</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT46" t="n">
         <v>1.75</v>
@@ -10038,7 +10038,7 @@
         <v>1.5</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU47" t="n">
         <v>1.63</v>
@@ -10241,7 +10241,7 @@
         <v>2.5</v>
       </c>
       <c r="AT48" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU48" t="n">
         <v>1.81</v>
@@ -10444,7 +10444,7 @@
         <v>0.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.69</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT51" t="n">
         <v>0.75</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT55" t="n">
         <v>0.25</v>
@@ -11862,7 +11862,7 @@
         <v>0.67</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT56" t="n">
         <v>0.75</v>
@@ -12271,7 +12271,7 @@
         <v>0.33</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU58" t="n">
         <v>1.67</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT60" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU60" t="n">
         <v>1.36</v>
@@ -12880,7 +12880,7 @@
         <v>0.75</v>
       </c>
       <c r="AT61" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU61" t="n">
         <v>1.92</v>
@@ -13083,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU62" t="n">
         <v>1.74</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT64" t="n">
         <v>0.75</v>
@@ -13895,7 +13895,7 @@
         <v>3</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU66" t="n">
         <v>1.35</v>
@@ -14098,7 +14098,7 @@
         <v>3</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU67" t="n">
         <v>1.76</v>
@@ -14301,7 +14301,7 @@
         <v>2</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU68" t="n">
         <v>1.5</v>
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT69" t="n">
         <v>0</v>
@@ -14962,6 +14962,2036 @@
       </c>
       <c r="BK71" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5406507</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['31', '49']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>10</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>15</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>5</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5406508</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['87', '90+4']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>9</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>14</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>5</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5406500</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45073.77083333334</v>
+      </c>
+      <c r="F74" t="n">
+        <v>8</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V74" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5406509</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45073.77083333334</v>
+      </c>
+      <c r="F75" t="n">
+        <v>8</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Cuiabá</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>6</v>
+      </c>
+      <c r="S75" t="n">
+        <v>8</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V75" t="n">
+        <v>5</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5406502</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45073.875</v>
+      </c>
+      <c r="F76" t="n">
+        <v>8</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>3</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['57', '90+1']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>11</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>16</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>6</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5406503</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45074.66666666666</v>
+      </c>
+      <c r="F77" t="n">
+        <v>8</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['59', '90+2']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>7</v>
+      </c>
+      <c r="R77" t="n">
+        <v>6</v>
+      </c>
+      <c r="S77" t="n">
+        <v>13</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>17</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5406506</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45074.66666666666</v>
+      </c>
+      <c r="F78" t="n">
+        <v>8</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>2</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['49', '90+9']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>7</v>
+      </c>
+      <c r="S78" t="n">
+        <v>9</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5406504</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45074.77083333334</v>
+      </c>
+      <c r="F79" t="n">
+        <v>8</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['31', '75']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>9</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5406505</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45074.77083333334</v>
+      </c>
+      <c r="F80" t="n">
+        <v>8</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>6</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5406501</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45074.79166666666</v>
+      </c>
+      <c r="F81" t="n">
+        <v>8</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['3', '60']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>7</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>7</v>
+      </c>
+      <c r="T81" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>5</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,54 +394,54 @@
     <t>['35', '51']</t>
   </si>
   <si>
+    <t>['6', '56']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
-    <t>['6', '56']</t>
-  </si>
-  <si>
     <t>['3', '90+5']</t>
   </si>
   <si>
     <t>['45+6']</t>
   </si>
   <si>
+    <t>['49', '90+1', '90+7']</t>
+  </si>
+  <si>
     <t>['45+5', '57']</t>
   </si>
   <si>
-    <t>['49', '90+1', '90+7']</t>
-  </si>
-  <si>
     <t>['25']</t>
   </si>
   <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['24', '42', '89', '90+2']</t>
+  </si>
+  <si>
+    <t>['16', '86']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
     <t>['2', '33']</t>
   </si>
   <si>
-    <t>['16', '86']</t>
-  </si>
-  <si>
-    <t>['13']</t>
-  </si>
-  <si>
-    <t>['24', '42', '89', '90+2']</t>
-  </si>
-  <si>
-    <t>['74']</t>
-  </si>
-  <si>
     <t>['90+4']</t>
   </si>
   <si>
     <t>['7', '31', '65']</t>
   </si>
   <si>
+    <t>['87', '90+4']</t>
+  </si>
+  <si>
     <t>['34']</t>
   </si>
   <si>
-    <t>['87', '90+4']</t>
-  </si>
-  <si>
     <t>['33']</t>
   </si>
   <si>
@@ -466,6 +466,21 @@
     <t>['3', '60']</t>
   </si>
   <si>
+    <t>['74', '87']</t>
+  </si>
+  <si>
+    <t>['27', '34']</t>
+  </si>
+  <si>
+    <t>['31', '39']</t>
+  </si>
+  <si>
+    <t>['30', '34', '73']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['45+7']</t>
   </si>
   <si>
@@ -577,15 +592,15 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['45', '83']</t>
+  </si>
+  <si>
+    <t>['37', '90+1']</t>
+  </si>
+  <si>
     <t>['26']</t>
   </si>
   <si>
-    <t>['37', '90+1']</t>
-  </si>
-  <si>
-    <t>['45', '83']</t>
-  </si>
-  <si>
     <t>['87']</t>
   </si>
   <si>
@@ -602,6 +617,15 @@
   </si>
   <si>
     <t>['52']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['14', '16', '42', '45+2']</t>
   </si>
 </sst>
 </file>
@@ -963,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK81"/>
+  <dimension ref="A1:BK91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,7 +1231,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1294,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT2">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1398,7 +1422,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1485,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT3">
         <v>1.2</v>
@@ -1589,7 +1613,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1679,7 +1703,7 @@
         <v>3</v>
       </c>
       <c r="AT4">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1870,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="AT5">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2058,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT6">
         <v>0.2</v>
@@ -2162,7 +2186,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2249,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT7">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2353,7 +2377,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -2634,7 +2658,7 @@
         <v>2</v>
       </c>
       <c r="AT9">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2735,7 +2759,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3013,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT11">
         <v>0.75</v>
@@ -3204,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT12">
         <v>0.75</v>
@@ -3308,7 +3332,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3398,7 +3422,7 @@
         <v>0.5</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3777,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT15">
         <v>1.5</v>
@@ -3881,7 +3905,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -3971,7 +3995,7 @@
         <v>2.25</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4159,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT17">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4263,7 +4287,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4350,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT18">
         <v>1.5</v>
@@ -4454,7 +4478,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4645,7 +4669,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4732,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT20">
         <v>0</v>
@@ -4836,7 +4860,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -4926,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="AT21">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5027,7 +5051,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5114,7 +5138,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT22">
         <v>1.2</v>
@@ -5218,7 +5242,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5308,7 +5332,7 @@
         <v>0.5</v>
       </c>
       <c r="AT23">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU23">
         <v>1.73</v>
@@ -5409,7 +5433,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>12</v>
@@ -5496,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT24">
         <v>0</v>
@@ -5600,7 +5624,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5687,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT25">
         <v>0.25</v>
@@ -5791,7 +5815,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5982,7 +6006,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6173,7 +6197,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6263,7 +6287,7 @@
         <v>2</v>
       </c>
       <c r="AT28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU28">
         <v>2.3</v>
@@ -6364,7 +6388,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6833,10 +6857,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT31">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU31">
         <v>1.31</v>
@@ -6937,7 +6961,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7024,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT32">
         <v>0.75</v>
@@ -7128,7 +7152,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7215,7 +7239,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT33">
         <v>1</v>
@@ -7319,7 +7343,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7406,10 +7430,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT34">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU34">
         <v>2.02</v>
@@ -7600,7 +7624,7 @@
         <v>3</v>
       </c>
       <c r="AT35">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU35">
         <v>1.72</v>
@@ -7701,7 +7725,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7788,10 +7812,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU36">
         <v>1.11</v>
@@ -7892,7 +7916,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -7982,7 +8006,7 @@
         <v>1</v>
       </c>
       <c r="AT37">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU37">
         <v>1.06</v>
@@ -8173,7 +8197,7 @@
         <v>3</v>
       </c>
       <c r="AT38">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU38">
         <v>1.26</v>
@@ -8274,7 +8298,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8361,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT39">
         <v>1.5</v>
@@ -8465,7 +8489,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8552,10 +8576,10 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT40">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU40">
         <v>1.68</v>
@@ -8656,7 +8680,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8847,7 +8871,7 @@
         <v>119</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9125,10 +9149,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT43">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU43">
         <v>1.33</v>
@@ -9229,7 +9253,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9611,7 +9635,7 @@
         <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9701,7 +9725,7 @@
         <v>0.5</v>
       </c>
       <c r="AT46">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU46">
         <v>1.7</v>
@@ -9802,7 +9826,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q47">
         <v>16</v>
@@ -9889,7 +9913,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT47">
         <v>1.2</v>
@@ -9993,7 +10017,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10080,7 +10104,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT48">
         <v>1.5</v>
@@ -10184,7 +10208,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10653,10 +10677,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT51">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU51">
         <v>2.41</v>
@@ -10757,7 +10781,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -10847,7 +10871,7 @@
         <v>1</v>
       </c>
       <c r="AT52">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU52">
         <v>1.47</v>
@@ -10906,7 +10930,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>5406482</v>
+        <v>5406480</v>
       </c>
       <c r="C53" t="s">
         <v>63</v>
@@ -10921,25 +10945,25 @@
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H53" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53">
         <v>2</v>
@@ -10948,148 +10972,148 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="Q53">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="R53">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S53">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="T53">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U53">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="V53">
         <v>6.5</v>
       </c>
       <c r="W53">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X53">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="Y53">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="Z53">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AA53">
         <v>6.5</v>
       </c>
       <c r="AB53">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC53">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AD53">
-        <v>3.98</v>
+        <v>4.3</v>
       </c>
       <c r="AE53">
-        <v>5.99</v>
+        <v>6.6</v>
       </c>
       <c r="AF53">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG53">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AH53">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AI53">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="AJ53">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="AK53">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="AL53">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AM53">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AN53">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AO53">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AP53">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="AQ53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR53">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AS53">
         <v>2.5</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AU53">
-        <v>2.16</v>
+        <v>2.57</v>
       </c>
       <c r="AV53">
-        <v>1.7</v>
+        <v>1.49</v>
       </c>
       <c r="AW53">
-        <v>3.86</v>
+        <v>4.06</v>
       </c>
       <c r="AX53">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AY53">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AZ53">
-        <v>3.78</v>
+        <v>3.88</v>
       </c>
       <c r="BA53">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="BB53">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="BC53">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="BD53">
-        <v>1.62</v>
+        <v>2.08</v>
       </c>
       <c r="BE53">
-        <v>1.98</v>
+        <v>2.69</v>
       </c>
       <c r="BF53">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BG53">
+        <v>4</v>
+      </c>
+      <c r="BH53">
         <v>5</v>
       </c>
-      <c r="BH53">
+      <c r="BI53">
+        <v>13</v>
+      </c>
+      <c r="BJ53">
+        <v>8</v>
+      </c>
+      <c r="BK53">
         <v>17</v>
-      </c>
-      <c r="BI53">
-        <v>5</v>
-      </c>
-      <c r="BJ53">
-        <v>24</v>
-      </c>
-      <c r="BK53">
-        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:63">
@@ -11097,7 +11121,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>5406480</v>
+        <v>5406482</v>
       </c>
       <c r="C54" t="s">
         <v>63</v>
@@ -11112,25 +11136,25 @@
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -11139,148 +11163,148 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="Q54">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="R54">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S54">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="T54">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U54">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="V54">
         <v>6.5</v>
       </c>
       <c r="W54">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X54">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="Y54">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="Z54">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AA54">
         <v>6.5</v>
       </c>
       <c r="AB54">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC54">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AD54">
-        <v>4.3</v>
+        <v>3.98</v>
       </c>
       <c r="AE54">
-        <v>6.6</v>
+        <v>5.99</v>
       </c>
       <c r="AF54">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG54">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AH54">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AI54">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="AJ54">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="AK54">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="AL54">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AM54">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AN54">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AO54">
+        <v>1.19</v>
+      </c>
+      <c r="AP54">
+        <v>2.65</v>
+      </c>
+      <c r="AQ54">
+        <v>3</v>
+      </c>
+      <c r="AR54">
+        <v>1</v>
+      </c>
+      <c r="AS54">
+        <v>2.6</v>
+      </c>
+      <c r="AT54">
+        <v>0.75</v>
+      </c>
+      <c r="AU54">
+        <v>2.16</v>
+      </c>
+      <c r="AV54">
+        <v>1.7</v>
+      </c>
+      <c r="AW54">
+        <v>3.86</v>
+      </c>
+      <c r="AX54">
+        <v>1.38</v>
+      </c>
+      <c r="AY54">
+        <v>12.5</v>
+      </c>
+      <c r="AZ54">
+        <v>3.78</v>
+      </c>
+      <c r="BA54">
+        <v>1.08</v>
+      </c>
+      <c r="BB54">
         <v>1.18</v>
       </c>
-      <c r="AP54">
-        <v>2.85</v>
-      </c>
-      <c r="AQ54">
-        <v>2</v>
-      </c>
-      <c r="AR54">
-        <v>1.5</v>
-      </c>
-      <c r="AS54">
-        <v>2.33</v>
-      </c>
-      <c r="AT54">
-        <v>1.5</v>
-      </c>
-      <c r="AU54">
-        <v>2.57</v>
-      </c>
-      <c r="AV54">
-        <v>1.49</v>
-      </c>
-      <c r="AW54">
-        <v>4.06</v>
-      </c>
-      <c r="AX54">
-        <v>1.37</v>
-      </c>
-      <c r="AY54">
-        <v>12</v>
-      </c>
-      <c r="AZ54">
-        <v>3.88</v>
-      </c>
-      <c r="BA54">
-        <v>1.18</v>
-      </c>
-      <c r="BB54">
+      <c r="BC54">
         <v>1.36</v>
       </c>
-      <c r="BC54">
-        <v>2</v>
-      </c>
       <c r="BD54">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="BE54">
-        <v>2.69</v>
+        <v>1.98</v>
       </c>
       <c r="BF54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH54">
+        <v>17</v>
+      </c>
+      <c r="BI54">
         <v>5</v>
       </c>
-      <c r="BI54">
-        <v>13</v>
-      </c>
       <c r="BJ54">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="BK54">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:63">
@@ -11420,7 +11444,7 @@
         <v>1.75</v>
       </c>
       <c r="AT55">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU55">
         <v>2.15</v>
@@ -11479,7 +11503,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>5406483</v>
+        <v>5406486</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -11494,175 +11518,175 @@
         <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="Q56">
+        <v>9</v>
+      </c>
+      <c r="R56">
         <v>5</v>
       </c>
-      <c r="R56">
-        <v>4</v>
-      </c>
       <c r="S56">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T56">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V56">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="W56">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="X56">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="Y56">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Z56">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AA56">
+        <v>7.75</v>
+      </c>
+      <c r="AB56">
+        <v>1.07</v>
+      </c>
+      <c r="AC56">
+        <v>2</v>
+      </c>
+      <c r="AD56">
+        <v>3.23</v>
+      </c>
+      <c r="AE56">
+        <v>3.28</v>
+      </c>
+      <c r="AF56">
+        <v>1.06</v>
+      </c>
+      <c r="AG56">
+        <v>8</v>
+      </c>
+      <c r="AH56">
+        <v>1.33</v>
+      </c>
+      <c r="AI56">
+        <v>3.25</v>
+      </c>
+      <c r="AJ56">
+        <v>2</v>
+      </c>
+      <c r="AK56">
+        <v>1.8</v>
+      </c>
+      <c r="AL56">
+        <v>1.75</v>
+      </c>
+      <c r="AM56">
+        <v>2</v>
+      </c>
+      <c r="AN56">
+        <v>1.35</v>
+      </c>
+      <c r="AO56">
+        <v>1.31</v>
+      </c>
+      <c r="AP56">
+        <v>1.61</v>
+      </c>
+      <c r="AQ56">
+        <v>2</v>
+      </c>
+      <c r="AR56">
+        <v>2</v>
+      </c>
+      <c r="AS56">
+        <v>2.2</v>
+      </c>
+      <c r="AT56">
+        <v>1.25</v>
+      </c>
+      <c r="AU56">
+        <v>1.43</v>
+      </c>
+      <c r="AV56">
+        <v>1.7</v>
+      </c>
+      <c r="AW56">
+        <v>3.13</v>
+      </c>
+      <c r="AX56">
+        <v>1.64</v>
+      </c>
+      <c r="AY56">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ56">
+        <v>2.83</v>
+      </c>
+      <c r="BA56">
+        <v>1.34</v>
+      </c>
+      <c r="BB56">
+        <v>1.64</v>
+      </c>
+      <c r="BC56">
+        <v>2.11</v>
+      </c>
+      <c r="BD56">
+        <v>2.8</v>
+      </c>
+      <c r="BE56">
+        <v>3.86</v>
+      </c>
+      <c r="BF56">
+        <v>2</v>
+      </c>
+      <c r="BG56">
+        <v>6</v>
+      </c>
+      <c r="BH56">
+        <v>16</v>
+      </c>
+      <c r="BI56">
         <v>10</v>
       </c>
-      <c r="AB56">
-        <v>1.06</v>
-      </c>
-      <c r="AC56">
-        <v>2.06</v>
-      </c>
-      <c r="AD56">
-        <v>3.15</v>
-      </c>
-      <c r="AE56">
-        <v>3.2</v>
-      </c>
-      <c r="AF56">
-        <v>1.08</v>
-      </c>
-      <c r="AG56">
-        <v>8.5</v>
-      </c>
-      <c r="AH56">
-        <v>1.42</v>
-      </c>
-      <c r="AI56">
-        <v>2.8</v>
-      </c>
-      <c r="AJ56">
-        <v>2.3</v>
-      </c>
-      <c r="AK56">
-        <v>1.6</v>
-      </c>
-      <c r="AL56">
-        <v>1.95</v>
-      </c>
-      <c r="AM56">
-        <v>1.8</v>
-      </c>
-      <c r="AN56">
-        <v>1.37</v>
-      </c>
-      <c r="AO56">
-        <v>1.33</v>
-      </c>
-      <c r="AP56">
-        <v>1.55</v>
-      </c>
-      <c r="AQ56">
-        <v>2</v>
-      </c>
-      <c r="AR56">
-        <v>0.67</v>
-      </c>
-      <c r="AS56">
-        <v>2</v>
-      </c>
-      <c r="AT56">
-        <v>0.75</v>
-      </c>
-      <c r="AU56">
-        <v>2.06</v>
-      </c>
-      <c r="AV56">
-        <v>1.65</v>
-      </c>
-      <c r="AW56">
-        <v>3.71</v>
-      </c>
-      <c r="AX56">
-        <v>1.95</v>
-      </c>
-      <c r="AY56">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AZ56">
-        <v>2.23</v>
-      </c>
-      <c r="BA56">
-        <v>1.17</v>
-      </c>
-      <c r="BB56">
-        <v>1.34</v>
-      </c>
-      <c r="BC56">
-        <v>2</v>
-      </c>
-      <c r="BD56">
-        <v>2.06</v>
-      </c>
-      <c r="BE56">
-        <v>2.69</v>
-      </c>
-      <c r="BF56">
-        <v>4</v>
-      </c>
-      <c r="BG56">
-        <v>4</v>
-      </c>
-      <c r="BH56">
-        <v>5</v>
-      </c>
-      <c r="BI56">
-        <v>6</v>
-      </c>
       <c r="BJ56">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BK56">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:63">
@@ -11670,7 +11694,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>5406486</v>
+        <v>5406481</v>
       </c>
       <c r="C57" t="s">
         <v>63</v>
@@ -11685,175 +11709,175 @@
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" t="s">
         <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="Q57">
+        <v>14</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>15</v>
+      </c>
+      <c r="T57">
+        <v>2.5</v>
+      </c>
+      <c r="U57">
+        <v>2.05</v>
+      </c>
+      <c r="V57">
+        <v>5</v>
+      </c>
+      <c r="W57">
+        <v>1.44</v>
+      </c>
+      <c r="X57">
+        <v>2.63</v>
+      </c>
+      <c r="Y57">
+        <v>3.25</v>
+      </c>
+      <c r="Z57">
+        <v>1.33</v>
+      </c>
+      <c r="AA57">
+        <v>10</v>
+      </c>
+      <c r="AB57">
+        <v>1.06</v>
+      </c>
+      <c r="AC57">
+        <v>1.88</v>
+      </c>
+      <c r="AD57">
+        <v>3.2</v>
+      </c>
+      <c r="AE57">
+        <v>3.69</v>
+      </c>
+      <c r="AF57">
+        <v>1.07</v>
+      </c>
+      <c r="AG57">
         <v>9</v>
       </c>
-      <c r="R57">
+      <c r="AH57">
+        <v>1.4</v>
+      </c>
+      <c r="AI57">
+        <v>2.95</v>
+      </c>
+      <c r="AJ57">
+        <v>2.25</v>
+      </c>
+      <c r="AK57">
+        <v>1.62</v>
+      </c>
+      <c r="AL57">
+        <v>2</v>
+      </c>
+      <c r="AM57">
+        <v>1.75</v>
+      </c>
+      <c r="AN57">
+        <v>1.23</v>
+      </c>
+      <c r="AO57">
+        <v>1.3</v>
+      </c>
+      <c r="AP57">
+        <v>1.85</v>
+      </c>
+      <c r="AQ57">
+        <v>0.5</v>
+      </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
+      <c r="AS57">
+        <v>0.25</v>
+      </c>
+      <c r="AT57">
+        <v>0.75</v>
+      </c>
+      <c r="AU57">
+        <v>1.67</v>
+      </c>
+      <c r="AV57">
+        <v>1.57</v>
+      </c>
+      <c r="AW57">
+        <v>3.24</v>
+      </c>
+      <c r="AX57">
+        <v>1.57</v>
+      </c>
+      <c r="AY57">
+        <v>10.5</v>
+      </c>
+      <c r="AZ57">
+        <v>2.97</v>
+      </c>
+      <c r="BA57">
+        <v>1.17</v>
+      </c>
+      <c r="BB57">
+        <v>1.33</v>
+      </c>
+      <c r="BC57">
+        <v>2</v>
+      </c>
+      <c r="BD57">
+        <v>2.04</v>
+      </c>
+      <c r="BE57">
+        <v>2.62</v>
+      </c>
+      <c r="BF57">
+        <v>10</v>
+      </c>
+      <c r="BG57">
+        <v>2</v>
+      </c>
+      <c r="BH57">
+        <v>15</v>
+      </c>
+      <c r="BI57">
         <v>5</v>
       </c>
-      <c r="S57">
-        <v>14</v>
-      </c>
-      <c r="T57">
-        <v>2.88</v>
-      </c>
-      <c r="U57">
-        <v>2.1</v>
-      </c>
-      <c r="V57">
-        <v>3.75</v>
-      </c>
-      <c r="W57">
-        <v>1.42</v>
-      </c>
-      <c r="X57">
-        <v>2.65</v>
-      </c>
-      <c r="Y57">
-        <v>2.9</v>
-      </c>
-      <c r="Z57">
-        <v>1.36</v>
-      </c>
-      <c r="AA57">
-        <v>7.75</v>
-      </c>
-      <c r="AB57">
-        <v>1.07</v>
-      </c>
-      <c r="AC57">
-        <v>2</v>
-      </c>
-      <c r="AD57">
-        <v>3.23</v>
-      </c>
-      <c r="AE57">
-        <v>3.28</v>
-      </c>
-      <c r="AF57">
-        <v>1.06</v>
-      </c>
-      <c r="AG57">
-        <v>8</v>
-      </c>
-      <c r="AH57">
-        <v>1.33</v>
-      </c>
-      <c r="AI57">
-        <v>3.25</v>
-      </c>
-      <c r="AJ57">
-        <v>2</v>
-      </c>
-      <c r="AK57">
-        <v>1.8</v>
-      </c>
-      <c r="AL57">
-        <v>1.75</v>
-      </c>
-      <c r="AM57">
-        <v>2</v>
-      </c>
-      <c r="AN57">
-        <v>1.35</v>
-      </c>
-      <c r="AO57">
-        <v>1.31</v>
-      </c>
-      <c r="AP57">
-        <v>1.61</v>
-      </c>
-      <c r="AQ57">
-        <v>2</v>
-      </c>
-      <c r="AR57">
-        <v>2</v>
-      </c>
-      <c r="AS57">
-        <v>2</v>
-      </c>
-      <c r="AT57">
-        <v>1.25</v>
-      </c>
-      <c r="AU57">
-        <v>1.43</v>
-      </c>
-      <c r="AV57">
-        <v>1.7</v>
-      </c>
-      <c r="AW57">
-        <v>3.13</v>
-      </c>
-      <c r="AX57">
-        <v>1.64</v>
-      </c>
-      <c r="AY57">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AZ57">
-        <v>2.83</v>
-      </c>
-      <c r="BA57">
-        <v>1.34</v>
-      </c>
-      <c r="BB57">
-        <v>1.64</v>
-      </c>
-      <c r="BC57">
-        <v>2.11</v>
-      </c>
-      <c r="BD57">
-        <v>2.8</v>
-      </c>
-      <c r="BE57">
-        <v>3.86</v>
-      </c>
-      <c r="BF57">
-        <v>2</v>
-      </c>
-      <c r="BG57">
-        <v>6</v>
-      </c>
-      <c r="BH57">
-        <v>16</v>
-      </c>
-      <c r="BI57">
-        <v>10</v>
-      </c>
       <c r="BJ57">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="BK57">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:63">
@@ -11861,7 +11885,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>5406481</v>
+        <v>5406483</v>
       </c>
       <c r="C58" t="s">
         <v>63</v>
@@ -11876,64 +11900,64 @@
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>1</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <v>1</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O58" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="Q58">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="R58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S58">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T58">
+        <v>3.4</v>
+      </c>
+      <c r="U58">
+        <v>2</v>
+      </c>
+      <c r="V58">
+        <v>3.6</v>
+      </c>
+      <c r="W58">
+        <v>1.5</v>
+      </c>
+      <c r="X58">
         <v>2.5</v>
       </c>
-      <c r="U58">
-        <v>2.05</v>
-      </c>
-      <c r="V58">
-        <v>5</v>
-      </c>
-      <c r="W58">
-        <v>1.44</v>
-      </c>
-      <c r="X58">
-        <v>2.63</v>
-      </c>
       <c r="Y58">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Z58">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AA58">
         <v>10</v>
@@ -11942,109 +11966,109 @@
         <v>1.06</v>
       </c>
       <c r="AC58">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="AD58">
+        <v>3.15</v>
+      </c>
+      <c r="AE58">
         <v>3.2</v>
       </c>
-      <c r="AE58">
-        <v>3.69</v>
-      </c>
       <c r="AF58">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG58">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH58">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AI58">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="AJ58">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AK58">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AL58">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AM58">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AN58">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="AO58">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AR58">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AS58">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AT58">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU58">
-        <v>1.67</v>
+        <v>2.06</v>
       </c>
       <c r="AV58">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AW58">
-        <v>3.24</v>
+        <v>3.71</v>
       </c>
       <c r="AX58">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="AY58">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ58">
-        <v>2.97</v>
+        <v>2.23</v>
       </c>
       <c r="BA58">
         <v>1.17</v>
       </c>
       <c r="BB58">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="BC58">
         <v>2</v>
       </c>
       <c r="BD58">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="BE58">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
       <c r="BF58">
+        <v>4</v>
+      </c>
+      <c r="BG58">
+        <v>4</v>
+      </c>
+      <c r="BH58">
+        <v>5</v>
+      </c>
+      <c r="BI58">
+        <v>6</v>
+      </c>
+      <c r="BJ58">
+        <v>9</v>
+      </c>
+      <c r="BK58">
         <v>10</v>
-      </c>
-      <c r="BG58">
-        <v>2</v>
-      </c>
-      <c r="BH58">
-        <v>15</v>
-      </c>
-      <c r="BI58">
-        <v>5</v>
-      </c>
-      <c r="BJ58">
-        <v>25</v>
-      </c>
-      <c r="BK58">
-        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:63">
@@ -12052,7 +12076,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>5406484</v>
+        <v>5406487</v>
       </c>
       <c r="C59" t="s">
         <v>63</v>
@@ -12067,175 +12091,175 @@
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="H59" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O59" t="s">
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>4</v>
       </c>
       <c r="R59">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S59">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T59">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="U59">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="V59">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="W59">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="X59">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Y59">
+        <v>2.8</v>
+      </c>
+      <c r="Z59">
+        <v>1.37</v>
+      </c>
+      <c r="AA59">
+        <v>7.25</v>
+      </c>
+      <c r="AB59">
+        <v>1.08</v>
+      </c>
+      <c r="AC59">
+        <v>1.58</v>
+      </c>
+      <c r="AD59">
+        <v>3.55</v>
+      </c>
+      <c r="AE59">
+        <v>4.98</v>
+      </c>
+      <c r="AF59">
+        <v>1.06</v>
+      </c>
+      <c r="AG59">
+        <v>8</v>
+      </c>
+      <c r="AH59">
+        <v>1.3</v>
+      </c>
+      <c r="AI59">
         <v>3.4</v>
       </c>
-      <c r="Z59">
-        <v>1.3</v>
-      </c>
-      <c r="AA59">
-        <v>10</v>
-      </c>
-      <c r="AB59">
-        <v>1.06</v>
-      </c>
-      <c r="AC59">
-        <v>3.1</v>
-      </c>
-      <c r="AD59">
-        <v>3.1</v>
-      </c>
-      <c r="AE59">
-        <v>2.13</v>
-      </c>
-      <c r="AF59">
-        <v>1.07</v>
-      </c>
-      <c r="AG59">
+      <c r="AJ59">
+        <v>2</v>
+      </c>
+      <c r="AK59">
+        <v>1.8</v>
+      </c>
+      <c r="AL59">
+        <v>1.95</v>
+      </c>
+      <c r="AM59">
+        <v>1.8</v>
+      </c>
+      <c r="AN59">
+        <v>1.16</v>
+      </c>
+      <c r="AO59">
+        <v>1.24</v>
+      </c>
+      <c r="AP59">
+        <v>2.2</v>
+      </c>
+      <c r="AQ59">
+        <v>3</v>
+      </c>
+      <c r="AR59">
+        <v>0</v>
+      </c>
+      <c r="AS59">
+        <v>2.4</v>
+      </c>
+      <c r="AT59">
+        <v>0.2</v>
+      </c>
+      <c r="AU59">
+        <v>1.36</v>
+      </c>
+      <c r="AV59">
+        <v>1.26</v>
+      </c>
+      <c r="AW59">
+        <v>2.62</v>
+      </c>
+      <c r="AX59">
+        <v>1.53</v>
+      </c>
+      <c r="AY59">
         <v>9</v>
       </c>
-      <c r="AH59">
-        <v>1.4</v>
-      </c>
-      <c r="AI59">
-        <v>2.95</v>
-      </c>
-      <c r="AJ59">
-        <v>2.15</v>
-      </c>
-      <c r="AK59">
-        <v>1.67</v>
-      </c>
-      <c r="AL59">
-        <v>1.8</v>
-      </c>
-      <c r="AM59">
-        <v>1.95</v>
-      </c>
-      <c r="AN59">
-        <v>1.65</v>
-      </c>
-      <c r="AO59">
-        <v>1.33</v>
-      </c>
-      <c r="AP59">
-        <v>1.33</v>
-      </c>
-      <c r="AQ59">
-        <v>1.5</v>
-      </c>
-      <c r="AR59">
-        <v>3</v>
-      </c>
-      <c r="AS59">
-        <v>2</v>
-      </c>
-      <c r="AT59">
-        <v>2</v>
-      </c>
-      <c r="AU59">
-        <v>1.78</v>
-      </c>
-      <c r="AV59">
-        <v>1.07</v>
-      </c>
-      <c r="AW59">
-        <v>2.85</v>
-      </c>
-      <c r="AX59">
-        <v>2.08</v>
-      </c>
-      <c r="AY59">
-        <v>7.5</v>
-      </c>
       <c r="AZ59">
-        <v>1.98</v>
+        <v>2.9</v>
       </c>
       <c r="BA59">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="BB59">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="BC59">
-        <v>2.1</v>
+        <v>1.44</v>
       </c>
       <c r="BD59">
-        <v>2.03</v>
+        <v>1.72</v>
       </c>
       <c r="BE59">
-        <v>2.6</v>
+        <v>2.14</v>
       </c>
       <c r="BF59">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH59">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="BI59">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="BJ59">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="BK59">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:63">
@@ -12243,7 +12267,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>5406487</v>
+        <v>5406484</v>
       </c>
       <c r="C60" t="s">
         <v>63</v>
@@ -12258,175 +12282,175 @@
         <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O60" t="s">
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="Q60">
         <v>4</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S60">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T60">
+        <v>3.6</v>
+      </c>
+      <c r="U60">
+        <v>2.05</v>
+      </c>
+      <c r="V60">
+        <v>3.1</v>
+      </c>
+      <c r="W60">
+        <v>1.5</v>
+      </c>
+      <c r="X60">
+        <v>2.5</v>
+      </c>
+      <c r="Y60">
+        <v>3.4</v>
+      </c>
+      <c r="Z60">
+        <v>1.3</v>
+      </c>
+      <c r="AA60">
+        <v>10</v>
+      </c>
+      <c r="AB60">
+        <v>1.06</v>
+      </c>
+      <c r="AC60">
+        <v>3.1</v>
+      </c>
+      <c r="AD60">
+        <v>3.1</v>
+      </c>
+      <c r="AE60">
+        <v>2.13</v>
+      </c>
+      <c r="AF60">
+        <v>1.07</v>
+      </c>
+      <c r="AG60">
+        <v>9</v>
+      </c>
+      <c r="AH60">
+        <v>1.4</v>
+      </c>
+      <c r="AI60">
+        <v>2.95</v>
+      </c>
+      <c r="AJ60">
+        <v>2.15</v>
+      </c>
+      <c r="AK60">
+        <v>1.67</v>
+      </c>
+      <c r="AL60">
+        <v>1.8</v>
+      </c>
+      <c r="AM60">
+        <v>1.95</v>
+      </c>
+      <c r="AN60">
+        <v>1.65</v>
+      </c>
+      <c r="AO60">
+        <v>1.33</v>
+      </c>
+      <c r="AP60">
+        <v>1.33</v>
+      </c>
+      <c r="AQ60">
+        <v>1.5</v>
+      </c>
+      <c r="AR60">
+        <v>3</v>
+      </c>
+      <c r="AS60">
+        <v>1.5</v>
+      </c>
+      <c r="AT60">
+        <v>1.5</v>
+      </c>
+      <c r="AU60">
+        <v>1.78</v>
+      </c>
+      <c r="AV60">
+        <v>1.07</v>
+      </c>
+      <c r="AW60">
+        <v>2.85</v>
+      </c>
+      <c r="AX60">
+        <v>2.08</v>
+      </c>
+      <c r="AY60">
+        <v>7.5</v>
+      </c>
+      <c r="AZ60">
+        <v>1.98</v>
+      </c>
+      <c r="BA60">
+        <v>1.2</v>
+      </c>
+      <c r="BB60">
+        <v>1.38</v>
+      </c>
+      <c r="BC60">
         <v>2.1</v>
       </c>
-      <c r="U60">
-        <v>2.25</v>
-      </c>
-      <c r="V60">
+      <c r="BD60">
+        <v>2.03</v>
+      </c>
+      <c r="BE60">
+        <v>2.6</v>
+      </c>
+      <c r="BF60">
         <v>6</v>
       </c>
-      <c r="W60">
-        <v>1.39</v>
-      </c>
-      <c r="X60">
-        <v>2.75</v>
-      </c>
-      <c r="Y60">
-        <v>2.8</v>
-      </c>
-      <c r="Z60">
-        <v>1.37</v>
-      </c>
-      <c r="AA60">
-        <v>7.25</v>
-      </c>
-      <c r="AB60">
-        <v>1.08</v>
-      </c>
-      <c r="AC60">
-        <v>1.58</v>
-      </c>
-      <c r="AD60">
-        <v>3.55</v>
-      </c>
-      <c r="AE60">
-        <v>4.98</v>
-      </c>
-      <c r="AF60">
-        <v>1.06</v>
-      </c>
-      <c r="AG60">
-        <v>8</v>
-      </c>
-      <c r="AH60">
-        <v>1.3</v>
-      </c>
-      <c r="AI60">
-        <v>3.4</v>
-      </c>
-      <c r="AJ60">
-        <v>2</v>
-      </c>
-      <c r="AK60">
-        <v>1.8</v>
-      </c>
-      <c r="AL60">
-        <v>1.95</v>
-      </c>
-      <c r="AM60">
-        <v>1.8</v>
-      </c>
-      <c r="AN60">
-        <v>1.16</v>
-      </c>
-      <c r="AO60">
-        <v>1.24</v>
-      </c>
-      <c r="AP60">
-        <v>2.2</v>
-      </c>
-      <c r="AQ60">
-        <v>3</v>
-      </c>
-      <c r="AR60">
-        <v>0</v>
-      </c>
-      <c r="AS60">
-        <v>2.25</v>
-      </c>
-      <c r="AT60">
-        <v>0.25</v>
-      </c>
-      <c r="AU60">
-        <v>1.36</v>
-      </c>
-      <c r="AV60">
-        <v>1.26</v>
-      </c>
-      <c r="AW60">
-        <v>2.62</v>
-      </c>
-      <c r="AX60">
-        <v>1.53</v>
-      </c>
-      <c r="AY60">
+      <c r="BG60">
+        <v>3</v>
+      </c>
+      <c r="BH60">
+        <v>3</v>
+      </c>
+      <c r="BI60">
+        <v>15</v>
+      </c>
+      <c r="BJ60">
         <v>9</v>
       </c>
-      <c r="AZ60">
-        <v>2.9</v>
-      </c>
-      <c r="BA60">
-        <v>1.1</v>
-      </c>
-      <c r="BB60">
-        <v>1.25</v>
-      </c>
-      <c r="BC60">
-        <v>1.44</v>
-      </c>
-      <c r="BD60">
-        <v>1.72</v>
-      </c>
-      <c r="BE60">
-        <v>2.14</v>
-      </c>
-      <c r="BF60">
-        <v>8</v>
-      </c>
-      <c r="BG60">
-        <v>4</v>
-      </c>
-      <c r="BH60">
-        <v>19</v>
-      </c>
-      <c r="BI60">
-        <v>4</v>
-      </c>
-      <c r="BJ60">
-        <v>27</v>
-      </c>
       <c r="BK60">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:63">
@@ -12476,7 +12500,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12563,7 +12587,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT61">
         <v>1.75</v>
@@ -12667,7 +12691,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12816,7 +12840,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>5406499</v>
+        <v>5406491</v>
       </c>
       <c r="C63" t="s">
         <v>63</v>
@@ -12831,175 +12855,175 @@
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H63" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O63" t="s">
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S63">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U63">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V63">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="W63">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X63">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y63">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Z63">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA63">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB63">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AC63">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="AD63">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AE63">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="AF63">
         <v>1.05</v>
       </c>
       <c r="AG63">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH63">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AI63">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AJ63">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AK63">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AL63">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AM63">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AN63">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AO63">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AP63">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="AQ63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR63">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AS63">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="AT63">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU63">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AV63">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AW63">
-        <v>3.58</v>
+        <v>3.29</v>
       </c>
       <c r="AX63">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="AY63">
         <v>8</v>
       </c>
       <c r="AZ63">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="BA63">
         <v>1.18</v>
       </c>
       <c r="BB63">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="BC63">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="BD63">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="BE63">
         <v>2.35</v>
       </c>
       <c r="BF63">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG63">
+        <v>5</v>
+      </c>
+      <c r="BH63">
+        <v>13</v>
+      </c>
+      <c r="BI63">
         <v>7</v>
       </c>
-      <c r="BH63">
-        <v>7</v>
-      </c>
-      <c r="BI63">
-        <v>10</v>
-      </c>
       <c r="BJ63">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="BK63">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:63">
@@ -13007,7 +13031,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>5406494</v>
+        <v>5406492</v>
       </c>
       <c r="C64" t="s">
         <v>63</v>
@@ -13022,175 +13046,175 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O64" t="s">
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="Q64">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R64">
+        <v>9</v>
+      </c>
+      <c r="S64">
+        <v>12</v>
+      </c>
+      <c r="T64">
+        <v>2.5</v>
+      </c>
+      <c r="U64">
+        <v>2.05</v>
+      </c>
+      <c r="V64">
         <v>5</v>
       </c>
-      <c r="S64">
-        <v>11</v>
-      </c>
-      <c r="T64">
-        <v>2.6</v>
-      </c>
-      <c r="U64">
+      <c r="W64">
+        <v>1.5</v>
+      </c>
+      <c r="X64">
+        <v>2.5</v>
+      </c>
+      <c r="Y64">
+        <v>3.4</v>
+      </c>
+      <c r="Z64">
+        <v>1.3</v>
+      </c>
+      <c r="AA64">
+        <v>10</v>
+      </c>
+      <c r="AB64">
+        <v>1.06</v>
+      </c>
+      <c r="AC64">
+        <v>2</v>
+      </c>
+      <c r="AD64">
+        <v>3.2</v>
+      </c>
+      <c r="AE64">
+        <v>3.75</v>
+      </c>
+      <c r="AF64">
+        <v>1.07</v>
+      </c>
+      <c r="AG64">
+        <v>9</v>
+      </c>
+      <c r="AH64">
+        <v>1.42</v>
+      </c>
+      <c r="AI64">
+        <v>2.85</v>
+      </c>
+      <c r="AJ64">
         <v>2.1</v>
       </c>
-      <c r="V64">
-        <v>4.33</v>
-      </c>
-      <c r="W64">
-        <v>1.44</v>
-      </c>
-      <c r="X64">
-        <v>2.63</v>
-      </c>
-      <c r="Y64">
-        <v>3.25</v>
-      </c>
-      <c r="Z64">
-        <v>1.33</v>
-      </c>
-      <c r="AA64">
-        <v>9</v>
-      </c>
-      <c r="AB64">
-        <v>1.07</v>
-      </c>
-      <c r="AC64">
-        <v>2.3</v>
-      </c>
-      <c r="AD64">
-        <v>3</v>
-      </c>
-      <c r="AE64">
-        <v>3.1</v>
-      </c>
-      <c r="AF64">
-        <v>1.06</v>
-      </c>
-      <c r="AG64">
-        <v>9.5</v>
-      </c>
-      <c r="AH64">
-        <v>1.36</v>
-      </c>
-      <c r="AI64">
-        <v>3.1</v>
-      </c>
-      <c r="AJ64">
-        <v>2.15</v>
-      </c>
       <c r="AK64">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AL64">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AM64">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AN64">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AO64">
         <v>1.29</v>
       </c>
       <c r="AP64">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AQ64">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AR64">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AS64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT64">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU64">
-        <v>1.78</v>
+        <v>1.35</v>
       </c>
       <c r="AV64">
-        <v>1.27</v>
+        <v>0.98</v>
       </c>
       <c r="AW64">
-        <v>3.05</v>
+        <v>2.33</v>
       </c>
       <c r="AX64">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AY64">
         <v>8.5</v>
       </c>
       <c r="AZ64">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="BA64">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="BB64">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="BC64">
-        <v>1.49</v>
+        <v>1.91</v>
       </c>
       <c r="BD64">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="BE64">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="BF64">
+        <v>8</v>
+      </c>
+      <c r="BG64">
         <v>5</v>
       </c>
-      <c r="BG64">
-        <v>6</v>
-      </c>
       <c r="BH64">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI64">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BJ64">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BK64">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:63">
@@ -13198,7 +13222,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>5406497</v>
+        <v>5406494</v>
       </c>
       <c r="C65" t="s">
         <v>63</v>
@@ -13213,52 +13237,52 @@
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O65" t="s">
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="Q65">
+        <v>6</v>
+      </c>
+      <c r="R65">
         <v>5</v>
       </c>
-      <c r="R65">
-        <v>7</v>
-      </c>
       <c r="S65">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T65">
+        <v>2.6</v>
+      </c>
+      <c r="U65">
+        <v>2.1</v>
+      </c>
+      <c r="V65">
         <v>4.33</v>
-      </c>
-      <c r="U65">
-        <v>2.05</v>
-      </c>
-      <c r="V65">
-        <v>2.75</v>
       </c>
       <c r="W65">
         <v>1.44</v>
@@ -13279,109 +13303,109 @@
         <v>1.07</v>
       </c>
       <c r="AC65">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="AD65">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AE65">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="AF65">
         <v>1.06</v>
       </c>
       <c r="AG65">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH65">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AI65">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AJ65">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AK65">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AL65">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AM65">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AN65">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="AO65">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AP65">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="AQ65">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR65">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AS65">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AT65">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="AU65">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AV65">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AW65">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="AX65">
-        <v>2.6</v>
+        <v>1.52</v>
       </c>
       <c r="AY65">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ65">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="BA65">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BB65">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="BC65">
-        <v>1.83</v>
+        <v>1.49</v>
       </c>
       <c r="BD65">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="BE65">
-        <v>2.48</v>
+        <v>2.25</v>
       </c>
       <c r="BF65">
+        <v>5</v>
+      </c>
+      <c r="BG65">
         <v>6</v>
       </c>
-      <c r="BG65">
-        <v>8</v>
-      </c>
       <c r="BH65">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BI65">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BJ65">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BK65">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:63">
@@ -13389,7 +13413,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>5406492</v>
+        <v>5406497</v>
       </c>
       <c r="C66" t="s">
         <v>63</v>
@@ -13404,91 +13428,91 @@
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H66" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M66">
         <v>2</v>
       </c>
       <c r="N66">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O66" t="s">
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R66">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S66">
         <v>12</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="U66">
         <v>2.05</v>
       </c>
       <c r="V66">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="W66">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X66">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y66">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z66">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB66">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC66">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="AD66">
         <v>3.2</v>
       </c>
       <c r="AE66">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="AF66">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AG66">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH66">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AI66">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="AJ66">
         <v>2.1</v>
@@ -13497,82 +13521,82 @@
         <v>1.6</v>
       </c>
       <c r="AL66">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AM66">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AN66">
-        <v>1.22</v>
+        <v>1.8</v>
       </c>
       <c r="AO66">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AP66">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ66">
-        <v>3</v>
+        <v>0.67</v>
       </c>
       <c r="AR66">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AS66">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AT66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU66">
-        <v>1.35</v>
+        <v>1.63</v>
       </c>
       <c r="AV66">
-        <v>0.98</v>
+        <v>1.33</v>
       </c>
       <c r="AW66">
-        <v>2.33</v>
+        <v>2.96</v>
       </c>
       <c r="AX66">
-        <v>1.47</v>
+        <v>2.6</v>
       </c>
       <c r="AY66">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ66">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="BA66">
         <v>1.18</v>
       </c>
       <c r="BB66">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="BC66">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="BD66">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="BE66">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="BF66">
+        <v>6</v>
+      </c>
+      <c r="BG66">
         <v>8</v>
       </c>
-      <c r="BG66">
-        <v>5</v>
-      </c>
       <c r="BH66">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BI66">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BJ66">
         <v>16</v>
       </c>
       <c r="BK66">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:63">
@@ -13580,7 +13604,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>5406491</v>
+        <v>5406499</v>
       </c>
       <c r="C67" t="s">
         <v>63</v>
@@ -13595,175 +13619,175 @@
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H67" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O67" t="s">
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="Q67">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="T67">
+        <v>3</v>
+      </c>
+      <c r="U67">
+        <v>2.2</v>
+      </c>
+      <c r="V67">
         <v>3.5</v>
       </c>
-      <c r="U67">
-        <v>2.1</v>
-      </c>
-      <c r="V67">
+      <c r="W67">
+        <v>1.4</v>
+      </c>
+      <c r="X67">
+        <v>2.75</v>
+      </c>
+      <c r="Y67">
+        <v>3</v>
+      </c>
+      <c r="Z67">
+        <v>1.36</v>
+      </c>
+      <c r="AA67">
+        <v>8</v>
+      </c>
+      <c r="AB67">
+        <v>1.08</v>
+      </c>
+      <c r="AC67">
+        <v>2.55</v>
+      </c>
+      <c r="AD67">
         <v>3.2</v>
       </c>
-      <c r="W67">
-        <v>1.44</v>
-      </c>
-      <c r="X67">
-        <v>2.63</v>
-      </c>
-      <c r="Y67">
-        <v>3.25</v>
-      </c>
-      <c r="Z67">
-        <v>1.33</v>
-      </c>
-      <c r="AA67">
-        <v>9</v>
-      </c>
-      <c r="AB67">
-        <v>1.07</v>
-      </c>
-      <c r="AC67">
-        <v>2.8</v>
-      </c>
-      <c r="AD67">
-        <v>3</v>
-      </c>
       <c r="AE67">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="AF67">
         <v>1.05</v>
       </c>
       <c r="AG67">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH67">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AI67">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AJ67">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AK67">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AL67">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AM67">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AN67">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AO67">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AP67">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AQ67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR67">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AS67">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="AT67">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AU67">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="AV67">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AW67">
-        <v>3.29</v>
+        <v>3.58</v>
       </c>
       <c r="AX67">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="AY67">
         <v>8</v>
       </c>
       <c r="AZ67">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="BA67">
         <v>1.18</v>
       </c>
       <c r="BB67">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="BC67">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="BD67">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="BE67">
         <v>2.35</v>
       </c>
       <c r="BF67">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BG67">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH67">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BI67">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BJ67">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="BK67">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:63">
@@ -13900,7 +13924,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT68">
         <v>1.5</v>
@@ -14195,7 +14219,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14282,10 +14306,10 @@
         <v>0.33</v>
       </c>
       <c r="AS70">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT70">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU70">
         <v>1.55</v>
@@ -14386,7 +14410,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14473,10 +14497,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT71">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU71">
         <v>2.04</v>
@@ -14535,7 +14559,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>5406507</v>
+        <v>5406508</v>
       </c>
       <c r="C72" t="s">
         <v>63</v>
@@ -14550,91 +14574,91 @@
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H72" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O72" t="s">
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="Q72">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R72">
         <v>5</v>
       </c>
       <c r="S72">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T72">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="U72">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V72">
         <v>5</v>
       </c>
       <c r="W72">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X72">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Y72">
+        <v>3</v>
+      </c>
+      <c r="Z72">
+        <v>1.36</v>
+      </c>
+      <c r="AA72">
+        <v>8</v>
+      </c>
+      <c r="AB72">
+        <v>1.08</v>
+      </c>
+      <c r="AC72">
+        <v>1.77</v>
+      </c>
+      <c r="AD72">
+        <v>3.65</v>
+      </c>
+      <c r="AE72">
+        <v>4.4</v>
+      </c>
+      <c r="AF72">
+        <v>1.05</v>
+      </c>
+      <c r="AG72">
+        <v>11</v>
+      </c>
+      <c r="AH72">
+        <v>1.3</v>
+      </c>
+      <c r="AI72">
         <v>3.4</v>
-      </c>
-      <c r="Z72">
-        <v>1.3</v>
-      </c>
-      <c r="AA72">
-        <v>10</v>
-      </c>
-      <c r="AB72">
-        <v>1.06</v>
-      </c>
-      <c r="AC72">
-        <v>2</v>
-      </c>
-      <c r="AD72">
-        <v>3.3</v>
-      </c>
-      <c r="AE72">
-        <v>3.85</v>
-      </c>
-      <c r="AF72">
-        <v>1.08</v>
-      </c>
-      <c r="AG72">
-        <v>8</v>
-      </c>
-      <c r="AH72">
-        <v>1.44</v>
-      </c>
-      <c r="AI72">
-        <v>2.8</v>
       </c>
       <c r="AJ72">
         <v>2.1</v>
@@ -14649,76 +14673,76 @@
         <v>1.8</v>
       </c>
       <c r="AN72">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AO72">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="AP72">
-        <v>1.71</v>
+        <v>2.05</v>
       </c>
       <c r="AQ72">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AR72">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AS72">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT72">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU72">
+        <v>2.18</v>
+      </c>
+      <c r="AV72">
+        <v>1.21</v>
+      </c>
+      <c r="AW72">
+        <v>3.39</v>
+      </c>
+      <c r="AX72">
+        <v>1.44</v>
+      </c>
+      <c r="AY72">
+        <v>9</v>
+      </c>
+      <c r="AZ72">
+        <v>3.35</v>
+      </c>
+      <c r="BA72">
+        <v>1.15</v>
+      </c>
+      <c r="BB72">
+        <v>1.31</v>
+      </c>
+      <c r="BC72">
         <v>1.83</v>
       </c>
-      <c r="AV72">
-        <v>1.22</v>
-      </c>
-      <c r="AW72">
-        <v>3.05</v>
-      </c>
-      <c r="AX72">
-        <v>1.71</v>
-      </c>
-      <c r="AY72">
+      <c r="BD72">
+        <v>1.85</v>
+      </c>
+      <c r="BE72">
+        <v>2.34</v>
+      </c>
+      <c r="BF72">
         <v>8</v>
       </c>
-      <c r="AZ72">
-        <v>2.45</v>
-      </c>
-      <c r="BA72">
-        <v>1.2</v>
-      </c>
-      <c r="BB72">
-        <v>1.38</v>
-      </c>
-      <c r="BC72">
-        <v>1.91</v>
-      </c>
-      <c r="BD72">
-        <v>2.03</v>
-      </c>
-      <c r="BE72">
-        <v>2.6</v>
-      </c>
-      <c r="BF72">
-        <v>5</v>
-      </c>
       <c r="BG72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH72">
+        <v>9</v>
+      </c>
+      <c r="BI72">
         <v>12</v>
-      </c>
-      <c r="BI72">
-        <v>5</v>
       </c>
       <c r="BJ72">
         <v>17</v>
       </c>
       <c r="BK72">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:63">
@@ -14726,7 +14750,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>5406508</v>
+        <v>5406507</v>
       </c>
       <c r="C73" t="s">
         <v>63</v>
@@ -14741,91 +14765,91 @@
         <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H73" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O73" t="s">
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="Q73">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R73">
         <v>5</v>
       </c>
       <c r="S73">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T73">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="U73">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V73">
         <v>5</v>
       </c>
       <c r="W73">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X73">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y73">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Z73">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AA73">
+        <v>10</v>
+      </c>
+      <c r="AB73">
+        <v>1.06</v>
+      </c>
+      <c r="AC73">
+        <v>2</v>
+      </c>
+      <c r="AD73">
+        <v>3.3</v>
+      </c>
+      <c r="AE73">
+        <v>3.85</v>
+      </c>
+      <c r="AF73">
+        <v>1.08</v>
+      </c>
+      <c r="AG73">
         <v>8</v>
       </c>
-      <c r="AB73">
-        <v>1.08</v>
-      </c>
-      <c r="AC73">
-        <v>1.77</v>
-      </c>
-      <c r="AD73">
-        <v>3.65</v>
-      </c>
-      <c r="AE73">
-        <v>4.4</v>
-      </c>
-      <c r="AF73">
-        <v>1.05</v>
-      </c>
-      <c r="AG73">
-        <v>11</v>
-      </c>
       <c r="AH73">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AI73">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="AJ73">
         <v>2.1</v>
@@ -14840,76 +14864,76 @@
         <v>1.8</v>
       </c>
       <c r="AN73">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AO73">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="AP73">
-        <v>2.05</v>
+        <v>1.71</v>
       </c>
       <c r="AQ73">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AR73">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS73">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU73">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="AV73">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AW73">
-        <v>3.39</v>
+        <v>3.05</v>
       </c>
       <c r="AX73">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="AY73">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ73">
-        <v>3.35</v>
+        <v>2.45</v>
       </c>
       <c r="BA73">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="BB73">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="BC73">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="BD73">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="BE73">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="BF73">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH73">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BI73">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BJ73">
         <v>17</v>
       </c>
       <c r="BK73">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:63">
@@ -14959,7 +14983,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15150,7 +15174,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15240,7 +15264,7 @@
         <v>0.5</v>
       </c>
       <c r="AT75">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU75">
         <v>1.39</v>
@@ -15813,7 +15837,7 @@
         <v>2.25</v>
       </c>
       <c r="AT78">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU78">
         <v>1.65</v>
@@ -16105,7 +16129,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16438,6 +16462,1916 @@
       </c>
       <c r="BK81">
         <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:63">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>5406518</v>
+      </c>
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45080.66666666666</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>70</v>
+      </c>
+      <c r="H82" t="s">
+        <v>84</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
+        <v>86</v>
+      </c>
+      <c r="P82" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q82">
+        <v>8</v>
+      </c>
+      <c r="R82">
+        <v>4</v>
+      </c>
+      <c r="S82">
+        <v>12</v>
+      </c>
+      <c r="T82">
+        <v>2.3</v>
+      </c>
+      <c r="U82">
+        <v>2.2</v>
+      </c>
+      <c r="V82">
+        <v>5.5</v>
+      </c>
+      <c r="W82">
+        <v>1.36</v>
+      </c>
+      <c r="X82">
+        <v>3</v>
+      </c>
+      <c r="Y82">
+        <v>2.63</v>
+      </c>
+      <c r="Z82">
+        <v>1.44</v>
+      </c>
+      <c r="AA82">
+        <v>7</v>
+      </c>
+      <c r="AB82">
+        <v>1.1</v>
+      </c>
+      <c r="AC82">
+        <v>1.7</v>
+      </c>
+      <c r="AD82">
+        <v>3.4</v>
+      </c>
+      <c r="AE82">
+        <v>4.33</v>
+      </c>
+      <c r="AF82">
+        <v>1.04</v>
+      </c>
+      <c r="AG82">
+        <v>12</v>
+      </c>
+      <c r="AH82">
+        <v>1.25</v>
+      </c>
+      <c r="AI82">
+        <v>3.75</v>
+      </c>
+      <c r="AJ82">
+        <v>1.85</v>
+      </c>
+      <c r="AK82">
+        <v>1.87</v>
+      </c>
+      <c r="AL82">
+        <v>1.95</v>
+      </c>
+      <c r="AM82">
+        <v>1.8</v>
+      </c>
+      <c r="AN82">
+        <v>1.16</v>
+      </c>
+      <c r="AO82">
+        <v>1.25</v>
+      </c>
+      <c r="AP82">
+        <v>2.2</v>
+      </c>
+      <c r="AQ82">
+        <v>2</v>
+      </c>
+      <c r="AR82">
+        <v>0.75</v>
+      </c>
+      <c r="AS82">
+        <v>1.8</v>
+      </c>
+      <c r="AT82">
+        <v>0.8</v>
+      </c>
+      <c r="AU82">
+        <v>2.14</v>
+      </c>
+      <c r="AV82">
+        <v>1.4</v>
+      </c>
+      <c r="AW82">
+        <v>3.54</v>
+      </c>
+      <c r="AX82">
+        <v>1.46</v>
+      </c>
+      <c r="AY82">
+        <v>9</v>
+      </c>
+      <c r="AZ82">
+        <v>3.2</v>
+      </c>
+      <c r="BA82">
+        <v>1.17</v>
+      </c>
+      <c r="BB82">
+        <v>1.33</v>
+      </c>
+      <c r="BC82">
+        <v>2.1</v>
+      </c>
+      <c r="BD82">
+        <v>1.92</v>
+      </c>
+      <c r="BE82">
+        <v>2.45</v>
+      </c>
+      <c r="BF82">
+        <v>4</v>
+      </c>
+      <c r="BG82">
+        <v>3</v>
+      </c>
+      <c r="BH82">
+        <v>9</v>
+      </c>
+      <c r="BI82">
+        <v>5</v>
+      </c>
+      <c r="BJ82">
+        <v>13</v>
+      </c>
+      <c r="BK82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:63">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>5406519</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45080.77083333334</v>
+      </c>
+      <c r="F83">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>66</v>
+      </c>
+      <c r="H83" t="s">
+        <v>73</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>150</v>
+      </c>
+      <c r="P83" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q83">
+        <v>2</v>
+      </c>
+      <c r="R83">
+        <v>3</v>
+      </c>
+      <c r="S83">
+        <v>5</v>
+      </c>
+      <c r="T83">
+        <v>3.1</v>
+      </c>
+      <c r="U83">
+        <v>2.05</v>
+      </c>
+      <c r="V83">
+        <v>3.6</v>
+      </c>
+      <c r="W83">
+        <v>1.44</v>
+      </c>
+      <c r="X83">
+        <v>2.63</v>
+      </c>
+      <c r="Y83">
+        <v>3.25</v>
+      </c>
+      <c r="Z83">
+        <v>1.33</v>
+      </c>
+      <c r="AA83">
+        <v>9</v>
+      </c>
+      <c r="AB83">
+        <v>1.07</v>
+      </c>
+      <c r="AC83">
+        <v>2.35</v>
+      </c>
+      <c r="AD83">
+        <v>3</v>
+      </c>
+      <c r="AE83">
+        <v>2.87</v>
+      </c>
+      <c r="AF83">
+        <v>1.06</v>
+      </c>
+      <c r="AG83">
+        <v>10</v>
+      </c>
+      <c r="AH83">
+        <v>1.35</v>
+      </c>
+      <c r="AI83">
+        <v>3.2</v>
+      </c>
+      <c r="AJ83">
+        <v>2.15</v>
+      </c>
+      <c r="AK83">
+        <v>1.61</v>
+      </c>
+      <c r="AL83">
+        <v>1.91</v>
+      </c>
+      <c r="AM83">
+        <v>1.91</v>
+      </c>
+      <c r="AN83">
+        <v>1.36</v>
+      </c>
+      <c r="AO83">
+        <v>1.32</v>
+      </c>
+      <c r="AP83">
+        <v>1.58</v>
+      </c>
+      <c r="AQ83">
+        <v>0.75</v>
+      </c>
+      <c r="AR83">
+        <v>0</v>
+      </c>
+      <c r="AS83">
+        <v>1.2</v>
+      </c>
+      <c r="AT83">
+        <v>0</v>
+      </c>
+      <c r="AU83">
+        <v>1.74</v>
+      </c>
+      <c r="AV83">
+        <v>1.18</v>
+      </c>
+      <c r="AW83">
+        <v>2.92</v>
+      </c>
+      <c r="AX83">
+        <v>1.82</v>
+      </c>
+      <c r="AY83">
+        <v>7.5</v>
+      </c>
+      <c r="AZ83">
+        <v>2.28</v>
+      </c>
+      <c r="BA83">
+        <v>1.14</v>
+      </c>
+      <c r="BB83">
+        <v>1.3</v>
+      </c>
+      <c r="BC83">
+        <v>2</v>
+      </c>
+      <c r="BD83">
+        <v>1.95</v>
+      </c>
+      <c r="BE83">
+        <v>2.55</v>
+      </c>
+      <c r="BF83">
+        <v>7</v>
+      </c>
+      <c r="BG83">
+        <v>3</v>
+      </c>
+      <c r="BH83">
+        <v>6</v>
+      </c>
+      <c r="BI83">
+        <v>2</v>
+      </c>
+      <c r="BJ83">
+        <v>13</v>
+      </c>
+      <c r="BK83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>5406517</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45080.77083333334</v>
+      </c>
+      <c r="F84">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>69</v>
+      </c>
+      <c r="H84" t="s">
+        <v>67</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84" t="s">
+        <v>102</v>
+      </c>
+      <c r="P84" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q84">
+        <v>6</v>
+      </c>
+      <c r="R84">
+        <v>7</v>
+      </c>
+      <c r="S84">
+        <v>13</v>
+      </c>
+      <c r="T84">
+        <v>2.88</v>
+      </c>
+      <c r="U84">
+        <v>2.1</v>
+      </c>
+      <c r="V84">
+        <v>4</v>
+      </c>
+      <c r="W84">
+        <v>1.44</v>
+      </c>
+      <c r="X84">
+        <v>2.63</v>
+      </c>
+      <c r="Y84">
+        <v>3.25</v>
+      </c>
+      <c r="Z84">
+        <v>1.33</v>
+      </c>
+      <c r="AA84">
+        <v>9</v>
+      </c>
+      <c r="AB84">
+        <v>1.07</v>
+      </c>
+      <c r="AC84">
+        <v>2.35</v>
+      </c>
+      <c r="AD84">
+        <v>3</v>
+      </c>
+      <c r="AE84">
+        <v>2.87</v>
+      </c>
+      <c r="AF84">
+        <v>1.06</v>
+      </c>
+      <c r="AG84">
+        <v>9.5</v>
+      </c>
+      <c r="AH84">
+        <v>1.36</v>
+      </c>
+      <c r="AI84">
+        <v>3.1</v>
+      </c>
+      <c r="AJ84">
+        <v>2.15</v>
+      </c>
+      <c r="AK84">
+        <v>1.61</v>
+      </c>
+      <c r="AL84">
+        <v>1.95</v>
+      </c>
+      <c r="AM84">
+        <v>1.8</v>
+      </c>
+      <c r="AN84">
+        <v>1.29</v>
+      </c>
+      <c r="AO84">
+        <v>1.32</v>
+      </c>
+      <c r="AP84">
+        <v>1.68</v>
+      </c>
+      <c r="AQ84">
+        <v>2.25</v>
+      </c>
+      <c r="AR84">
+        <v>2</v>
+      </c>
+      <c r="AS84">
+        <v>2.4</v>
+      </c>
+      <c r="AT84">
+        <v>1.5</v>
+      </c>
+      <c r="AU84">
+        <v>1.85</v>
+      </c>
+      <c r="AV84">
+        <v>1.31</v>
+      </c>
+      <c r="AW84">
+        <v>3.16</v>
+      </c>
+      <c r="AX84">
+        <v>1.65</v>
+      </c>
+      <c r="AY84">
+        <v>8.5</v>
+      </c>
+      <c r="AZ84">
+        <v>2.55</v>
+      </c>
+      <c r="BA84">
+        <v>1.12</v>
+      </c>
+      <c r="BB84">
+        <v>1.29</v>
+      </c>
+      <c r="BC84">
+        <v>1.83</v>
+      </c>
+      <c r="BD84">
+        <v>1.85</v>
+      </c>
+      <c r="BE84">
+        <v>2.4</v>
+      </c>
+      <c r="BF84">
+        <v>8</v>
+      </c>
+      <c r="BG84">
+        <v>5</v>
+      </c>
+      <c r="BH84">
+        <v>4</v>
+      </c>
+      <c r="BI84">
+        <v>5</v>
+      </c>
+      <c r="BJ84">
+        <v>12</v>
+      </c>
+      <c r="BK84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>5406515</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45080.77083333334</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>78</v>
+      </c>
+      <c r="H85" t="s">
+        <v>71</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85" t="s">
+        <v>86</v>
+      </c>
+      <c r="P85" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q85">
+        <v>12</v>
+      </c>
+      <c r="R85">
+        <v>4</v>
+      </c>
+      <c r="S85">
+        <v>16</v>
+      </c>
+      <c r="T85">
+        <v>3.75</v>
+      </c>
+      <c r="U85">
+        <v>2.05</v>
+      </c>
+      <c r="V85">
+        <v>3</v>
+      </c>
+      <c r="W85">
+        <v>1.44</v>
+      </c>
+      <c r="X85">
+        <v>2.63</v>
+      </c>
+      <c r="Y85">
+        <v>3.25</v>
+      </c>
+      <c r="Z85">
+        <v>1.33</v>
+      </c>
+      <c r="AA85">
+        <v>10</v>
+      </c>
+      <c r="AB85">
+        <v>1.06</v>
+      </c>
+      <c r="AC85">
+        <v>3.4</v>
+      </c>
+      <c r="AD85">
+        <v>3</v>
+      </c>
+      <c r="AE85">
+        <v>2.05</v>
+      </c>
+      <c r="AF85">
+        <v>1.07</v>
+      </c>
+      <c r="AG85">
+        <v>9.5</v>
+      </c>
+      <c r="AH85">
+        <v>1.38</v>
+      </c>
+      <c r="AI85">
+        <v>3</v>
+      </c>
+      <c r="AJ85">
+        <v>2.15</v>
+      </c>
+      <c r="AK85">
+        <v>1.61</v>
+      </c>
+      <c r="AL85">
+        <v>1.95</v>
+      </c>
+      <c r="AM85">
+        <v>1.8</v>
+      </c>
+      <c r="AN85">
+        <v>1.57</v>
+      </c>
+      <c r="AO85">
+        <v>1.33</v>
+      </c>
+      <c r="AP85">
+        <v>1.37</v>
+      </c>
+      <c r="AQ85">
+        <v>1.5</v>
+      </c>
+      <c r="AR85">
+        <v>1.75</v>
+      </c>
+      <c r="AS85">
+        <v>1.2</v>
+      </c>
+      <c r="AT85">
+        <v>2</v>
+      </c>
+      <c r="AU85">
+        <v>2.07</v>
+      </c>
+      <c r="AV85">
+        <v>1.55</v>
+      </c>
+      <c r="AW85">
+        <v>3.62</v>
+      </c>
+      <c r="AX85">
+        <v>1.93</v>
+      </c>
+      <c r="AY85">
+        <v>8</v>
+      </c>
+      <c r="AZ85">
+        <v>2.12</v>
+      </c>
+      <c r="BA85">
+        <v>1.11</v>
+      </c>
+      <c r="BB85">
+        <v>1.25</v>
+      </c>
+      <c r="BC85">
+        <v>1.45</v>
+      </c>
+      <c r="BD85">
+        <v>1.75</v>
+      </c>
+      <c r="BE85">
+        <v>2.25</v>
+      </c>
+      <c r="BF85">
+        <v>6</v>
+      </c>
+      <c r="BG85">
+        <v>4</v>
+      </c>
+      <c r="BH85">
+        <v>7</v>
+      </c>
+      <c r="BI85">
+        <v>3</v>
+      </c>
+      <c r="BJ85">
+        <v>13</v>
+      </c>
+      <c r="BK85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:63">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>5406513</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45080.875</v>
+      </c>
+      <c r="F86">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>80</v>
+      </c>
+      <c r="H86" t="s">
+        <v>79</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>104</v>
+      </c>
+      <c r="P86" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q86">
+        <v>5</v>
+      </c>
+      <c r="R86">
+        <v>5</v>
+      </c>
+      <c r="S86">
+        <v>10</v>
+      </c>
+      <c r="T86">
+        <v>3.2</v>
+      </c>
+      <c r="U86">
+        <v>1.83</v>
+      </c>
+      <c r="V86">
+        <v>4.33</v>
+      </c>
+      <c r="W86">
+        <v>1.53</v>
+      </c>
+      <c r="X86">
+        <v>2.38</v>
+      </c>
+      <c r="Y86">
+        <v>3.75</v>
+      </c>
+      <c r="Z86">
+        <v>1.25</v>
+      </c>
+      <c r="AA86">
+        <v>11</v>
+      </c>
+      <c r="AB86">
+        <v>1.05</v>
+      </c>
+      <c r="AC86">
+        <v>2.3</v>
+      </c>
+      <c r="AD86">
+        <v>3</v>
+      </c>
+      <c r="AE86">
+        <v>3.5</v>
+      </c>
+      <c r="AF86">
+        <v>1.09</v>
+      </c>
+      <c r="AG86">
+        <v>8</v>
+      </c>
+      <c r="AH86">
+        <v>1.53</v>
+      </c>
+      <c r="AI86">
+        <v>2.45</v>
+      </c>
+      <c r="AJ86">
+        <v>2.88</v>
+      </c>
+      <c r="AK86">
+        <v>1.4</v>
+      </c>
+      <c r="AL86">
+        <v>2.25</v>
+      </c>
+      <c r="AM86">
+        <v>1.57</v>
+      </c>
+      <c r="AN86">
+        <v>1.33</v>
+      </c>
+      <c r="AO86">
+        <v>1.4</v>
+      </c>
+      <c r="AP86">
+        <v>1.57</v>
+      </c>
+      <c r="AQ86">
+        <v>2</v>
+      </c>
+      <c r="AR86">
+        <v>0.25</v>
+      </c>
+      <c r="AS86">
+        <v>1.8</v>
+      </c>
+      <c r="AT86">
+        <v>0.4</v>
+      </c>
+      <c r="AU86">
+        <v>1.5</v>
+      </c>
+      <c r="AV86">
+        <v>1.66</v>
+      </c>
+      <c r="AW86">
+        <v>3.16</v>
+      </c>
+      <c r="AX86">
+        <v>1.8</v>
+      </c>
+      <c r="AY86">
+        <v>7.5</v>
+      </c>
+      <c r="AZ86">
+        <v>2.3</v>
+      </c>
+      <c r="BA86">
+        <v>1.21</v>
+      </c>
+      <c r="BB86">
+        <v>1.42</v>
+      </c>
+      <c r="BC86">
+        <v>2</v>
+      </c>
+      <c r="BD86">
+        <v>2.19</v>
+      </c>
+      <c r="BE86">
+        <v>2.88</v>
+      </c>
+      <c r="BF86">
+        <v>5</v>
+      </c>
+      <c r="BG86">
+        <v>4</v>
+      </c>
+      <c r="BH86">
+        <v>12</v>
+      </c>
+      <c r="BI86">
+        <v>3</v>
+      </c>
+      <c r="BJ86">
+        <v>17</v>
+      </c>
+      <c r="BK86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:63">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>5406510</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45081.66666666666</v>
+      </c>
+      <c r="F87">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>75</v>
+      </c>
+      <c r="H87" t="s">
+        <v>68</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87" t="s">
+        <v>151</v>
+      </c>
+      <c r="P87" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q87">
+        <v>6</v>
+      </c>
+      <c r="R87">
+        <v>7</v>
+      </c>
+      <c r="S87">
+        <v>13</v>
+      </c>
+      <c r="T87">
+        <v>2.38</v>
+      </c>
+      <c r="U87">
+        <v>2.25</v>
+      </c>
+      <c r="V87">
+        <v>4.5</v>
+      </c>
+      <c r="W87">
+        <v>1.36</v>
+      </c>
+      <c r="X87">
+        <v>3</v>
+      </c>
+      <c r="Y87">
+        <v>2.63</v>
+      </c>
+      <c r="Z87">
+        <v>1.44</v>
+      </c>
+      <c r="AA87">
+        <v>7</v>
+      </c>
+      <c r="AB87">
+        <v>1.1</v>
+      </c>
+      <c r="AC87">
+        <v>1.81</v>
+      </c>
+      <c r="AD87">
+        <v>3.78</v>
+      </c>
+      <c r="AE87">
+        <v>4.24</v>
+      </c>
+      <c r="AF87">
+        <v>1.04</v>
+      </c>
+      <c r="AG87">
+        <v>12</v>
+      </c>
+      <c r="AH87">
+        <v>1.25</v>
+      </c>
+      <c r="AI87">
+        <v>3.6</v>
+      </c>
+      <c r="AJ87">
+        <v>1.85</v>
+      </c>
+      <c r="AK87">
+        <v>1.95</v>
+      </c>
+      <c r="AL87">
+        <v>1.75</v>
+      </c>
+      <c r="AM87">
+        <v>2</v>
+      </c>
+      <c r="AN87">
+        <v>1.2</v>
+      </c>
+      <c r="AO87">
+        <v>1.27</v>
+      </c>
+      <c r="AP87">
+        <v>2</v>
+      </c>
+      <c r="AQ87">
+        <v>2.33</v>
+      </c>
+      <c r="AR87">
+        <v>1</v>
+      </c>
+      <c r="AS87">
+        <v>2.5</v>
+      </c>
+      <c r="AT87">
+        <v>0.75</v>
+      </c>
+      <c r="AU87">
+        <v>2.04</v>
+      </c>
+      <c r="AV87">
+        <v>1.54</v>
+      </c>
+      <c r="AW87">
+        <v>3.58</v>
+      </c>
+      <c r="AX87">
+        <v>1.47</v>
+      </c>
+      <c r="AY87">
+        <v>9</v>
+      </c>
+      <c r="AZ87">
+        <v>3.15</v>
+      </c>
+      <c r="BA87">
+        <v>1.08</v>
+      </c>
+      <c r="BB87">
+        <v>1.2</v>
+      </c>
+      <c r="BC87">
+        <v>1.36</v>
+      </c>
+      <c r="BD87">
+        <v>1.65</v>
+      </c>
+      <c r="BE87">
+        <v>2.1</v>
+      </c>
+      <c r="BF87">
+        <v>5</v>
+      </c>
+      <c r="BG87">
+        <v>4</v>
+      </c>
+      <c r="BH87">
+        <v>7</v>
+      </c>
+      <c r="BI87">
+        <v>14</v>
+      </c>
+      <c r="BJ87">
+        <v>12</v>
+      </c>
+      <c r="BK87">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:63">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>5406516</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45081.66666666666</v>
+      </c>
+      <c r="F88">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>74</v>
+      </c>
+      <c r="H88" t="s">
+        <v>77</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>3</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88" t="s">
+        <v>152</v>
+      </c>
+      <c r="P88" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q88">
+        <v>7</v>
+      </c>
+      <c r="R88">
+        <v>8</v>
+      </c>
+      <c r="S88">
+        <v>15</v>
+      </c>
+      <c r="T88">
+        <v>3.1</v>
+      </c>
+      <c r="U88">
+        <v>2.05</v>
+      </c>
+      <c r="V88">
+        <v>3.75</v>
+      </c>
+      <c r="W88">
+        <v>1.44</v>
+      </c>
+      <c r="X88">
+        <v>2.63</v>
+      </c>
+      <c r="Y88">
+        <v>3.25</v>
+      </c>
+      <c r="Z88">
+        <v>1.33</v>
+      </c>
+      <c r="AA88">
+        <v>9</v>
+      </c>
+      <c r="AB88">
+        <v>1.07</v>
+      </c>
+      <c r="AC88">
+        <v>2.15</v>
+      </c>
+      <c r="AD88">
+        <v>3.38</v>
+      </c>
+      <c r="AE88">
+        <v>3.4</v>
+      </c>
+      <c r="AF88">
+        <v>1.07</v>
+      </c>
+      <c r="AG88">
+        <v>7.75</v>
+      </c>
+      <c r="AH88">
+        <v>1.35</v>
+      </c>
+      <c r="AI88">
+        <v>2.95</v>
+      </c>
+      <c r="AJ88">
+        <v>2.15</v>
+      </c>
+      <c r="AK88">
+        <v>1.7</v>
+      </c>
+      <c r="AL88">
+        <v>1.91</v>
+      </c>
+      <c r="AM88">
+        <v>1.91</v>
+      </c>
+      <c r="AN88">
+        <v>1.33</v>
+      </c>
+      <c r="AO88">
+        <v>1.32</v>
+      </c>
+      <c r="AP88">
+        <v>1.62</v>
+      </c>
+      <c r="AQ88">
+        <v>2</v>
+      </c>
+      <c r="AR88">
+        <v>0.75</v>
+      </c>
+      <c r="AS88">
+        <v>2.2</v>
+      </c>
+      <c r="AT88">
+        <v>0.6</v>
+      </c>
+      <c r="AU88">
+        <v>1.62</v>
+      </c>
+      <c r="AV88">
+        <v>1.56</v>
+      </c>
+      <c r="AW88">
+        <v>3.18</v>
+      </c>
+      <c r="AX88">
+        <v>1.7</v>
+      </c>
+      <c r="AY88">
+        <v>8</v>
+      </c>
+      <c r="AZ88">
+        <v>2.5</v>
+      </c>
+      <c r="BA88">
+        <v>1.17</v>
+      </c>
+      <c r="BB88">
+        <v>1.36</v>
+      </c>
+      <c r="BC88">
+        <v>1.91</v>
+      </c>
+      <c r="BD88">
+        <v>2.1</v>
+      </c>
+      <c r="BE88">
+        <v>2.88</v>
+      </c>
+      <c r="BF88">
+        <v>9</v>
+      </c>
+      <c r="BG88">
+        <v>4</v>
+      </c>
+      <c r="BH88">
+        <v>15</v>
+      </c>
+      <c r="BI88">
+        <v>14</v>
+      </c>
+      <c r="BJ88">
+        <v>24</v>
+      </c>
+      <c r="BK88">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:63">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>5406512</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45081.77083333334</v>
+      </c>
+      <c r="F89">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>65</v>
+      </c>
+      <c r="H89" t="s">
+        <v>82</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89" t="s">
+        <v>153</v>
+      </c>
+      <c r="P89" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q89">
+        <v>11</v>
+      </c>
+      <c r="R89">
+        <v>6</v>
+      </c>
+      <c r="S89">
+        <v>17</v>
+      </c>
+      <c r="T89">
+        <v>1.67</v>
+      </c>
+      <c r="U89">
+        <v>2.6</v>
+      </c>
+      <c r="V89">
+        <v>12</v>
+      </c>
+      <c r="W89">
+        <v>1.3</v>
+      </c>
+      <c r="X89">
+        <v>3.4</v>
+      </c>
+      <c r="Y89">
+        <v>2.5</v>
+      </c>
+      <c r="Z89">
+        <v>1.5</v>
+      </c>
+      <c r="AA89">
+        <v>6</v>
+      </c>
+      <c r="AB89">
+        <v>1.13</v>
+      </c>
+      <c r="AC89">
+        <v>1.23</v>
+      </c>
+      <c r="AD89">
+        <v>6.05</v>
+      </c>
+      <c r="AE89">
+        <v>13</v>
+      </c>
+      <c r="AF89">
+        <v>1.03</v>
+      </c>
+      <c r="AG89">
+        <v>12.5</v>
+      </c>
+      <c r="AH89">
+        <v>1.2</v>
+      </c>
+      <c r="AI89">
+        <v>4</v>
+      </c>
+      <c r="AJ89">
+        <v>1.74</v>
+      </c>
+      <c r="AK89">
+        <v>2.09</v>
+      </c>
+      <c r="AL89">
+        <v>2.63</v>
+      </c>
+      <c r="AM89">
+        <v>1.44</v>
+      </c>
+      <c r="AN89">
+        <v>1.02</v>
+      </c>
+      <c r="AO89">
+        <v>1.1</v>
+      </c>
+      <c r="AP89">
+        <v>4.75</v>
+      </c>
+      <c r="AQ89">
+        <v>2.5</v>
+      </c>
+      <c r="AR89">
+        <v>0.25</v>
+      </c>
+      <c r="AS89">
+        <v>2.6</v>
+      </c>
+      <c r="AT89">
+        <v>0.2</v>
+      </c>
+      <c r="AU89">
+        <v>2.25</v>
+      </c>
+      <c r="AV89">
+        <v>1.15</v>
+      </c>
+      <c r="AW89">
+        <v>3.4</v>
+      </c>
+      <c r="AX89">
+        <v>1.16</v>
+      </c>
+      <c r="AY89">
+        <v>13</v>
+      </c>
+      <c r="AZ89">
+        <v>7.5</v>
+      </c>
+      <c r="BA89">
+        <v>1.11</v>
+      </c>
+      <c r="BB89">
+        <v>1.27</v>
+      </c>
+      <c r="BC89">
+        <v>1.48</v>
+      </c>
+      <c r="BD89">
+        <v>1.79</v>
+      </c>
+      <c r="BE89">
+        <v>2.2</v>
+      </c>
+      <c r="BF89">
+        <v>9</v>
+      </c>
+      <c r="BG89">
+        <v>5</v>
+      </c>
+      <c r="BH89">
+        <v>6</v>
+      </c>
+      <c r="BI89">
+        <v>2</v>
+      </c>
+      <c r="BJ89">
+        <v>15</v>
+      </c>
+      <c r="BK89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:63">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>5406514</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45081.77083333334</v>
+      </c>
+      <c r="F90">
+        <v>9</v>
+      </c>
+      <c r="G90" t="s">
+        <v>83</v>
+      </c>
+      <c r="H90" t="s">
+        <v>76</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90" t="s">
+        <v>86</v>
+      </c>
+      <c r="P90" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q90">
+        <v>4</v>
+      </c>
+      <c r="R90">
+        <v>5</v>
+      </c>
+      <c r="S90">
+        <v>9</v>
+      </c>
+      <c r="T90">
+        <v>3</v>
+      </c>
+      <c r="U90">
+        <v>2</v>
+      </c>
+      <c r="V90">
+        <v>4</v>
+      </c>
+      <c r="W90">
+        <v>1.5</v>
+      </c>
+      <c r="X90">
+        <v>2.5</v>
+      </c>
+      <c r="Y90">
+        <v>3.4</v>
+      </c>
+      <c r="Z90">
+        <v>1.3</v>
+      </c>
+      <c r="AA90">
+        <v>10</v>
+      </c>
+      <c r="AB90">
+        <v>1.06</v>
+      </c>
+      <c r="AC90">
+        <v>2.25</v>
+      </c>
+      <c r="AD90">
+        <v>3.28</v>
+      </c>
+      <c r="AE90">
+        <v>3.28</v>
+      </c>
+      <c r="AF90">
+        <v>1.08</v>
+      </c>
+      <c r="AG90">
+        <v>8.5</v>
+      </c>
+      <c r="AH90">
+        <v>1.44</v>
+      </c>
+      <c r="AI90">
+        <v>2.8</v>
+      </c>
+      <c r="AJ90">
+        <v>2.2</v>
+      </c>
+      <c r="AK90">
+        <v>1.67</v>
+      </c>
+      <c r="AL90">
+        <v>2</v>
+      </c>
+      <c r="AM90">
+        <v>1.75</v>
+      </c>
+      <c r="AN90">
+        <v>1.3</v>
+      </c>
+      <c r="AO90">
+        <v>1.28</v>
+      </c>
+      <c r="AP90">
+        <v>1.72</v>
+      </c>
+      <c r="AQ90">
+        <v>2</v>
+      </c>
+      <c r="AR90">
+        <v>1.5</v>
+      </c>
+      <c r="AS90">
+        <v>1.5</v>
+      </c>
+      <c r="AT90">
+        <v>1.8</v>
+      </c>
+      <c r="AU90">
+        <v>1.64</v>
+      </c>
+      <c r="AV90">
+        <v>1.55</v>
+      </c>
+      <c r="AW90">
+        <v>3.19</v>
+      </c>
+      <c r="AX90">
+        <v>1.71</v>
+      </c>
+      <c r="AY90">
+        <v>8</v>
+      </c>
+      <c r="AZ90">
+        <v>2.48</v>
+      </c>
+      <c r="BA90">
+        <v>1.17</v>
+      </c>
+      <c r="BB90">
+        <v>1.36</v>
+      </c>
+      <c r="BC90">
+        <v>2</v>
+      </c>
+      <c r="BD90">
+        <v>2.1</v>
+      </c>
+      <c r="BE90">
+        <v>2.75</v>
+      </c>
+      <c r="BF90">
+        <v>4</v>
+      </c>
+      <c r="BG90">
+        <v>9</v>
+      </c>
+      <c r="BH90">
+        <v>7</v>
+      </c>
+      <c r="BI90">
+        <v>2</v>
+      </c>
+      <c r="BJ90">
+        <v>11</v>
+      </c>
+      <c r="BK90">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:63">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>5406511</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45082.83333333334</v>
+      </c>
+      <c r="F91">
+        <v>9</v>
+      </c>
+      <c r="G91" t="s">
+        <v>81</v>
+      </c>
+      <c r="H91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>4</v>
+      </c>
+      <c r="K91">
+        <v>4</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>4</v>
+      </c>
+      <c r="N91">
+        <v>5</v>
+      </c>
+      <c r="O91" t="s">
+        <v>154</v>
+      </c>
+      <c r="P91" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q91">
+        <v>4</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>4</v>
+      </c>
+      <c r="T91">
+        <v>4.5</v>
+      </c>
+      <c r="U91">
+        <v>2.2</v>
+      </c>
+      <c r="V91">
+        <v>2.5</v>
+      </c>
+      <c r="W91">
+        <v>1.4</v>
+      </c>
+      <c r="X91">
+        <v>2.75</v>
+      </c>
+      <c r="Y91">
+        <v>2.75</v>
+      </c>
+      <c r="Z91">
+        <v>1.4</v>
+      </c>
+      <c r="AA91">
+        <v>8</v>
+      </c>
+      <c r="AB91">
+        <v>1.08</v>
+      </c>
+      <c r="AC91">
+        <v>4</v>
+      </c>
+      <c r="AD91">
+        <v>3.6</v>
+      </c>
+      <c r="AE91">
+        <v>1.85</v>
+      </c>
+      <c r="AF91">
+        <v>1.05</v>
+      </c>
+      <c r="AG91">
+        <v>11</v>
+      </c>
+      <c r="AH91">
+        <v>1.3</v>
+      </c>
+      <c r="AI91">
+        <v>3.4</v>
+      </c>
+      <c r="AJ91">
+        <v>1.95</v>
+      </c>
+      <c r="AK91">
+        <v>1.85</v>
+      </c>
+      <c r="AL91">
+        <v>1.8</v>
+      </c>
+      <c r="AM91">
+        <v>1.95</v>
+      </c>
+      <c r="AN91">
+        <v>1.8</v>
+      </c>
+      <c r="AO91">
+        <v>1.29</v>
+      </c>
+      <c r="AP91">
+        <v>1.26</v>
+      </c>
+      <c r="AQ91">
+        <v>0.33</v>
+      </c>
+      <c r="AR91">
+        <v>1</v>
+      </c>
+      <c r="AS91">
+        <v>0.25</v>
+      </c>
+      <c r="AT91">
+        <v>1.5</v>
+      </c>
+      <c r="AU91">
+        <v>2.09</v>
+      </c>
+      <c r="AV91">
+        <v>1.71</v>
+      </c>
+      <c r="AW91">
+        <v>3.8</v>
+      </c>
+      <c r="AX91">
+        <v>2.36</v>
+      </c>
+      <c r="AY91">
+        <v>9.5</v>
+      </c>
+      <c r="AZ91">
+        <v>1.85</v>
+      </c>
+      <c r="BA91">
+        <v>1.12</v>
+      </c>
+      <c r="BB91">
+        <v>1.29</v>
+      </c>
+      <c r="BC91">
+        <v>1.83</v>
+      </c>
+      <c r="BD91">
+        <v>1.85</v>
+      </c>
+      <c r="BE91">
+        <v>2.4</v>
+      </c>
+      <c r="BF91">
+        <v>5</v>
+      </c>
+      <c r="BG91">
+        <v>6</v>
+      </c>
+      <c r="BH91">
+        <v>9</v>
+      </c>
+      <c r="BI91">
+        <v>5</v>
+      </c>
+      <c r="BJ91">
+        <v>14</v>
+      </c>
+      <c r="BK91">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,6 +481,18 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['18', '66']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['45+3', '63']</t>
+  </si>
+  <si>
     <t>['45+7']</t>
   </si>
   <si>
@@ -511,18 +523,12 @@
     <t>['51', '83', '90+1']</t>
   </si>
   <si>
-    <t>['17']</t>
-  </si>
-  <si>
     <t>['29', '78']</t>
   </si>
   <si>
     <t>['45+2', '69']</t>
   </si>
   <si>
-    <t>['81']</t>
-  </si>
-  <si>
     <t>['76']</t>
   </si>
   <si>
@@ -626,6 +632,12 @@
   </si>
   <si>
     <t>['14', '16', '42', '45+2']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['30', '45+1']</t>
   </si>
 </sst>
 </file>
@@ -987,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK91"/>
+  <dimension ref="A1:BK96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1231,7 +1243,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1321,7 +1333,7 @@
         <v>2.6</v>
       </c>
       <c r="AT2">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1422,7 +1434,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1613,7 +1625,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2186,7 +2198,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2377,7 +2389,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -2464,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -2759,7 +2771,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2846,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT10">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3040,7 +3052,7 @@
         <v>2.2</v>
       </c>
       <c r="AT11">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3332,7 +3344,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3422,7 +3434,7 @@
         <v>0.5</v>
       </c>
       <c r="AT13">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3905,7 +3917,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4287,7 +4299,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4478,7 +4490,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4565,10 +4577,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT19">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4669,7 +4681,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4860,7 +4872,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5051,7 +5063,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5242,7 +5254,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5329,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT23">
         <v>0.6</v>
@@ -5433,7 +5445,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q24">
         <v>12</v>
@@ -5624,7 +5636,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5815,7 +5827,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5905,7 +5917,7 @@
         <v>2</v>
       </c>
       <c r="AT26">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU26">
         <v>1.72</v>
@@ -6006,7 +6018,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6093,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT27">
         <v>0.75</v>
@@ -6197,7 +6209,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6388,7 +6400,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6961,7 +6973,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7051,7 +7063,7 @@
         <v>1.2</v>
       </c>
       <c r="AT32">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU32">
         <v>1.94</v>
@@ -7152,7 +7164,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7343,7 +7355,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7433,7 +7445,7 @@
         <v>1.2</v>
       </c>
       <c r="AT34">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU34">
         <v>2.02</v>
@@ -7725,7 +7737,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7916,7 +7928,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8298,7 +8310,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8489,7 +8501,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8579,7 +8591,7 @@
         <v>2.2</v>
       </c>
       <c r="AT40">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU40">
         <v>1.68</v>
@@ -8680,7 +8692,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8767,10 +8779,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT41">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU41">
         <v>1.64</v>
@@ -8871,7 +8883,7 @@
         <v>119</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9253,7 +9265,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9635,7 +9647,7 @@
         <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9826,7 +9838,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q47">
         <v>16</v>
@@ -10017,7 +10029,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10208,7 +10220,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10295,7 +10307,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -10781,7 +10793,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11062,7 +11074,7 @@
         <v>2.5</v>
       </c>
       <c r="AT53">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU53">
         <v>2.57</v>
@@ -11163,7 +11175,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q54">
         <v>15</v>
@@ -11253,7 +11265,7 @@
         <v>2.6</v>
       </c>
       <c r="AT54">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU54">
         <v>2.16</v>
@@ -11441,7 +11453,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT55">
         <v>0.4</v>
@@ -11635,7 +11647,7 @@
         <v>2.2</v>
       </c>
       <c r="AT56">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU56">
         <v>1.43</v>
@@ -11826,7 +11838,7 @@
         <v>0.25</v>
       </c>
       <c r="AT57">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU57">
         <v>1.67</v>
@@ -11927,7 +11939,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12014,7 +12026,7 @@
         <v>0.67</v>
       </c>
       <c r="AS58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT58">
         <v>0.6</v>
@@ -12118,7 +12130,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12500,7 +12512,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12590,7 +12602,7 @@
         <v>1.2</v>
       </c>
       <c r="AT61">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU61">
         <v>1.92</v>
@@ -12691,7 +12703,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13073,7 +13085,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13455,7 +13467,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13542,7 +13554,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT66">
         <v>2</v>
@@ -13646,7 +13658,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -13736,7 +13748,7 @@
         <v>1.2</v>
       </c>
       <c r="AT67">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU67">
         <v>1.88</v>
@@ -14219,7 +14231,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14410,7 +14422,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14500,7 +14512,7 @@
         <v>1.2</v>
       </c>
       <c r="AT71">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU71">
         <v>2.04</v>
@@ -14792,7 +14804,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -14983,7 +14995,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15073,7 +15085,7 @@
         <v>2</v>
       </c>
       <c r="AT74">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU74">
         <v>2.29</v>
@@ -15174,7 +15186,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15643,7 +15655,7 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT77">
         <v>1.2</v>
@@ -16028,7 +16040,7 @@
         <v>2</v>
       </c>
       <c r="AT79">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU79">
         <v>1.75</v>
@@ -16129,7 +16141,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16216,7 +16228,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT80">
         <v>1.5</v>
@@ -17084,7 +17096,7 @@
         <v>86</v>
       </c>
       <c r="P85" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q85">
         <v>12</v>
@@ -17466,7 +17478,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17556,7 +17568,7 @@
         <v>2.5</v>
       </c>
       <c r="AT87">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU87">
         <v>2.04</v>
@@ -17657,7 +17669,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -17848,7 +17860,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q89">
         <v>11</v>
@@ -18039,7 +18051,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18129,7 +18141,7 @@
         <v>1.5</v>
       </c>
       <c r="AT90">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU90">
         <v>1.64</v>
@@ -18230,7 +18242,7 @@
         <v>154</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18372,6 +18384,961 @@
       </c>
       <c r="BK91">
         <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:63">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>5406527</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45087.66666666666</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>82</v>
+      </c>
+      <c r="H92" t="s">
+        <v>80</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92" t="s">
+        <v>86</v>
+      </c>
+      <c r="P92" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q92">
+        <v>8</v>
+      </c>
+      <c r="R92">
+        <v>3</v>
+      </c>
+      <c r="S92">
+        <v>11</v>
+      </c>
+      <c r="T92">
+        <v>3.4</v>
+      </c>
+      <c r="U92">
+        <v>1.91</v>
+      </c>
+      <c r="V92">
+        <v>4</v>
+      </c>
+      <c r="W92">
+        <v>1.53</v>
+      </c>
+      <c r="X92">
+        <v>2.38</v>
+      </c>
+      <c r="Y92">
+        <v>3.75</v>
+      </c>
+      <c r="Z92">
+        <v>1.25</v>
+      </c>
+      <c r="AA92">
+        <v>11</v>
+      </c>
+      <c r="AB92">
+        <v>1.05</v>
+      </c>
+      <c r="AC92">
+        <v>2.5</v>
+      </c>
+      <c r="AD92">
+        <v>3.2</v>
+      </c>
+      <c r="AE92">
+        <v>2.7</v>
+      </c>
+      <c r="AF92">
+        <v>1.1</v>
+      </c>
+      <c r="AG92">
+        <v>7.5</v>
+      </c>
+      <c r="AH92">
+        <v>1.56</v>
+      </c>
+      <c r="AI92">
+        <v>2.3</v>
+      </c>
+      <c r="AJ92">
+        <v>2.25</v>
+      </c>
+      <c r="AK92">
+        <v>1.57</v>
+      </c>
+      <c r="AL92">
+        <v>2.2</v>
+      </c>
+      <c r="AM92">
+        <v>1.62</v>
+      </c>
+      <c r="AN92">
+        <v>1.37</v>
+      </c>
+      <c r="AO92">
+        <v>1.37</v>
+      </c>
+      <c r="AP92">
+        <v>1.5</v>
+      </c>
+      <c r="AQ92">
+        <v>0.5</v>
+      </c>
+      <c r="AR92">
+        <v>0.75</v>
+      </c>
+      <c r="AS92">
+        <v>0.6</v>
+      </c>
+      <c r="AT92">
+        <v>0.8</v>
+      </c>
+      <c r="AU92">
+        <v>1.65</v>
+      </c>
+      <c r="AV92">
+        <v>1.21</v>
+      </c>
+      <c r="AW92">
+        <v>2.86</v>
+      </c>
+      <c r="AX92">
+        <v>1.76</v>
+      </c>
+      <c r="AY92">
+        <v>8.5</v>
+      </c>
+      <c r="AZ92">
+        <v>2.35</v>
+      </c>
+      <c r="BA92">
+        <v>1.15</v>
+      </c>
+      <c r="BB92">
+        <v>1.3</v>
+      </c>
+      <c r="BC92">
+        <v>1.51</v>
+      </c>
+      <c r="BD92">
+        <v>1.83</v>
+      </c>
+      <c r="BE92">
+        <v>2.3</v>
+      </c>
+      <c r="BF92">
+        <v>7</v>
+      </c>
+      <c r="BG92">
+        <v>4</v>
+      </c>
+      <c r="BH92">
+        <v>12</v>
+      </c>
+      <c r="BI92">
+        <v>4</v>
+      </c>
+      <c r="BJ92">
+        <v>19</v>
+      </c>
+      <c r="BK92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:63">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>5406525</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45087.77083333334</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>71</v>
+      </c>
+      <c r="H93" t="s">
+        <v>68</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>155</v>
+      </c>
+      <c r="P93" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q93">
+        <v>7</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>9</v>
+      </c>
+      <c r="T93">
+        <v>2.4</v>
+      </c>
+      <c r="U93">
+        <v>2.1</v>
+      </c>
+      <c r="V93">
+        <v>5.5</v>
+      </c>
+      <c r="W93">
+        <v>1.5</v>
+      </c>
+      <c r="X93">
+        <v>2.5</v>
+      </c>
+      <c r="Y93">
+        <v>3.4</v>
+      </c>
+      <c r="Z93">
+        <v>1.3</v>
+      </c>
+      <c r="AA93">
+        <v>10</v>
+      </c>
+      <c r="AB93">
+        <v>1.06</v>
+      </c>
+      <c r="AC93">
+        <v>1.67</v>
+      </c>
+      <c r="AD93">
+        <v>3.6</v>
+      </c>
+      <c r="AE93">
+        <v>5</v>
+      </c>
+      <c r="AF93">
+        <v>1.07</v>
+      </c>
+      <c r="AG93">
+        <v>8.5</v>
+      </c>
+      <c r="AH93">
+        <v>1.42</v>
+      </c>
+      <c r="AI93">
+        <v>2.85</v>
+      </c>
+      <c r="AJ93">
+        <v>1.97</v>
+      </c>
+      <c r="AK93">
+        <v>1.75</v>
+      </c>
+      <c r="AL93">
+        <v>2.05</v>
+      </c>
+      <c r="AM93">
+        <v>1.7</v>
+      </c>
+      <c r="AN93">
+        <v>1.15</v>
+      </c>
+      <c r="AO93">
+        <v>1.28</v>
+      </c>
+      <c r="AP93">
+        <v>2.15</v>
+      </c>
+      <c r="AQ93">
+        <v>1.75</v>
+      </c>
+      <c r="AR93">
+        <v>0.75</v>
+      </c>
+      <c r="AS93">
+        <v>1.6</v>
+      </c>
+      <c r="AT93">
+        <v>0.8</v>
+      </c>
+      <c r="AU93">
+        <v>1.8</v>
+      </c>
+      <c r="AV93">
+        <v>1.6</v>
+      </c>
+      <c r="AW93">
+        <v>3.4</v>
+      </c>
+      <c r="AX93">
+        <v>1.55</v>
+      </c>
+      <c r="AY93">
+        <v>8.5</v>
+      </c>
+      <c r="AZ93">
+        <v>2.88</v>
+      </c>
+      <c r="BA93">
+        <v>1.16</v>
+      </c>
+      <c r="BB93">
+        <v>1.32</v>
+      </c>
+      <c r="BC93">
+        <v>1.91</v>
+      </c>
+      <c r="BD93">
+        <v>1.88</v>
+      </c>
+      <c r="BE93">
+        <v>2.4</v>
+      </c>
+      <c r="BF93">
+        <v>8</v>
+      </c>
+      <c r="BG93">
+        <v>4</v>
+      </c>
+      <c r="BH93">
+        <v>3</v>
+      </c>
+      <c r="BI93">
+        <v>1</v>
+      </c>
+      <c r="BJ93">
+        <v>11</v>
+      </c>
+      <c r="BK93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>5406528</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45087.77083333334</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>84</v>
+      </c>
+      <c r="H94" t="s">
+        <v>78</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>2</v>
+      </c>
+      <c r="K94">
+        <v>3</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>4</v>
+      </c>
+      <c r="O94" t="s">
+        <v>156</v>
+      </c>
+      <c r="P94" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q94">
+        <v>6</v>
+      </c>
+      <c r="R94">
+        <v>5</v>
+      </c>
+      <c r="S94">
+        <v>11</v>
+      </c>
+      <c r="T94">
+        <v>3.25</v>
+      </c>
+      <c r="U94">
+        <v>2.1</v>
+      </c>
+      <c r="V94">
+        <v>3.4</v>
+      </c>
+      <c r="W94">
+        <v>1.44</v>
+      </c>
+      <c r="X94">
+        <v>2.63</v>
+      </c>
+      <c r="Y94">
+        <v>3.25</v>
+      </c>
+      <c r="Z94">
+        <v>1.33</v>
+      </c>
+      <c r="AA94">
+        <v>9</v>
+      </c>
+      <c r="AB94">
+        <v>1.07</v>
+      </c>
+      <c r="AC94">
+        <v>2.25</v>
+      </c>
+      <c r="AD94">
+        <v>3.3</v>
+      </c>
+      <c r="AE94">
+        <v>3</v>
+      </c>
+      <c r="AF94">
+        <v>1.06</v>
+      </c>
+      <c r="AG94">
+        <v>10</v>
+      </c>
+      <c r="AH94">
+        <v>1.36</v>
+      </c>
+      <c r="AI94">
+        <v>3.1</v>
+      </c>
+      <c r="AJ94">
+        <v>2.15</v>
+      </c>
+      <c r="AK94">
+        <v>1.61</v>
+      </c>
+      <c r="AL94">
+        <v>1.8</v>
+      </c>
+      <c r="AM94">
+        <v>1.95</v>
+      </c>
+      <c r="AN94">
+        <v>1.27</v>
+      </c>
+      <c r="AO94">
+        <v>1.35</v>
+      </c>
+      <c r="AP94">
+        <v>1.57</v>
+      </c>
+      <c r="AQ94">
+        <v>1</v>
+      </c>
+      <c r="AR94">
+        <v>1.75</v>
+      </c>
+      <c r="AS94">
+        <v>1</v>
+      </c>
+      <c r="AT94">
+        <v>1.6</v>
+      </c>
+      <c r="AU94">
+        <v>1.87</v>
+      </c>
+      <c r="AV94">
+        <v>1.7</v>
+      </c>
+      <c r="AW94">
+        <v>3.57</v>
+      </c>
+      <c r="AX94">
+        <v>2.02</v>
+      </c>
+      <c r="AY94">
+        <v>8</v>
+      </c>
+      <c r="AZ94">
+        <v>2.02</v>
+      </c>
+      <c r="BA94">
+        <v>1.18</v>
+      </c>
+      <c r="BB94">
+        <v>1.3</v>
+      </c>
+      <c r="BC94">
+        <v>1.53</v>
+      </c>
+      <c r="BD94">
+        <v>1.89</v>
+      </c>
+      <c r="BE94">
+        <v>2.35</v>
+      </c>
+      <c r="BF94">
+        <v>6</v>
+      </c>
+      <c r="BG94">
+        <v>9</v>
+      </c>
+      <c r="BH94">
+        <v>3</v>
+      </c>
+      <c r="BI94">
+        <v>6</v>
+      </c>
+      <c r="BJ94">
+        <v>9</v>
+      </c>
+      <c r="BK94">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:63">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>5406523</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45087.77083333334</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>73</v>
+      </c>
+      <c r="H95" t="s">
+        <v>76</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95" t="s">
+        <v>157</v>
+      </c>
+      <c r="P95" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q95">
+        <v>8</v>
+      </c>
+      <c r="R95">
+        <v>6</v>
+      </c>
+      <c r="S95">
+        <v>14</v>
+      </c>
+      <c r="T95">
+        <v>2.5</v>
+      </c>
+      <c r="U95">
+        <v>1.95</v>
+      </c>
+      <c r="V95">
+        <v>6</v>
+      </c>
+      <c r="W95">
+        <v>1.53</v>
+      </c>
+      <c r="X95">
+        <v>2.38</v>
+      </c>
+      <c r="Y95">
+        <v>3.5</v>
+      </c>
+      <c r="Z95">
+        <v>1.29</v>
+      </c>
+      <c r="AA95">
+        <v>11</v>
+      </c>
+      <c r="AB95">
+        <v>1.05</v>
+      </c>
+      <c r="AC95">
+        <v>1.8</v>
+      </c>
+      <c r="AD95">
+        <v>3.3</v>
+      </c>
+      <c r="AE95">
+        <v>4.5</v>
+      </c>
+      <c r="AF95">
+        <v>1.09</v>
+      </c>
+      <c r="AG95">
+        <v>8</v>
+      </c>
+      <c r="AH95">
+        <v>1.47</v>
+      </c>
+      <c r="AI95">
+        <v>2.7</v>
+      </c>
+      <c r="AJ95">
+        <v>2.2</v>
+      </c>
+      <c r="AK95">
+        <v>1.6</v>
+      </c>
+      <c r="AL95">
+        <v>2.25</v>
+      </c>
+      <c r="AM95">
+        <v>1.57</v>
+      </c>
+      <c r="AN95">
+        <v>1.14</v>
+      </c>
+      <c r="AO95">
+        <v>1.25</v>
+      </c>
+      <c r="AP95">
+        <v>2.2</v>
+      </c>
+      <c r="AQ95">
+        <v>2</v>
+      </c>
+      <c r="AR95">
+        <v>1.8</v>
+      </c>
+      <c r="AS95">
+        <v>1.8</v>
+      </c>
+      <c r="AT95">
+        <v>1.67</v>
+      </c>
+      <c r="AU95">
+        <v>1.72</v>
+      </c>
+      <c r="AV95">
+        <v>1.59</v>
+      </c>
+      <c r="AW95">
+        <v>3.31</v>
+      </c>
+      <c r="AX95">
+        <v>1.4</v>
+      </c>
+      <c r="AY95">
+        <v>9</v>
+      </c>
+      <c r="AZ95">
+        <v>3.6</v>
+      </c>
+      <c r="BA95">
+        <v>1.2</v>
+      </c>
+      <c r="BB95">
+        <v>1.38</v>
+      </c>
+      <c r="BC95">
+        <v>2</v>
+      </c>
+      <c r="BD95">
+        <v>2.03</v>
+      </c>
+      <c r="BE95">
+        <v>2.6</v>
+      </c>
+      <c r="BF95">
+        <v>8</v>
+      </c>
+      <c r="BG95">
+        <v>3</v>
+      </c>
+      <c r="BH95">
+        <v>10</v>
+      </c>
+      <c r="BI95">
+        <v>3</v>
+      </c>
+      <c r="BJ95">
+        <v>18</v>
+      </c>
+      <c r="BK95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>5406521</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45087.875</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>67</v>
+      </c>
+      <c r="H96" t="s">
+        <v>70</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96" t="s">
+        <v>158</v>
+      </c>
+      <c r="P96" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q96">
+        <v>7</v>
+      </c>
+      <c r="R96">
+        <v>3</v>
+      </c>
+      <c r="S96">
+        <v>10</v>
+      </c>
+      <c r="T96">
+        <v>3.1</v>
+      </c>
+      <c r="U96">
+        <v>2.05</v>
+      </c>
+      <c r="V96">
+        <v>3.75</v>
+      </c>
+      <c r="W96">
+        <v>1.44</v>
+      </c>
+      <c r="X96">
+        <v>2.63</v>
+      </c>
+      <c r="Y96">
+        <v>3.25</v>
+      </c>
+      <c r="Z96">
+        <v>1.33</v>
+      </c>
+      <c r="AA96">
+        <v>9</v>
+      </c>
+      <c r="AB96">
+        <v>1.07</v>
+      </c>
+      <c r="AC96">
+        <v>2.38</v>
+      </c>
+      <c r="AD96">
+        <v>3.3</v>
+      </c>
+      <c r="AE96">
+        <v>3.1</v>
+      </c>
+      <c r="AF96">
+        <v>1.05</v>
+      </c>
+      <c r="AG96">
+        <v>11</v>
+      </c>
+      <c r="AH96">
+        <v>1.33</v>
+      </c>
+      <c r="AI96">
+        <v>3.25</v>
+      </c>
+      <c r="AJ96">
+        <v>2.1</v>
+      </c>
+      <c r="AK96">
+        <v>1.7</v>
+      </c>
+      <c r="AL96">
+        <v>1.91</v>
+      </c>
+      <c r="AM96">
+        <v>1.91</v>
+      </c>
+      <c r="AN96">
+        <v>1.28</v>
+      </c>
+      <c r="AO96">
+        <v>1.31</v>
+      </c>
+      <c r="AP96">
+        <v>1.73</v>
+      </c>
+      <c r="AQ96">
+        <v>3</v>
+      </c>
+      <c r="AR96">
+        <v>1.25</v>
+      </c>
+      <c r="AS96">
+        <v>3</v>
+      </c>
+      <c r="AT96">
+        <v>1</v>
+      </c>
+      <c r="AU96">
+        <v>1.89</v>
+      </c>
+      <c r="AV96">
+        <v>1.85</v>
+      </c>
+      <c r="AW96">
+        <v>3.74</v>
+      </c>
+      <c r="AX96">
+        <v>1.63</v>
+      </c>
+      <c r="AY96">
+        <v>8</v>
+      </c>
+      <c r="AZ96">
+        <v>2.65</v>
+      </c>
+      <c r="BA96">
+        <v>1.2</v>
+      </c>
+      <c r="BB96">
+        <v>1.4</v>
+      </c>
+      <c r="BC96">
+        <v>2.2</v>
+      </c>
+      <c r="BD96">
+        <v>2.16</v>
+      </c>
+      <c r="BE96">
+        <v>2.84</v>
+      </c>
+      <c r="BF96">
+        <v>11</v>
+      </c>
+      <c r="BG96">
+        <v>4</v>
+      </c>
+      <c r="BH96">
+        <v>6</v>
+      </c>
+      <c r="BI96">
+        <v>5</v>
+      </c>
+      <c r="BJ96">
+        <v>17</v>
+      </c>
+      <c r="BK96">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,18 @@
     <t>['45+3', '63']</t>
   </si>
   <si>
+    <t>['76', '90+6']</t>
+  </si>
+  <si>
+    <t>['3', '16']</t>
+  </si>
+  <si>
+    <t>['45+1', '85']</t>
+  </si>
+  <si>
+    <t>['24', '65', '90+6']</t>
+  </si>
+  <si>
     <t>['45+7']</t>
   </si>
   <si>
@@ -638,6 +650,15 @@
   </si>
   <si>
     <t>['30', '45+1']</t>
+  </si>
+  <si>
+    <t>['9', '48']</t>
+  </si>
+  <si>
+    <t>['11', '78']</t>
+  </si>
+  <si>
+    <t>['2', '47']</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK96"/>
+  <dimension ref="A1:BK101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1243,7 +1264,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1434,7 +1455,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1521,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT3">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1625,7 +1646,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2198,7 +2219,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2389,7 +2410,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -2479,7 +2500,7 @@
         <v>1.6</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2667,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT9">
         <v>0.2</v>
@@ -2771,7 +2792,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3243,7 +3264,7 @@
         <v>2.5</v>
       </c>
       <c r="AT12">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3344,7 +3365,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3622,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT14">
         <v>0.25</v>
@@ -3816,7 +3837,7 @@
         <v>1.2</v>
       </c>
       <c r="AT15">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3917,7 +3938,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4004,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT16">
         <v>1.5</v>
@@ -4299,7 +4320,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4389,7 +4410,7 @@
         <v>0.25</v>
       </c>
       <c r="AT18">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4490,7 +4511,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4768,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT20">
         <v>0</v>
@@ -4872,7 +4893,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5063,7 +5084,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5153,7 +5174,7 @@
         <v>1.8</v>
       </c>
       <c r="AT22">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU22">
         <v>1.91</v>
@@ -5445,7 +5466,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q24">
         <v>12</v>
@@ -5636,7 +5657,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5827,7 +5848,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6018,7 +6039,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6108,7 +6129,7 @@
         <v>1.6</v>
       </c>
       <c r="AT27">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU27">
         <v>2.44</v>
@@ -6209,7 +6230,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6296,7 +6317,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT28">
         <v>1.5</v>
@@ -6400,7 +6421,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6490,7 +6511,7 @@
         <v>0.5</v>
       </c>
       <c r="AT29">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU29">
         <v>1.39</v>
@@ -6678,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT30">
         <v>0.2</v>
@@ -6973,7 +6994,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7164,7 +7185,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7254,7 +7275,7 @@
         <v>2.5</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU33">
         <v>2.02</v>
@@ -7355,7 +7376,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7442,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT34">
         <v>1.67</v>
@@ -7633,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT35">
         <v>0.4</v>
@@ -7737,7 +7758,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7928,7 +7949,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8310,7 +8331,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8397,10 +8418,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT39">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU39">
         <v>1.92</v>
@@ -8501,7 +8522,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8692,7 +8713,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8883,7 +8904,7 @@
         <v>119</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9265,7 +9286,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9352,10 +9373,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT44">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU44">
         <v>1.75</v>
@@ -9543,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT45">
         <v>0.2</v>
@@ -9647,7 +9668,7 @@
         <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9838,7 +9859,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q47">
         <v>16</v>
@@ -9928,7 +9949,7 @@
         <v>1.2</v>
       </c>
       <c r="AT47">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU47">
         <v>1.63</v>
@@ -10029,7 +10050,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10119,7 +10140,7 @@
         <v>2.6</v>
       </c>
       <c r="AT48">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU48">
         <v>1.81</v>
@@ -10220,7 +10241,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10310,7 +10331,7 @@
         <v>0.6</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU49">
         <v>1.69</v>
@@ -10793,7 +10814,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11175,7 +11196,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q54">
         <v>15</v>
@@ -11939,7 +11960,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12130,7 +12151,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12408,7 +12429,7 @@
         <v>3</v>
       </c>
       <c r="AS60">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT60">
         <v>1.5</v>
@@ -12512,7 +12533,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12599,7 +12620,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT61">
         <v>1.6</v>
@@ -12703,7 +12724,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12984,7 +13005,7 @@
         <v>3</v>
       </c>
       <c r="AT63">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU63">
         <v>1.76</v>
@@ -13085,7 +13106,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13172,10 +13193,10 @@
         <v>1.67</v>
       </c>
       <c r="AS64">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT64">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU64">
         <v>1.35</v>
@@ -13366,7 +13387,7 @@
         <v>2</v>
       </c>
       <c r="AT65">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU65">
         <v>1.78</v>
@@ -13467,7 +13488,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13658,7 +13679,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -13745,7 +13766,7 @@
         <v>1.67</v>
       </c>
       <c r="AS67">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT67">
         <v>1</v>
@@ -13939,7 +13960,7 @@
         <v>1.8</v>
       </c>
       <c r="AT68">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU68">
         <v>1.5</v>
@@ -14127,7 +14148,7 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT69">
         <v>0</v>
@@ -14231,7 +14252,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14422,7 +14443,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14703,7 +14724,7 @@
         <v>1.8</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU72">
         <v>2.18</v>
@@ -14804,7 +14825,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -14894,7 +14915,7 @@
         <v>2.4</v>
       </c>
       <c r="AT73">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU73">
         <v>1.83</v>
@@ -14995,7 +15016,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15082,7 +15103,7 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT74">
         <v>1.6</v>
@@ -15186,7 +15207,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15464,7 +15485,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT76">
         <v>0.2</v>
@@ -15658,7 +15679,7 @@
         <v>1.8</v>
       </c>
       <c r="AT77">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU77">
         <v>1.79</v>
@@ -15846,7 +15867,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT78">
         <v>0.8</v>
@@ -16141,7 +16162,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16231,7 +16252,7 @@
         <v>1.6</v>
       </c>
       <c r="AT80">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU80">
         <v>1.95</v>
@@ -16801,7 +16822,7 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT83">
         <v>0</v>
@@ -17096,7 +17117,7 @@
         <v>86</v>
       </c>
       <c r="P85" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q85">
         <v>12</v>
@@ -17478,7 +17499,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17669,7 +17690,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -17860,7 +17881,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q89">
         <v>11</v>
@@ -18051,7 +18072,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18138,7 +18159,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT90">
         <v>1.67</v>
@@ -18242,7 +18263,7 @@
         <v>154</v>
       </c>
       <c r="P91" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18624,7 +18645,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18815,7 +18836,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19339,6 +19360,961 @@
       </c>
       <c r="BK96">
         <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>5406529</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45088.45833333334</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>66</v>
+      </c>
+      <c r="H97" t="s">
+        <v>69</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97" t="s">
+        <v>159</v>
+      </c>
+      <c r="P97" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q97">
+        <v>7</v>
+      </c>
+      <c r="R97">
+        <v>3</v>
+      </c>
+      <c r="S97">
+        <v>10</v>
+      </c>
+      <c r="T97">
+        <v>3.1</v>
+      </c>
+      <c r="U97">
+        <v>2.05</v>
+      </c>
+      <c r="V97">
+        <v>3.6</v>
+      </c>
+      <c r="W97">
+        <v>1.44</v>
+      </c>
+      <c r="X97">
+        <v>2.63</v>
+      </c>
+      <c r="Y97">
+        <v>3.25</v>
+      </c>
+      <c r="Z97">
+        <v>1.33</v>
+      </c>
+      <c r="AA97">
+        <v>9</v>
+      </c>
+      <c r="AB97">
+        <v>1.07</v>
+      </c>
+      <c r="AC97">
+        <v>2.6</v>
+      </c>
+      <c r="AD97">
+        <v>3.25</v>
+      </c>
+      <c r="AE97">
+        <v>2.7</v>
+      </c>
+      <c r="AF97">
+        <v>1.03</v>
+      </c>
+      <c r="AG97">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH97">
+        <v>1.33</v>
+      </c>
+      <c r="AI97">
+        <v>2.97</v>
+      </c>
+      <c r="AJ97">
+        <v>1.94</v>
+      </c>
+      <c r="AK97">
+        <v>1.77</v>
+      </c>
+      <c r="AL97">
+        <v>1.91</v>
+      </c>
+      <c r="AM97">
+        <v>1.91</v>
+      </c>
+      <c r="AN97">
+        <v>1.44</v>
+      </c>
+      <c r="AO97">
+        <v>1.34</v>
+      </c>
+      <c r="AP97">
+        <v>1.54</v>
+      </c>
+      <c r="AQ97">
+        <v>1.2</v>
+      </c>
+      <c r="AR97">
+        <v>0.75</v>
+      </c>
+      <c r="AS97">
+        <v>1.17</v>
+      </c>
+      <c r="AT97">
+        <v>0.8</v>
+      </c>
+      <c r="AU97">
+        <v>1.71</v>
+      </c>
+      <c r="AV97">
+        <v>1.35</v>
+      </c>
+      <c r="AW97">
+        <v>3.06</v>
+      </c>
+      <c r="AX97">
+        <v>1.65</v>
+      </c>
+      <c r="AY97">
+        <v>8</v>
+      </c>
+      <c r="AZ97">
+        <v>2.6</v>
+      </c>
+      <c r="BA97">
+        <v>1.18</v>
+      </c>
+      <c r="BB97">
+        <v>1.27</v>
+      </c>
+      <c r="BC97">
+        <v>2.1</v>
+      </c>
+      <c r="BD97">
+        <v>1.81</v>
+      </c>
+      <c r="BE97">
+        <v>2.23</v>
+      </c>
+      <c r="BF97">
+        <v>13</v>
+      </c>
+      <c r="BG97">
+        <v>5</v>
+      </c>
+      <c r="BH97">
+        <v>5</v>
+      </c>
+      <c r="BI97">
+        <v>5</v>
+      </c>
+      <c r="BJ97">
+        <v>18</v>
+      </c>
+      <c r="BK97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>5406522</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45088.66666666666</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>77</v>
+      </c>
+      <c r="H98" t="s">
+        <v>65</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>86</v>
+      </c>
+      <c r="P98" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q98">
+        <v>8</v>
+      </c>
+      <c r="R98">
+        <v>3</v>
+      </c>
+      <c r="S98">
+        <v>11</v>
+      </c>
+      <c r="T98">
+        <v>3.75</v>
+      </c>
+      <c r="U98">
+        <v>2.1</v>
+      </c>
+      <c r="V98">
+        <v>3.1</v>
+      </c>
+      <c r="W98">
+        <v>1.44</v>
+      </c>
+      <c r="X98">
+        <v>2.63</v>
+      </c>
+      <c r="Y98">
+        <v>3.25</v>
+      </c>
+      <c r="Z98">
+        <v>1.33</v>
+      </c>
+      <c r="AA98">
+        <v>9</v>
+      </c>
+      <c r="AB98">
+        <v>1.07</v>
+      </c>
+      <c r="AC98">
+        <v>3</v>
+      </c>
+      <c r="AD98">
+        <v>3</v>
+      </c>
+      <c r="AE98">
+        <v>2.15</v>
+      </c>
+      <c r="AF98">
+        <v>1.06</v>
+      </c>
+      <c r="AG98">
+        <v>10</v>
+      </c>
+      <c r="AH98">
+        <v>1.35</v>
+      </c>
+      <c r="AI98">
+        <v>3.2</v>
+      </c>
+      <c r="AJ98">
+        <v>2.1</v>
+      </c>
+      <c r="AK98">
+        <v>1.6</v>
+      </c>
+      <c r="AL98">
+        <v>1.8</v>
+      </c>
+      <c r="AM98">
+        <v>1.95</v>
+      </c>
+      <c r="AN98">
+        <v>1.62</v>
+      </c>
+      <c r="AO98">
+        <v>1.33</v>
+      </c>
+      <c r="AP98">
+        <v>1.36</v>
+      </c>
+      <c r="AQ98">
+        <v>3</v>
+      </c>
+      <c r="AR98">
+        <v>1.5</v>
+      </c>
+      <c r="AS98">
+        <v>2.4</v>
+      </c>
+      <c r="AT98">
+        <v>1.8</v>
+      </c>
+      <c r="AU98">
+        <v>1.67</v>
+      </c>
+      <c r="AV98">
+        <v>1.54</v>
+      </c>
+      <c r="AW98">
+        <v>3.21</v>
+      </c>
+      <c r="AX98">
+        <v>2</v>
+      </c>
+      <c r="AY98">
+        <v>8</v>
+      </c>
+      <c r="AZ98">
+        <v>2.02</v>
+      </c>
+      <c r="BA98">
+        <v>1.15</v>
+      </c>
+      <c r="BB98">
+        <v>1.27</v>
+      </c>
+      <c r="BC98">
+        <v>1.48</v>
+      </c>
+      <c r="BD98">
+        <v>1.8</v>
+      </c>
+      <c r="BE98">
+        <v>2.2</v>
+      </c>
+      <c r="BF98">
+        <v>7</v>
+      </c>
+      <c r="BG98">
+        <v>5</v>
+      </c>
+      <c r="BH98">
+        <v>17</v>
+      </c>
+      <c r="BI98">
+        <v>4</v>
+      </c>
+      <c r="BJ98">
+        <v>24</v>
+      </c>
+      <c r="BK98">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>5406526</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45088.66666666666</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>79</v>
+      </c>
+      <c r="H99" t="s">
+        <v>81</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>160</v>
+      </c>
+      <c r="P99" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q99">
+        <v>7</v>
+      </c>
+      <c r="R99">
+        <v>6</v>
+      </c>
+      <c r="S99">
+        <v>13</v>
+      </c>
+      <c r="T99">
+        <v>2.6</v>
+      </c>
+      <c r="U99">
+        <v>2.1</v>
+      </c>
+      <c r="V99">
+        <v>4.75</v>
+      </c>
+      <c r="W99">
+        <v>1.44</v>
+      </c>
+      <c r="X99">
+        <v>2.63</v>
+      </c>
+      <c r="Y99">
+        <v>3.25</v>
+      </c>
+      <c r="Z99">
+        <v>1.33</v>
+      </c>
+      <c r="AA99">
+        <v>9</v>
+      </c>
+      <c r="AB99">
+        <v>1.07</v>
+      </c>
+      <c r="AC99">
+        <v>1.83</v>
+      </c>
+      <c r="AD99">
+        <v>3.25</v>
+      </c>
+      <c r="AE99">
+        <v>3.6</v>
+      </c>
+      <c r="AF99">
+        <v>1.06</v>
+      </c>
+      <c r="AG99">
+        <v>9.5</v>
+      </c>
+      <c r="AH99">
+        <v>1.36</v>
+      </c>
+      <c r="AI99">
+        <v>3.1</v>
+      </c>
+      <c r="AJ99">
+        <v>2.15</v>
+      </c>
+      <c r="AK99">
+        <v>1.57</v>
+      </c>
+      <c r="AL99">
+        <v>1.95</v>
+      </c>
+      <c r="AM99">
+        <v>1.8</v>
+      </c>
+      <c r="AN99">
+        <v>1.13</v>
+      </c>
+      <c r="AO99">
+        <v>1.32</v>
+      </c>
+      <c r="AP99">
+        <v>1.9</v>
+      </c>
+      <c r="AQ99">
+        <v>2.25</v>
+      </c>
+      <c r="AR99">
+        <v>1</v>
+      </c>
+      <c r="AS99">
+        <v>2.4</v>
+      </c>
+      <c r="AT99">
+        <v>0.83</v>
+      </c>
+      <c r="AU99">
+        <v>1.44</v>
+      </c>
+      <c r="AV99">
+        <v>1.23</v>
+      </c>
+      <c r="AW99">
+        <v>2.67</v>
+      </c>
+      <c r="AX99">
+        <v>1.55</v>
+      </c>
+      <c r="AY99">
+        <v>8.5</v>
+      </c>
+      <c r="AZ99">
+        <v>2.88</v>
+      </c>
+      <c r="BA99">
+        <v>1.1</v>
+      </c>
+      <c r="BB99">
+        <v>1.28</v>
+      </c>
+      <c r="BC99">
+        <v>1.5</v>
+      </c>
+      <c r="BD99">
+        <v>1.82</v>
+      </c>
+      <c r="BE99">
+        <v>2.25</v>
+      </c>
+      <c r="BF99">
+        <v>3</v>
+      </c>
+      <c r="BG99">
+        <v>5</v>
+      </c>
+      <c r="BH99">
+        <v>7</v>
+      </c>
+      <c r="BI99">
+        <v>10</v>
+      </c>
+      <c r="BJ99">
+        <v>10</v>
+      </c>
+      <c r="BK99">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:63">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>5406524</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45088.77083333334</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>83</v>
+      </c>
+      <c r="H100" t="s">
+        <v>75</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100" t="s">
+        <v>161</v>
+      </c>
+      <c r="P100" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q100">
+        <v>6</v>
+      </c>
+      <c r="R100">
+        <v>7</v>
+      </c>
+      <c r="S100">
+        <v>13</v>
+      </c>
+      <c r="T100">
+        <v>4</v>
+      </c>
+      <c r="U100">
+        <v>2.05</v>
+      </c>
+      <c r="V100">
+        <v>2.88</v>
+      </c>
+      <c r="W100">
+        <v>1.44</v>
+      </c>
+      <c r="X100">
+        <v>2.63</v>
+      </c>
+      <c r="Y100">
+        <v>3.25</v>
+      </c>
+      <c r="Z100">
+        <v>1.33</v>
+      </c>
+      <c r="AA100">
+        <v>10</v>
+      </c>
+      <c r="AB100">
+        <v>1.06</v>
+      </c>
+      <c r="AC100">
+        <v>3.59</v>
+      </c>
+      <c r="AD100">
+        <v>3.2</v>
+      </c>
+      <c r="AE100">
+        <v>1.91</v>
+      </c>
+      <c r="AF100">
+        <v>1.04</v>
+      </c>
+      <c r="AG100">
+        <v>8</v>
+      </c>
+      <c r="AH100">
+        <v>1.32</v>
+      </c>
+      <c r="AI100">
+        <v>3.1</v>
+      </c>
+      <c r="AJ100">
+        <v>2.1</v>
+      </c>
+      <c r="AK100">
+        <v>1.6</v>
+      </c>
+      <c r="AL100">
+        <v>1.95</v>
+      </c>
+      <c r="AM100">
+        <v>1.8</v>
+      </c>
+      <c r="AN100">
+        <v>1.72</v>
+      </c>
+      <c r="AO100">
+        <v>1.35</v>
+      </c>
+      <c r="AP100">
+        <v>1.18</v>
+      </c>
+      <c r="AQ100">
+        <v>1.5</v>
+      </c>
+      <c r="AR100">
+        <v>1.2</v>
+      </c>
+      <c r="AS100">
+        <v>1.4</v>
+      </c>
+      <c r="AT100">
+        <v>1.17</v>
+      </c>
+      <c r="AU100">
+        <v>1.59</v>
+      </c>
+      <c r="AV100">
+        <v>1.73</v>
+      </c>
+      <c r="AW100">
+        <v>3.32</v>
+      </c>
+      <c r="AX100">
+        <v>2.45</v>
+      </c>
+      <c r="AY100">
+        <v>8</v>
+      </c>
+      <c r="AZ100">
+        <v>1.72</v>
+      </c>
+      <c r="BA100">
+        <v>1.19</v>
+      </c>
+      <c r="BB100">
+        <v>1.35</v>
+      </c>
+      <c r="BC100">
+        <v>1.91</v>
+      </c>
+      <c r="BD100">
+        <v>1.98</v>
+      </c>
+      <c r="BE100">
+        <v>2.5</v>
+      </c>
+      <c r="BF100">
+        <v>10</v>
+      </c>
+      <c r="BG100">
+        <v>5</v>
+      </c>
+      <c r="BH100">
+        <v>9</v>
+      </c>
+      <c r="BI100">
+        <v>5</v>
+      </c>
+      <c r="BJ100">
+        <v>19</v>
+      </c>
+      <c r="BK100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:63">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>5406520</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45088.77083333334</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>72</v>
+      </c>
+      <c r="H101" t="s">
+        <v>74</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101" t="s">
+        <v>162</v>
+      </c>
+      <c r="P101" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q101">
+        <v>3</v>
+      </c>
+      <c r="R101">
+        <v>7</v>
+      </c>
+      <c r="S101">
+        <v>10</v>
+      </c>
+      <c r="T101">
+        <v>2.05</v>
+      </c>
+      <c r="U101">
+        <v>2.38</v>
+      </c>
+      <c r="V101">
+        <v>5.5</v>
+      </c>
+      <c r="W101">
+        <v>1.33</v>
+      </c>
+      <c r="X101">
+        <v>3.25</v>
+      </c>
+      <c r="Y101">
+        <v>2.63</v>
+      </c>
+      <c r="Z101">
+        <v>1.44</v>
+      </c>
+      <c r="AA101">
+        <v>6.5</v>
+      </c>
+      <c r="AB101">
+        <v>1.11</v>
+      </c>
+      <c r="AC101">
+        <v>1.5</v>
+      </c>
+      <c r="AD101">
+        <v>3.85</v>
+      </c>
+      <c r="AE101">
+        <v>5.32</v>
+      </c>
+      <c r="AF101">
+        <v>1.01</v>
+      </c>
+      <c r="AG101">
+        <v>12</v>
+      </c>
+      <c r="AH101">
+        <v>1.18</v>
+      </c>
+      <c r="AI101">
+        <v>4.2</v>
+      </c>
+      <c r="AJ101">
+        <v>1.73</v>
+      </c>
+      <c r="AK101">
+        <v>1.91</v>
+      </c>
+      <c r="AL101">
+        <v>1.8</v>
+      </c>
+      <c r="AM101">
+        <v>1.95</v>
+      </c>
+      <c r="AN101">
+        <v>1.13</v>
+      </c>
+      <c r="AO101">
+        <v>1.22</v>
+      </c>
+      <c r="AP101">
+        <v>2.15</v>
+      </c>
+      <c r="AQ101">
+        <v>2</v>
+      </c>
+      <c r="AR101">
+        <v>1.5</v>
+      </c>
+      <c r="AS101">
+        <v>2.17</v>
+      </c>
+      <c r="AT101">
+        <v>1.2</v>
+      </c>
+      <c r="AU101">
+        <v>2.19</v>
+      </c>
+      <c r="AV101">
+        <v>1.21</v>
+      </c>
+      <c r="AW101">
+        <v>3.4</v>
+      </c>
+      <c r="AX101">
+        <v>1.38</v>
+      </c>
+      <c r="AY101">
+        <v>9</v>
+      </c>
+      <c r="AZ101">
+        <v>3.65</v>
+      </c>
+      <c r="BA101">
+        <v>1.17</v>
+      </c>
+      <c r="BB101">
+        <v>1.32</v>
+      </c>
+      <c r="BC101">
+        <v>1.58</v>
+      </c>
+      <c r="BD101">
+        <v>1.94</v>
+      </c>
+      <c r="BE101">
+        <v>2.43</v>
+      </c>
+      <c r="BF101">
+        <v>5</v>
+      </c>
+      <c r="BG101">
+        <v>9</v>
+      </c>
+      <c r="BH101">
+        <v>7</v>
+      </c>
+      <c r="BI101">
+        <v>12</v>
+      </c>
+      <c r="BJ101">
+        <v>12</v>
+      </c>
+      <c r="BK101">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,15 @@
     <t>['24', '65', '90+6']</t>
   </si>
   <si>
+    <t>['19', '47']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
     <t>['45+7']</t>
   </si>
   <si>
@@ -659,6 +668,12 @@
   </si>
   <si>
     <t>['2', '47']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['19', '28']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK101"/>
+  <dimension ref="A1:BK106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1279,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1455,7 +1470,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1646,7 +1661,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2219,7 +2234,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2410,7 +2425,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -2792,7 +2807,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3261,10 +3276,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT12">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3365,7 +3380,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3643,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT14">
         <v>0.25</v>
@@ -3834,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT15">
         <v>1.2</v>
@@ -3938,7 +3953,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4216,10 +4231,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4320,7 +4335,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4410,7 +4425,7 @@
         <v>0.25</v>
       </c>
       <c r="AT18">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4511,7 +4526,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4601,7 +4616,7 @@
         <v>0.6</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4792,7 +4807,7 @@
         <v>1.4</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4893,7 +4908,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -4980,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT21">
         <v>1.5</v>
@@ -5084,7 +5099,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5466,7 +5481,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>12</v>
@@ -5556,7 +5571,7 @@
         <v>2.6</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU24">
         <v>1.77</v>
@@ -5657,7 +5672,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5744,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT25">
         <v>0.25</v>
@@ -5848,7 +5863,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6039,7 +6054,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6129,7 +6144,7 @@
         <v>1.6</v>
       </c>
       <c r="AT27">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU27">
         <v>2.44</v>
@@ -6230,7 +6245,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6421,7 +6436,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6994,7 +7009,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7081,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT32">
         <v>0.8</v>
@@ -7185,7 +7200,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7272,7 +7287,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT33">
         <v>0.83</v>
@@ -7376,7 +7391,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7654,7 +7669,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT35">
         <v>0.4</v>
@@ -7758,7 +7773,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7949,7 +7964,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8036,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT37">
         <v>0.2</v>
@@ -8230,7 +8245,7 @@
         <v>3</v>
       </c>
       <c r="AT38">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU38">
         <v>1.26</v>
@@ -8331,7 +8346,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8421,7 +8436,7 @@
         <v>1.4</v>
       </c>
       <c r="AT39">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU39">
         <v>1.92</v>
@@ -8522,7 +8537,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8713,7 +8728,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8803,7 +8818,7 @@
         <v>1.8</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU41">
         <v>1.64</v>
@@ -8904,7 +8919,7 @@
         <v>119</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9182,7 +9197,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT43">
         <v>0.8</v>
@@ -9286,7 +9301,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9376,7 +9391,7 @@
         <v>2.4</v>
       </c>
       <c r="AT44">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU44">
         <v>1.75</v>
@@ -9668,7 +9683,7 @@
         <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9758,7 +9773,7 @@
         <v>0.5</v>
       </c>
       <c r="AT46">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU46">
         <v>1.7</v>
@@ -9859,7 +9874,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q47">
         <v>16</v>
@@ -9946,7 +9961,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT47">
         <v>1.17</v>
@@ -10050,7 +10065,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10241,7 +10256,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10522,7 +10537,7 @@
         <v>3</v>
       </c>
       <c r="AT50">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU50">
         <v>1.67</v>
@@ -10814,7 +10829,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -10901,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT52">
         <v>1.5</v>
@@ -11092,7 +11107,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT53">
         <v>1.67</v>
@@ -11196,7 +11211,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q54">
         <v>15</v>
@@ -11668,7 +11683,7 @@
         <v>2.2</v>
       </c>
       <c r="AT56">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU56">
         <v>1.43</v>
@@ -11960,7 +11975,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12151,7 +12166,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12533,7 +12548,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12724,7 +12739,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12811,7 +12826,7 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT62">
         <v>0.2</v>
@@ -13106,7 +13121,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13193,7 +13208,7 @@
         <v>1.67</v>
       </c>
       <c r="AS64">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT64">
         <v>0.83</v>
@@ -13387,7 +13402,7 @@
         <v>2</v>
       </c>
       <c r="AT65">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU65">
         <v>1.78</v>
@@ -13488,7 +13503,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13578,7 +13593,7 @@
         <v>0.6</v>
       </c>
       <c r="AT66">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU66">
         <v>1.63</v>
@@ -13679,7 +13694,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -13769,7 +13784,7 @@
         <v>1.17</v>
       </c>
       <c r="AT67">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU67">
         <v>1.88</v>
@@ -13957,10 +13972,10 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT68">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU68">
         <v>1.5</v>
@@ -14151,7 +14166,7 @@
         <v>2.17</v>
       </c>
       <c r="AT69">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU69">
         <v>2.5</v>
@@ -14252,7 +14267,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14443,7 +14458,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14530,7 +14545,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT71">
         <v>1.67</v>
@@ -14825,7 +14840,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15016,7 +15031,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15207,7 +15222,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15485,7 +15500,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT76">
         <v>0.2</v>
@@ -16162,7 +16177,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16252,7 +16267,7 @@
         <v>1.6</v>
       </c>
       <c r="AT80">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU80">
         <v>1.95</v>
@@ -16825,7 +16840,7 @@
         <v>1.17</v>
       </c>
       <c r="AT83">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU83">
         <v>1.74</v>
@@ -17117,7 +17132,7 @@
         <v>86</v>
       </c>
       <c r="P85" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q85">
         <v>12</v>
@@ -17204,10 +17219,10 @@
         <v>1.75</v>
       </c>
       <c r="AS85">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT85">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU85">
         <v>2.07</v>
@@ -17395,7 +17410,7 @@
         <v>0.25</v>
       </c>
       <c r="AS86">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT86">
         <v>0.4</v>
@@ -17499,7 +17514,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17586,7 +17601,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT87">
         <v>0.8</v>
@@ -17690,7 +17705,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -17881,7 +17896,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q89">
         <v>11</v>
@@ -18072,7 +18087,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18263,7 +18278,7 @@
         <v>154</v>
       </c>
       <c r="P91" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18645,7 +18660,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18836,7 +18851,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -18923,7 +18938,7 @@
         <v>1.75</v>
       </c>
       <c r="AS94">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT94">
         <v>1.6</v>
@@ -19308,7 +19323,7 @@
         <v>3</v>
       </c>
       <c r="AT96">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU96">
         <v>1.89</v>
@@ -19409,7 +19424,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19499,7 +19514,7 @@
         <v>1.17</v>
       </c>
       <c r="AT97">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU97">
         <v>1.71</v>
@@ -19600,7 +19615,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19687,10 +19702,10 @@
         <v>1.5</v>
       </c>
       <c r="AS98">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT98">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU98">
         <v>1.67</v>
@@ -19982,7 +19997,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20315,6 +20330,961 @@
       </c>
       <c r="BK101">
         <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>5406532</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45098.79166666666</v>
+      </c>
+      <c r="F102">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>77</v>
+      </c>
+      <c r="H102" t="s">
+        <v>69</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102" t="s">
+        <v>163</v>
+      </c>
+      <c r="P102" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q102">
+        <v>4</v>
+      </c>
+      <c r="R102">
+        <v>4</v>
+      </c>
+      <c r="S102">
+        <v>8</v>
+      </c>
+      <c r="T102">
+        <v>2.5</v>
+      </c>
+      <c r="U102">
+        <v>2.1</v>
+      </c>
+      <c r="V102">
+        <v>5</v>
+      </c>
+      <c r="W102">
+        <v>1.44</v>
+      </c>
+      <c r="X102">
+        <v>2.63</v>
+      </c>
+      <c r="Y102">
+        <v>3.25</v>
+      </c>
+      <c r="Z102">
+        <v>1.33</v>
+      </c>
+      <c r="AA102">
+        <v>9</v>
+      </c>
+      <c r="AB102">
+        <v>1.07</v>
+      </c>
+      <c r="AC102">
+        <v>1.83</v>
+      </c>
+      <c r="AD102">
+        <v>3.4</v>
+      </c>
+      <c r="AE102">
+        <v>4.75</v>
+      </c>
+      <c r="AF102">
+        <v>1.06</v>
+      </c>
+      <c r="AG102">
+        <v>9.5</v>
+      </c>
+      <c r="AH102">
+        <v>1.36</v>
+      </c>
+      <c r="AI102">
+        <v>3.1</v>
+      </c>
+      <c r="AJ102">
+        <v>2.15</v>
+      </c>
+      <c r="AK102">
+        <v>1.67</v>
+      </c>
+      <c r="AL102">
+        <v>2</v>
+      </c>
+      <c r="AM102">
+        <v>1.75</v>
+      </c>
+      <c r="AN102">
+        <v>1.21</v>
+      </c>
+      <c r="AO102">
+        <v>1.29</v>
+      </c>
+      <c r="AP102">
+        <v>1.93</v>
+      </c>
+      <c r="AQ102">
+        <v>2.4</v>
+      </c>
+      <c r="AR102">
+        <v>0.8</v>
+      </c>
+      <c r="AS102">
+        <v>2.5</v>
+      </c>
+      <c r="AT102">
+        <v>0.67</v>
+      </c>
+      <c r="AU102">
+        <v>1.84</v>
+      </c>
+      <c r="AV102">
+        <v>1.32</v>
+      </c>
+      <c r="AW102">
+        <v>3.16</v>
+      </c>
+      <c r="AX102">
+        <v>1.37</v>
+      </c>
+      <c r="AY102">
+        <v>9.5</v>
+      </c>
+      <c r="AZ102">
+        <v>3.8</v>
+      </c>
+      <c r="BA102">
+        <v>1.18</v>
+      </c>
+      <c r="BB102">
+        <v>1.26</v>
+      </c>
+      <c r="BC102">
+        <v>1.46</v>
+      </c>
+      <c r="BD102">
+        <v>1.77</v>
+      </c>
+      <c r="BE102">
+        <v>2.18</v>
+      </c>
+      <c r="BF102">
+        <v>6</v>
+      </c>
+      <c r="BG102">
+        <v>6</v>
+      </c>
+      <c r="BH102">
+        <v>3</v>
+      </c>
+      <c r="BI102">
+        <v>7</v>
+      </c>
+      <c r="BJ102">
+        <v>9</v>
+      </c>
+      <c r="BK102">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>5406535</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45098.79166666666</v>
+      </c>
+      <c r="F103">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>78</v>
+      </c>
+      <c r="H103" t="s">
+        <v>70</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103" t="s">
+        <v>86</v>
+      </c>
+      <c r="P103" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q103">
+        <v>5</v>
+      </c>
+      <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
+        <v>7</v>
+      </c>
+      <c r="T103">
+        <v>2.6</v>
+      </c>
+      <c r="U103">
+        <v>2.1</v>
+      </c>
+      <c r="V103">
+        <v>4.5</v>
+      </c>
+      <c r="W103">
+        <v>1.44</v>
+      </c>
+      <c r="X103">
+        <v>2.63</v>
+      </c>
+      <c r="Y103">
+        <v>3.25</v>
+      </c>
+      <c r="Z103">
+        <v>1.33</v>
+      </c>
+      <c r="AA103">
+        <v>10</v>
+      </c>
+      <c r="AB103">
+        <v>1.06</v>
+      </c>
+      <c r="AC103">
+        <v>1.91</v>
+      </c>
+      <c r="AD103">
+        <v>3.4</v>
+      </c>
+      <c r="AE103">
+        <v>4.2</v>
+      </c>
+      <c r="AF103">
+        <v>1.06</v>
+      </c>
+      <c r="AG103">
+        <v>9.5</v>
+      </c>
+      <c r="AH103">
+        <v>1.38</v>
+      </c>
+      <c r="AI103">
+        <v>3</v>
+      </c>
+      <c r="AJ103">
+        <v>2</v>
+      </c>
+      <c r="AK103">
+        <v>1.8</v>
+      </c>
+      <c r="AL103">
+        <v>1.8</v>
+      </c>
+      <c r="AM103">
+        <v>1.95</v>
+      </c>
+      <c r="AN103">
+        <v>1.2</v>
+      </c>
+      <c r="AO103">
+        <v>1.33</v>
+      </c>
+      <c r="AP103">
+        <v>1.72</v>
+      </c>
+      <c r="AQ103">
+        <v>1.2</v>
+      </c>
+      <c r="AR103">
+        <v>1</v>
+      </c>
+      <c r="AS103">
+        <v>1</v>
+      </c>
+      <c r="AT103">
+        <v>1.33</v>
+      </c>
+      <c r="AU103">
+        <v>2</v>
+      </c>
+      <c r="AV103">
+        <v>1.68</v>
+      </c>
+      <c r="AW103">
+        <v>3.68</v>
+      </c>
+      <c r="AX103">
+        <v>1.4</v>
+      </c>
+      <c r="AY103">
+        <v>9.5</v>
+      </c>
+      <c r="AZ103">
+        <v>3.55</v>
+      </c>
+      <c r="BA103">
+        <v>1.18</v>
+      </c>
+      <c r="BB103">
+        <v>1.3</v>
+      </c>
+      <c r="BC103">
+        <v>1.54</v>
+      </c>
+      <c r="BD103">
+        <v>1.88</v>
+      </c>
+      <c r="BE103">
+        <v>2.35</v>
+      </c>
+      <c r="BF103">
+        <v>4</v>
+      </c>
+      <c r="BG103">
+        <v>3</v>
+      </c>
+      <c r="BH103">
+        <v>5</v>
+      </c>
+      <c r="BI103">
+        <v>4</v>
+      </c>
+      <c r="BJ103">
+        <v>9</v>
+      </c>
+      <c r="BK103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>5406533</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45098.83333333334</v>
+      </c>
+      <c r="F104">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>80</v>
+      </c>
+      <c r="H104" t="s">
+        <v>73</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>2</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+      <c r="O104" t="s">
+        <v>86</v>
+      </c>
+      <c r="P104" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q104">
+        <v>5</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>7</v>
+      </c>
+      <c r="T104">
+        <v>3.25</v>
+      </c>
+      <c r="U104">
+        <v>1.83</v>
+      </c>
+      <c r="V104">
+        <v>4.33</v>
+      </c>
+      <c r="W104">
+        <v>1.57</v>
+      </c>
+      <c r="X104">
+        <v>2.25</v>
+      </c>
+      <c r="Y104">
+        <v>3.75</v>
+      </c>
+      <c r="Z104">
+        <v>1.25</v>
+      </c>
+      <c r="AA104">
+        <v>13</v>
+      </c>
+      <c r="AB104">
+        <v>1.04</v>
+      </c>
+      <c r="AC104">
+        <v>2.3</v>
+      </c>
+      <c r="AD104">
+        <v>3</v>
+      </c>
+      <c r="AE104">
+        <v>3.4</v>
+      </c>
+      <c r="AF104">
+        <v>1.12</v>
+      </c>
+      <c r="AG104">
+        <v>5.2</v>
+      </c>
+      <c r="AH104">
+        <v>1.5</v>
+      </c>
+      <c r="AI104">
+        <v>2.5</v>
+      </c>
+      <c r="AJ104">
+        <v>3.1</v>
+      </c>
+      <c r="AK104">
+        <v>1.36</v>
+      </c>
+      <c r="AL104">
+        <v>2.38</v>
+      </c>
+      <c r="AM104">
+        <v>1.53</v>
+      </c>
+      <c r="AN104">
+        <v>1.35</v>
+      </c>
+      <c r="AO104">
+        <v>1.33</v>
+      </c>
+      <c r="AP104">
+        <v>1.57</v>
+      </c>
+      <c r="AQ104">
+        <v>1.8</v>
+      </c>
+      <c r="AR104">
+        <v>0</v>
+      </c>
+      <c r="AS104">
+        <v>1.5</v>
+      </c>
+      <c r="AT104">
+        <v>0.5</v>
+      </c>
+      <c r="AU104">
+        <v>1.58</v>
+      </c>
+      <c r="AV104">
+        <v>1.12</v>
+      </c>
+      <c r="AW104">
+        <v>2.7</v>
+      </c>
+      <c r="AX104">
+        <v>1.88</v>
+      </c>
+      <c r="AY104">
+        <v>8</v>
+      </c>
+      <c r="AZ104">
+        <v>2.2</v>
+      </c>
+      <c r="BA104">
+        <v>1.22</v>
+      </c>
+      <c r="BB104">
+        <v>1.43</v>
+      </c>
+      <c r="BC104">
+        <v>2</v>
+      </c>
+      <c r="BD104">
+        <v>2.16</v>
+      </c>
+      <c r="BE104">
+        <v>2.75</v>
+      </c>
+      <c r="BF104">
+        <v>6</v>
+      </c>
+      <c r="BG104">
+        <v>5</v>
+      </c>
+      <c r="BH104">
+        <v>7</v>
+      </c>
+      <c r="BI104">
+        <v>6</v>
+      </c>
+      <c r="BJ104">
+        <v>13</v>
+      </c>
+      <c r="BK104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>5406530</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45098.89583333334</v>
+      </c>
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>75</v>
+      </c>
+      <c r="H105" t="s">
+        <v>71</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105" t="s">
+        <v>164</v>
+      </c>
+      <c r="P105" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q105">
+        <v>3</v>
+      </c>
+      <c r="R105">
+        <v>5</v>
+      </c>
+      <c r="S105">
+        <v>8</v>
+      </c>
+      <c r="T105">
+        <v>3.4</v>
+      </c>
+      <c r="U105">
+        <v>2.05</v>
+      </c>
+      <c r="V105">
+        <v>3.5</v>
+      </c>
+      <c r="W105">
+        <v>1.44</v>
+      </c>
+      <c r="X105">
+        <v>2.63</v>
+      </c>
+      <c r="Y105">
+        <v>3.25</v>
+      </c>
+      <c r="Z105">
+        <v>1.33</v>
+      </c>
+      <c r="AA105">
+        <v>9</v>
+      </c>
+      <c r="AB105">
+        <v>1.07</v>
+      </c>
+      <c r="AC105">
+        <v>2.63</v>
+      </c>
+      <c r="AD105">
+        <v>3.1</v>
+      </c>
+      <c r="AE105">
+        <v>2.75</v>
+      </c>
+      <c r="AF105">
+        <v>1.07</v>
+      </c>
+      <c r="AG105">
+        <v>9</v>
+      </c>
+      <c r="AH105">
+        <v>1.38</v>
+      </c>
+      <c r="AI105">
+        <v>3</v>
+      </c>
+      <c r="AJ105">
+        <v>2.2</v>
+      </c>
+      <c r="AK105">
+        <v>1.65</v>
+      </c>
+      <c r="AL105">
+        <v>1.91</v>
+      </c>
+      <c r="AM105">
+        <v>1.91</v>
+      </c>
+      <c r="AN105">
+        <v>1.37</v>
+      </c>
+      <c r="AO105">
+        <v>1.33</v>
+      </c>
+      <c r="AP105">
+        <v>1.55</v>
+      </c>
+      <c r="AQ105">
+        <v>2.5</v>
+      </c>
+      <c r="AR105">
+        <v>2</v>
+      </c>
+      <c r="AS105">
+        <v>2.2</v>
+      </c>
+      <c r="AT105">
+        <v>1.83</v>
+      </c>
+      <c r="AU105">
+        <v>1.92</v>
+      </c>
+      <c r="AV105">
+        <v>1.42</v>
+      </c>
+      <c r="AW105">
+        <v>3.34</v>
+      </c>
+      <c r="AX105">
+        <v>1.97</v>
+      </c>
+      <c r="AY105">
+        <v>8</v>
+      </c>
+      <c r="AZ105">
+        <v>2.08</v>
+      </c>
+      <c r="BA105">
+        <v>1.17</v>
+      </c>
+      <c r="BB105">
+        <v>1.3</v>
+      </c>
+      <c r="BC105">
+        <v>1.83</v>
+      </c>
+      <c r="BD105">
+        <v>1.92</v>
+      </c>
+      <c r="BE105">
+        <v>2.4</v>
+      </c>
+      <c r="BF105">
+        <v>5</v>
+      </c>
+      <c r="BG105">
+        <v>7</v>
+      </c>
+      <c r="BH105">
+        <v>4</v>
+      </c>
+      <c r="BI105">
+        <v>5</v>
+      </c>
+      <c r="BJ105">
+        <v>9</v>
+      </c>
+      <c r="BK105">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>5406538</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45098.89583333334</v>
+      </c>
+      <c r="F106">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>84</v>
+      </c>
+      <c r="H106" t="s">
+        <v>65</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106" t="s">
+        <v>165</v>
+      </c>
+      <c r="P106" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q106">
+        <v>6</v>
+      </c>
+      <c r="R106">
+        <v>8</v>
+      </c>
+      <c r="S106">
+        <v>14</v>
+      </c>
+      <c r="T106">
+        <v>4</v>
+      </c>
+      <c r="U106">
+        <v>2.2</v>
+      </c>
+      <c r="V106">
+        <v>2.75</v>
+      </c>
+      <c r="W106">
+        <v>1.4</v>
+      </c>
+      <c r="X106">
+        <v>2.75</v>
+      </c>
+      <c r="Y106">
+        <v>2.75</v>
+      </c>
+      <c r="Z106">
+        <v>1.4</v>
+      </c>
+      <c r="AA106">
+        <v>8</v>
+      </c>
+      <c r="AB106">
+        <v>1.08</v>
+      </c>
+      <c r="AC106">
+        <v>3.8</v>
+      </c>
+      <c r="AD106">
+        <v>3.4</v>
+      </c>
+      <c r="AE106">
+        <v>2</v>
+      </c>
+      <c r="AF106">
+        <v>1.05</v>
+      </c>
+      <c r="AG106">
+        <v>10</v>
+      </c>
+      <c r="AH106">
+        <v>1.33</v>
+      </c>
+      <c r="AI106">
+        <v>3.25</v>
+      </c>
+      <c r="AJ106">
+        <v>1.95</v>
+      </c>
+      <c r="AK106">
+        <v>1.85</v>
+      </c>
+      <c r="AL106">
+        <v>1.8</v>
+      </c>
+      <c r="AM106">
+        <v>1.95</v>
+      </c>
+      <c r="AN106">
+        <v>1.82</v>
+      </c>
+      <c r="AO106">
+        <v>1.3</v>
+      </c>
+      <c r="AP106">
+        <v>1.25</v>
+      </c>
+      <c r="AQ106">
+        <v>1</v>
+      </c>
+      <c r="AR106">
+        <v>1.8</v>
+      </c>
+      <c r="AS106">
+        <v>1.33</v>
+      </c>
+      <c r="AT106">
+        <v>1.5</v>
+      </c>
+      <c r="AU106">
+        <v>1.76</v>
+      </c>
+      <c r="AV106">
+        <v>1.45</v>
+      </c>
+      <c r="AW106">
+        <v>3.21</v>
+      </c>
+      <c r="AX106">
+        <v>2.43</v>
+      </c>
+      <c r="AY106">
+        <v>8</v>
+      </c>
+      <c r="AZ106">
+        <v>1.72</v>
+      </c>
+      <c r="BA106">
+        <v>1.17</v>
+      </c>
+      <c r="BB106">
+        <v>1.32</v>
+      </c>
+      <c r="BC106">
+        <v>1.57</v>
+      </c>
+      <c r="BD106">
+        <v>1.94</v>
+      </c>
+      <c r="BE106">
+        <v>2.43</v>
+      </c>
+      <c r="BF106">
+        <v>4</v>
+      </c>
+      <c r="BG106">
+        <v>4</v>
+      </c>
+      <c r="BH106">
+        <v>5</v>
+      </c>
+      <c r="BI106">
+        <v>6</v>
+      </c>
+      <c r="BJ106">
+        <v>9</v>
+      </c>
+      <c r="BK106">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,36 @@
     <t>['90+3']</t>
   </si>
   <si>
+    <t>['40', '61', '69']</t>
+  </si>
+  <si>
+    <t>['40', '49', '76', '81']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['49', '51']</t>
+  </si>
+  <si>
+    <t>['54', '62']</t>
+  </si>
+  <si>
+    <t>['34', '48', '54', '66', '84']</t>
+  </si>
+  <si>
+    <t>['40', '52']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['7', '45+2']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
     <t>['45+7']</t>
   </si>
   <si>
@@ -674,6 +704,27 @@
   </si>
   <si>
     <t>['19', '28']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['22', '50', '57']</t>
+  </si>
+  <si>
+    <t>['63', '85']</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK106"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,7 +1330,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1366,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT2">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1470,7 +1521,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1557,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT3">
         <v>1.17</v>
@@ -1661,7 +1712,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1751,7 +1802,7 @@
         <v>3</v>
       </c>
       <c r="AT4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1939,10 +1990,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AT5">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2130,10 +2181,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT6">
-        <v>0.2</v>
+        <v>0.57</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2234,7 +2285,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2321,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT7">
-        <v>0.4</v>
+        <v>1.14</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2425,7 +2476,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -2706,7 +2757,7 @@
         <v>2.17</v>
       </c>
       <c r="AT9">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2807,7 +2858,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3085,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="AT11">
         <v>0.8</v>
@@ -3276,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT12">
         <v>0.67</v>
@@ -3380,7 +3431,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3467,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT13">
         <v>0.8</v>
@@ -3661,7 +3712,7 @@
         <v>2.5</v>
       </c>
       <c r="AT14">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3849,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT15">
         <v>1.2</v>
@@ -3953,7 +4004,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4231,10 +4282,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT17">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4335,7 +4386,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4422,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="AT18">
         <v>1.5</v>
@@ -4526,7 +4577,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4613,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT19">
         <v>1.33</v>
@@ -4807,7 +4858,7 @@
         <v>1.4</v>
       </c>
       <c r="AT20">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4908,7 +4959,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -4998,7 +5049,7 @@
         <v>1.33</v>
       </c>
       <c r="AT21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5099,7 +5150,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5186,7 +5237,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT22">
         <v>1.17</v>
@@ -5377,10 +5428,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT23">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU23">
         <v>1.73</v>
@@ -5481,7 +5532,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>12</v>
@@ -5568,10 +5619,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT24">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU24">
         <v>1.77</v>
@@ -5672,7 +5723,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5759,10 +5810,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT25">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU25">
         <v>1.18</v>
@@ -5863,7 +5914,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5950,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AT26">
         <v>1.6</v>
@@ -6054,7 +6105,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6245,7 +6296,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6335,7 +6386,7 @@
         <v>2.17</v>
       </c>
       <c r="AT28">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU28">
         <v>2.3</v>
@@ -6436,7 +6487,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6523,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT29">
         <v>1.2</v>
@@ -6717,7 +6768,7 @@
         <v>2.4</v>
       </c>
       <c r="AT30">
-        <v>0.2</v>
+        <v>0.57</v>
       </c>
       <c r="AU30">
         <v>1.28</v>
@@ -6905,10 +6956,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="AT31">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU31">
         <v>1.31</v>
@@ -7009,7 +7060,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7096,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT32">
         <v>0.8</v>
@@ -7200,7 +7251,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7287,7 +7338,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT33">
         <v>0.83</v>
@@ -7391,7 +7442,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7478,10 +7529,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT34">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU34">
         <v>2.02</v>
@@ -7672,7 +7723,7 @@
         <v>2.5</v>
       </c>
       <c r="AT35">
-        <v>0.4</v>
+        <v>1.14</v>
       </c>
       <c r="AU35">
         <v>1.72</v>
@@ -7773,7 +7824,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7860,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT36">
         <v>1.5</v>
@@ -7964,7 +8015,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8054,7 +8105,7 @@
         <v>1.33</v>
       </c>
       <c r="AT37">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU37">
         <v>1.06</v>
@@ -8245,7 +8296,7 @@
         <v>3</v>
       </c>
       <c r="AT38">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU38">
         <v>1.26</v>
@@ -8346,7 +8397,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8537,7 +8588,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8624,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="AT40">
         <v>0.8</v>
@@ -8728,7 +8779,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8919,7 +8970,7 @@
         <v>119</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9006,10 +9057,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AT42">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU42">
         <v>1.58</v>
@@ -9197,10 +9248,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT43">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU43">
         <v>1.33</v>
@@ -9301,7 +9352,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9582,7 +9633,7 @@
         <v>2.17</v>
       </c>
       <c r="AT45">
-        <v>0.2</v>
+        <v>0.57</v>
       </c>
       <c r="AU45">
         <v>2.7</v>
@@ -9683,7 +9734,7 @@
         <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9770,10 +9821,10 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT46">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU46">
         <v>1.7</v>
@@ -9874,7 +9925,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>16</v>
@@ -9961,7 +10012,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT47">
         <v>1.17</v>
@@ -10065,7 +10116,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10152,7 +10203,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT48">
         <v>1.2</v>
@@ -10256,7 +10307,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10343,7 +10394,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT49">
         <v>0.83</v>
@@ -10537,7 +10588,7 @@
         <v>3</v>
       </c>
       <c r="AT50">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU50">
         <v>1.67</v>
@@ -10725,10 +10776,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT51">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU51">
         <v>2.41</v>
@@ -10829,7 +10880,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11107,10 +11158,10 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT53">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU53">
         <v>2.57</v>
@@ -11211,7 +11262,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="Q54">
         <v>15</v>
@@ -11298,7 +11349,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT54">
         <v>0.8</v>
@@ -11492,7 +11543,7 @@
         <v>1.6</v>
       </c>
       <c r="AT55">
-        <v>0.4</v>
+        <v>1.14</v>
       </c>
       <c r="AU55">
         <v>2.15</v>
@@ -11680,7 +11731,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="AT56">
         <v>1.33</v>
@@ -11871,7 +11922,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="AT57">
         <v>0.8</v>
@@ -11975,7 +12026,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12065,7 +12116,7 @@
         <v>1.8</v>
       </c>
       <c r="AT58">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU58">
         <v>2.06</v>
@@ -12166,7 +12217,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12253,10 +12304,10 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT59">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU59">
         <v>1.36</v>
@@ -12447,7 +12498,7 @@
         <v>1.4</v>
       </c>
       <c r="AT60">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU60">
         <v>1.78</v>
@@ -12548,7 +12599,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12635,7 +12686,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT61">
         <v>1.6</v>
@@ -12739,7 +12790,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12829,7 +12880,7 @@
         <v>1.33</v>
       </c>
       <c r="AT62">
-        <v>0.2</v>
+        <v>0.57</v>
       </c>
       <c r="AU62">
         <v>1.74</v>
@@ -13121,7 +13172,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13399,7 +13450,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AT65">
         <v>0.67</v>
@@ -13503,7 +13554,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13590,10 +13641,10 @@
         <v>1.33</v>
       </c>
       <c r="AS66">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT66">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU66">
         <v>1.63</v>
@@ -13694,7 +13745,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -13781,7 +13832,7 @@
         <v>1.67</v>
       </c>
       <c r="AS67">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT67">
         <v>1.33</v>
@@ -13972,7 +14023,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT68">
         <v>1.5</v>
@@ -14166,7 +14217,7 @@
         <v>2.17</v>
       </c>
       <c r="AT69">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU69">
         <v>2.5</v>
@@ -14267,7 +14318,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14354,10 +14405,10 @@
         <v>0.33</v>
       </c>
       <c r="AS70">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="AT70">
-        <v>0.4</v>
+        <v>1.14</v>
       </c>
       <c r="AU70">
         <v>1.55</v>
@@ -14458,7 +14509,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14545,10 +14596,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT71">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU71">
         <v>2.04</v>
@@ -14736,7 +14787,7 @@
         <v>1.25</v>
       </c>
       <c r="AS72">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT72">
         <v>0.83</v>
@@ -14840,7 +14891,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -14927,7 +14978,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT73">
         <v>1.2</v>
@@ -15031,7 +15082,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15222,7 +15273,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15309,10 +15360,10 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT75">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU75">
         <v>1.39</v>
@@ -15503,7 +15554,7 @@
         <v>2.5</v>
       </c>
       <c r="AT76">
-        <v>0.2</v>
+        <v>0.57</v>
       </c>
       <c r="AU76">
         <v>1.5</v>
@@ -15885,7 +15936,7 @@
         <v>2.4</v>
       </c>
       <c r="AT78">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU78">
         <v>1.65</v>
@@ -16073,7 +16124,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AT79">
         <v>0.8</v>
@@ -16177,7 +16228,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16458,7 +16509,7 @@
         <v>3</v>
       </c>
       <c r="AT81">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU81">
         <v>1.84</v>
@@ -16646,10 +16697,10 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT82">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU82">
         <v>2.14</v>
@@ -16837,10 +16888,10 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT83">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU83">
         <v>1.74</v>
@@ -17028,10 +17079,10 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT84">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU84">
         <v>1.85</v>
@@ -17132,7 +17183,7 @@
         <v>86</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>12</v>
@@ -17219,10 +17270,10 @@
         <v>1.75</v>
       </c>
       <c r="AS85">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT85">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU85">
         <v>2.07</v>
@@ -17410,10 +17461,10 @@
         <v>0.25</v>
       </c>
       <c r="AS86">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT86">
-        <v>0.4</v>
+        <v>1.14</v>
       </c>
       <c r="AU86">
         <v>1.5</v>
@@ -17514,7 +17565,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17601,7 +17652,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT87">
         <v>0.8</v>
@@ -17705,7 +17756,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -17792,10 +17843,10 @@
         <v>0.75</v>
       </c>
       <c r="AS88">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="AT88">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU88">
         <v>1.62</v>
@@ -17896,7 +17947,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>11</v>
@@ -17983,10 +18034,10 @@
         <v>0.25</v>
       </c>
       <c r="AS89">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT89">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU89">
         <v>2.25</v>
@@ -18087,7 +18138,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18177,7 +18228,7 @@
         <v>1.4</v>
       </c>
       <c r="AT90">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU90">
         <v>1.64</v>
@@ -18278,7 +18329,7 @@
         <v>154</v>
       </c>
       <c r="P91" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18365,7 +18416,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="AT91">
         <v>1.5</v>
@@ -18556,7 +18607,7 @@
         <v>0.75</v>
       </c>
       <c r="AS92">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT92">
         <v>0.8</v>
@@ -18660,7 +18711,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18851,7 +18902,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19132,7 +19183,7 @@
         <v>1.8</v>
       </c>
       <c r="AT95">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU95">
         <v>1.72</v>
@@ -19424,7 +19475,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19511,7 +19562,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT97">
         <v>0.67</v>
@@ -19615,7 +19666,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19997,7 +20048,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20379,7 +20430,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20570,7 +20621,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20657,7 +20708,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT103">
         <v>1.33</v>
@@ -20761,7 +20812,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20848,10 +20899,10 @@
         <v>0</v>
       </c>
       <c r="AS104">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT104">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU104">
         <v>1.58</v>
@@ -20952,7 +21003,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21039,10 +21090,10 @@
         <v>2</v>
       </c>
       <c r="AS105">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT105">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU105">
         <v>1.92</v>
@@ -21285,6 +21336,2871 @@
       </c>
       <c r="BK106">
         <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>5406536</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45099.79166666666</v>
+      </c>
+      <c r="F107">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H107" t="s">
+        <v>66</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>4</v>
+      </c>
+      <c r="O107" t="s">
+        <v>166</v>
+      </c>
+      <c r="P107" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q107">
+        <v>10</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>12</v>
+      </c>
+      <c r="T107">
+        <v>2.2</v>
+      </c>
+      <c r="U107">
+        <v>2.3</v>
+      </c>
+      <c r="V107">
+        <v>5</v>
+      </c>
+      <c r="W107">
+        <v>1.36</v>
+      </c>
+      <c r="X107">
+        <v>3</v>
+      </c>
+      <c r="Y107">
+        <v>2.75</v>
+      </c>
+      <c r="Z107">
+        <v>1.4</v>
+      </c>
+      <c r="AA107">
+        <v>7</v>
+      </c>
+      <c r="AB107">
+        <v>1.1</v>
+      </c>
+      <c r="AC107">
+        <v>1.65</v>
+      </c>
+      <c r="AD107">
+        <v>4</v>
+      </c>
+      <c r="AE107">
+        <v>5.25</v>
+      </c>
+      <c r="AF107">
+        <v>1.01</v>
+      </c>
+      <c r="AG107">
+        <v>11</v>
+      </c>
+      <c r="AH107">
+        <v>1.22</v>
+      </c>
+      <c r="AI107">
+        <v>3.7</v>
+      </c>
+      <c r="AJ107">
+        <v>1.75</v>
+      </c>
+      <c r="AK107">
+        <v>2.05</v>
+      </c>
+      <c r="AL107">
+        <v>1.8</v>
+      </c>
+      <c r="AM107">
+        <v>1.95</v>
+      </c>
+      <c r="AN107">
+        <v>1.18</v>
+      </c>
+      <c r="AO107">
+        <v>1.2</v>
+      </c>
+      <c r="AP107">
+        <v>2.2</v>
+      </c>
+      <c r="AQ107">
+        <v>2.2</v>
+      </c>
+      <c r="AR107">
+        <v>0.25</v>
+      </c>
+      <c r="AS107">
+        <v>2.43</v>
+      </c>
+      <c r="AT107">
+        <v>0.2</v>
+      </c>
+      <c r="AU107">
+        <v>1.79</v>
+      </c>
+      <c r="AV107">
+        <v>1.42</v>
+      </c>
+      <c r="AW107">
+        <v>3.21</v>
+      </c>
+      <c r="AX107">
+        <v>1.46</v>
+      </c>
+      <c r="AY107">
+        <v>9</v>
+      </c>
+      <c r="AZ107">
+        <v>3.2</v>
+      </c>
+      <c r="BA107">
+        <v>1.13</v>
+      </c>
+      <c r="BB107">
+        <v>1.25</v>
+      </c>
+      <c r="BC107">
+        <v>1.83</v>
+      </c>
+      <c r="BD107">
+        <v>1.76</v>
+      </c>
+      <c r="BE107">
+        <v>2.18</v>
+      </c>
+      <c r="BF107">
+        <v>10</v>
+      </c>
+      <c r="BG107">
+        <v>3</v>
+      </c>
+      <c r="BH107">
+        <v>11</v>
+      </c>
+      <c r="BI107">
+        <v>3</v>
+      </c>
+      <c r="BJ107">
+        <v>21</v>
+      </c>
+      <c r="BK107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>5406531</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45099.83333333334</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>81</v>
+      </c>
+      <c r="H108" t="s">
+        <v>83</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108" t="s">
+        <v>86</v>
+      </c>
+      <c r="P108" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q108">
+        <v>8</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
+        <v>10</v>
+      </c>
+      <c r="T108">
+        <v>2.4</v>
+      </c>
+      <c r="U108">
+        <v>2.1</v>
+      </c>
+      <c r="V108">
+        <v>5.5</v>
+      </c>
+      <c r="W108">
+        <v>1.44</v>
+      </c>
+      <c r="X108">
+        <v>2.63</v>
+      </c>
+      <c r="Y108">
+        <v>3.25</v>
+      </c>
+      <c r="Z108">
+        <v>1.33</v>
+      </c>
+      <c r="AA108">
+        <v>9</v>
+      </c>
+      <c r="AB108">
+        <v>1.07</v>
+      </c>
+      <c r="AC108">
+        <v>1.75</v>
+      </c>
+      <c r="AD108">
+        <v>3.5</v>
+      </c>
+      <c r="AE108">
+        <v>4.75</v>
+      </c>
+      <c r="AF108">
+        <v>1.06</v>
+      </c>
+      <c r="AG108">
+        <v>9.5</v>
+      </c>
+      <c r="AH108">
+        <v>1.36</v>
+      </c>
+      <c r="AI108">
+        <v>3.1</v>
+      </c>
+      <c r="AJ108">
+        <v>2.15</v>
+      </c>
+      <c r="AK108">
+        <v>1.67</v>
+      </c>
+      <c r="AL108">
+        <v>2</v>
+      </c>
+      <c r="AM108">
+        <v>1.75</v>
+      </c>
+      <c r="AN108">
+        <v>1.2</v>
+      </c>
+      <c r="AO108">
+        <v>1.25</v>
+      </c>
+      <c r="AP108">
+        <v>2</v>
+      </c>
+      <c r="AQ108">
+        <v>0.25</v>
+      </c>
+      <c r="AR108">
+        <v>0.2</v>
+      </c>
+      <c r="AS108">
+        <v>0.67</v>
+      </c>
+      <c r="AT108">
+        <v>0.57</v>
+      </c>
+      <c r="AU108">
+        <v>1.97</v>
+      </c>
+      <c r="AV108">
+        <v>1.53</v>
+      </c>
+      <c r="AW108">
+        <v>3.5</v>
+      </c>
+      <c r="AX108">
+        <v>1.44</v>
+      </c>
+      <c r="AY108">
+        <v>9</v>
+      </c>
+      <c r="AZ108">
+        <v>3.35</v>
+      </c>
+      <c r="BA108">
+        <v>1.11</v>
+      </c>
+      <c r="BB108">
+        <v>1.28</v>
+      </c>
+      <c r="BC108">
+        <v>1.5</v>
+      </c>
+      <c r="BD108">
+        <v>1.84</v>
+      </c>
+      <c r="BE108">
+        <v>2.28</v>
+      </c>
+      <c r="BF108">
+        <v>7</v>
+      </c>
+      <c r="BG108">
+        <v>3</v>
+      </c>
+      <c r="BH108">
+        <v>15</v>
+      </c>
+      <c r="BI108">
+        <v>7</v>
+      </c>
+      <c r="BJ108">
+        <v>22</v>
+      </c>
+      <c r="BK108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>5406539</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45099.83333333334</v>
+      </c>
+      <c r="F109">
+        <v>11</v>
+      </c>
+      <c r="G109" t="s">
+        <v>76</v>
+      </c>
+      <c r="H109" t="s">
+        <v>67</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109" t="s">
+        <v>86</v>
+      </c>
+      <c r="P109" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q109">
+        <v>6</v>
+      </c>
+      <c r="R109">
+        <v>2</v>
+      </c>
+      <c r="S109">
+        <v>8</v>
+      </c>
+      <c r="T109">
+        <v>3.4</v>
+      </c>
+      <c r="U109">
+        <v>1.95</v>
+      </c>
+      <c r="V109">
+        <v>3.75</v>
+      </c>
+      <c r="W109">
+        <v>1.5</v>
+      </c>
+      <c r="X109">
+        <v>2.5</v>
+      </c>
+      <c r="Y109">
+        <v>3.4</v>
+      </c>
+      <c r="Z109">
+        <v>1.3</v>
+      </c>
+      <c r="AA109">
+        <v>10</v>
+      </c>
+      <c r="AB109">
+        <v>1.06</v>
+      </c>
+      <c r="AC109">
+        <v>2.6</v>
+      </c>
+      <c r="AD109">
+        <v>3</v>
+      </c>
+      <c r="AE109">
+        <v>3</v>
+      </c>
+      <c r="AF109">
+        <v>1.09</v>
+      </c>
+      <c r="AG109">
+        <v>8</v>
+      </c>
+      <c r="AH109">
+        <v>1.42</v>
+      </c>
+      <c r="AI109">
+        <v>2.8</v>
+      </c>
+      <c r="AJ109">
+        <v>2.5</v>
+      </c>
+      <c r="AK109">
+        <v>1.5</v>
+      </c>
+      <c r="AL109">
+        <v>2.05</v>
+      </c>
+      <c r="AM109">
+        <v>1.7</v>
+      </c>
+      <c r="AN109">
+        <v>1.53</v>
+      </c>
+      <c r="AO109">
+        <v>1.35</v>
+      </c>
+      <c r="AP109">
+        <v>1.37</v>
+      </c>
+      <c r="AQ109">
+        <v>0.5</v>
+      </c>
+      <c r="AR109">
+        <v>1.5</v>
+      </c>
+      <c r="AS109">
+        <v>0.4</v>
+      </c>
+      <c r="AT109">
+        <v>2</v>
+      </c>
+      <c r="AU109">
+        <v>1.37</v>
+      </c>
+      <c r="AV109">
+        <v>1.3</v>
+      </c>
+      <c r="AW109">
+        <v>2.67</v>
+      </c>
+      <c r="AX109">
+        <v>2</v>
+      </c>
+      <c r="AY109">
+        <v>7.5</v>
+      </c>
+      <c r="AZ109">
+        <v>2.06</v>
+      </c>
+      <c r="BA109">
+        <v>1.24</v>
+      </c>
+      <c r="BB109">
+        <v>1.46</v>
+      </c>
+      <c r="BC109">
+        <v>2.1</v>
+      </c>
+      <c r="BD109">
+        <v>2.23</v>
+      </c>
+      <c r="BE109">
+        <v>2.9</v>
+      </c>
+      <c r="BF109">
+        <v>10</v>
+      </c>
+      <c r="BG109">
+        <v>4</v>
+      </c>
+      <c r="BH109">
+        <v>14</v>
+      </c>
+      <c r="BI109">
+        <v>2</v>
+      </c>
+      <c r="BJ109">
+        <v>24</v>
+      </c>
+      <c r="BK109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>5406537</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45099.83333333334</v>
+      </c>
+      <c r="F110">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s">
+        <v>82</v>
+      </c>
+      <c r="H110" t="s">
+        <v>79</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110" t="s">
+        <v>86</v>
+      </c>
+      <c r="P110" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q110">
+        <v>10</v>
+      </c>
+      <c r="R110">
+        <v>5</v>
+      </c>
+      <c r="S110">
+        <v>15</v>
+      </c>
+      <c r="T110">
+        <v>3.5</v>
+      </c>
+      <c r="U110">
+        <v>1.91</v>
+      </c>
+      <c r="V110">
+        <v>3.6</v>
+      </c>
+      <c r="W110">
+        <v>1.53</v>
+      </c>
+      <c r="X110">
+        <v>2.38</v>
+      </c>
+      <c r="Y110">
+        <v>3.5</v>
+      </c>
+      <c r="Z110">
+        <v>1.29</v>
+      </c>
+      <c r="AA110">
+        <v>11</v>
+      </c>
+      <c r="AB110">
+        <v>1.05</v>
+      </c>
+      <c r="AC110">
+        <v>2.7</v>
+      </c>
+      <c r="AD110">
+        <v>3</v>
+      </c>
+      <c r="AE110">
+        <v>2.8</v>
+      </c>
+      <c r="AF110">
+        <v>1.09</v>
+      </c>
+      <c r="AG110">
+        <v>7.5</v>
+      </c>
+      <c r="AH110">
+        <v>1.45</v>
+      </c>
+      <c r="AI110">
+        <v>2.75</v>
+      </c>
+      <c r="AJ110">
+        <v>2.5</v>
+      </c>
+      <c r="AK110">
+        <v>1.5</v>
+      </c>
+      <c r="AL110">
+        <v>2.05</v>
+      </c>
+      <c r="AM110">
+        <v>1.7</v>
+      </c>
+      <c r="AN110">
+        <v>1.52</v>
+      </c>
+      <c r="AO110">
+        <v>1.35</v>
+      </c>
+      <c r="AP110">
+        <v>1.37</v>
+      </c>
+      <c r="AQ110">
+        <v>0.6</v>
+      </c>
+      <c r="AR110">
+        <v>0.4</v>
+      </c>
+      <c r="AS110">
+        <v>0.5</v>
+      </c>
+      <c r="AT110">
+        <v>1.14</v>
+      </c>
+      <c r="AU110">
+        <v>1.74</v>
+      </c>
+      <c r="AV110">
+        <v>1.52</v>
+      </c>
+      <c r="AW110">
+        <v>3.26</v>
+      </c>
+      <c r="AX110">
+        <v>1.74</v>
+      </c>
+      <c r="AY110">
+        <v>8</v>
+      </c>
+      <c r="AZ110">
+        <v>2.4</v>
+      </c>
+      <c r="BA110">
+        <v>1.19</v>
+      </c>
+      <c r="BB110">
+        <v>1.29</v>
+      </c>
+      <c r="BC110">
+        <v>1.52</v>
+      </c>
+      <c r="BD110">
+        <v>1.87</v>
+      </c>
+      <c r="BE110">
+        <v>2.33</v>
+      </c>
+      <c r="BF110">
+        <v>4</v>
+      </c>
+      <c r="BG110">
+        <v>6</v>
+      </c>
+      <c r="BH110">
+        <v>13</v>
+      </c>
+      <c r="BI110">
+        <v>1</v>
+      </c>
+      <c r="BJ110">
+        <v>17</v>
+      </c>
+      <c r="BK110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>5406534</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45099.89583333334</v>
+      </c>
+      <c r="F111">
+        <v>11</v>
+      </c>
+      <c r="G111" t="s">
+        <v>68</v>
+      </c>
+      <c r="H111" t="s">
+        <v>72</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>4</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>4</v>
+      </c>
+      <c r="O111" t="s">
+        <v>167</v>
+      </c>
+      <c r="P111" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q111">
+        <v>17</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>19</v>
+      </c>
+      <c r="T111">
+        <v>3.6</v>
+      </c>
+      <c r="U111">
+        <v>2.2</v>
+      </c>
+      <c r="V111">
+        <v>3</v>
+      </c>
+      <c r="W111">
+        <v>1.4</v>
+      </c>
+      <c r="X111">
+        <v>2.75</v>
+      </c>
+      <c r="Y111">
+        <v>2.75</v>
+      </c>
+      <c r="Z111">
+        <v>1.4</v>
+      </c>
+      <c r="AA111">
+        <v>8</v>
+      </c>
+      <c r="AB111">
+        <v>1.08</v>
+      </c>
+      <c r="AC111">
+        <v>3.1</v>
+      </c>
+      <c r="AD111">
+        <v>3.25</v>
+      </c>
+      <c r="AE111">
+        <v>2.3</v>
+      </c>
+      <c r="AF111">
+        <v>1.04</v>
+      </c>
+      <c r="AG111">
+        <v>12</v>
+      </c>
+      <c r="AH111">
+        <v>1.28</v>
+      </c>
+      <c r="AI111">
+        <v>3.6</v>
+      </c>
+      <c r="AJ111">
+        <v>1.95</v>
+      </c>
+      <c r="AK111">
+        <v>1.85</v>
+      </c>
+      <c r="AL111">
+        <v>1.7</v>
+      </c>
+      <c r="AM111">
+        <v>2.05</v>
+      </c>
+      <c r="AN111">
+        <v>1.63</v>
+      </c>
+      <c r="AO111">
+        <v>1.3</v>
+      </c>
+      <c r="AP111">
+        <v>1.35</v>
+      </c>
+      <c r="AQ111">
+        <v>2</v>
+      </c>
+      <c r="AR111">
+        <v>1.5</v>
+      </c>
+      <c r="AS111">
+        <v>2.29</v>
+      </c>
+      <c r="AT111">
+        <v>1.5</v>
+      </c>
+      <c r="AU111">
+        <v>1.85</v>
+      </c>
+      <c r="AV111">
+        <v>1.61</v>
+      </c>
+      <c r="AW111">
+        <v>3.46</v>
+      </c>
+      <c r="AX111">
+        <v>1.94</v>
+      </c>
+      <c r="AY111">
+        <v>8</v>
+      </c>
+      <c r="AZ111">
+        <v>2.08</v>
+      </c>
+      <c r="BA111">
+        <v>1.19</v>
+      </c>
+      <c r="BB111">
+        <v>1.3</v>
+      </c>
+      <c r="BC111">
+        <v>1.54</v>
+      </c>
+      <c r="BD111">
+        <v>1.9</v>
+      </c>
+      <c r="BE111">
+        <v>2.38</v>
+      </c>
+      <c r="BF111">
+        <v>14</v>
+      </c>
+      <c r="BG111">
+        <v>0</v>
+      </c>
+      <c r="BH111">
+        <v>11</v>
+      </c>
+      <c r="BI111">
+        <v>6</v>
+      </c>
+      <c r="BJ111">
+        <v>25</v>
+      </c>
+      <c r="BK111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>5406547</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45101.66666666666</v>
+      </c>
+      <c r="F112">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>69</v>
+      </c>
+      <c r="H112" t="s">
+        <v>73</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112" t="s">
+        <v>168</v>
+      </c>
+      <c r="P112" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q112">
+        <v>5</v>
+      </c>
+      <c r="R112">
+        <v>5</v>
+      </c>
+      <c r="S112">
+        <v>10</v>
+      </c>
+      <c r="T112">
+        <v>2.75</v>
+      </c>
+      <c r="U112">
+        <v>1.95</v>
+      </c>
+      <c r="V112">
+        <v>5</v>
+      </c>
+      <c r="W112">
+        <v>1.55</v>
+      </c>
+      <c r="X112">
+        <v>2.45</v>
+      </c>
+      <c r="Y112">
+        <v>3.5</v>
+      </c>
+      <c r="Z112">
+        <v>1.28</v>
+      </c>
+      <c r="AA112">
+        <v>9.5</v>
+      </c>
+      <c r="AB112">
+        <v>1.04</v>
+      </c>
+      <c r="AC112">
+        <v>2.05</v>
+      </c>
+      <c r="AD112">
+        <v>3.2</v>
+      </c>
+      <c r="AE112">
+        <v>3.6</v>
+      </c>
+      <c r="AF112">
+        <v>1.09</v>
+      </c>
+      <c r="AG112">
+        <v>7.5</v>
+      </c>
+      <c r="AH112">
+        <v>1.47</v>
+      </c>
+      <c r="AI112">
+        <v>2.75</v>
+      </c>
+      <c r="AJ112">
+        <v>2.4</v>
+      </c>
+      <c r="AK112">
+        <v>1.55</v>
+      </c>
+      <c r="AL112">
+        <v>2.2</v>
+      </c>
+      <c r="AM112">
+        <v>1.62</v>
+      </c>
+      <c r="AN112">
+        <v>1.25</v>
+      </c>
+      <c r="AO112">
+        <v>1.3</v>
+      </c>
+      <c r="AP112">
+        <v>1.78</v>
+      </c>
+      <c r="AQ112">
+        <v>2.4</v>
+      </c>
+      <c r="AR112">
+        <v>0.5</v>
+      </c>
+      <c r="AS112">
+        <v>2.5</v>
+      </c>
+      <c r="AT112">
+        <v>0.43</v>
+      </c>
+      <c r="AU112">
+        <v>1.8</v>
+      </c>
+      <c r="AV112">
+        <v>1.14</v>
+      </c>
+      <c r="AW112">
+        <v>2.94</v>
+      </c>
+      <c r="AX112">
+        <v>1.78</v>
+      </c>
+      <c r="AY112">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ112">
+        <v>2.49</v>
+      </c>
+      <c r="BA112">
+        <v>1.17</v>
+      </c>
+      <c r="BB112">
+        <v>1.33</v>
+      </c>
+      <c r="BC112">
+        <v>2</v>
+      </c>
+      <c r="BD112">
+        <v>2.04</v>
+      </c>
+      <c r="BE112">
+        <v>2.65</v>
+      </c>
+      <c r="BF112">
+        <v>8</v>
+      </c>
+      <c r="BG112">
+        <v>4</v>
+      </c>
+      <c r="BH112">
+        <v>19</v>
+      </c>
+      <c r="BI112">
+        <v>9</v>
+      </c>
+      <c r="BJ112">
+        <v>27</v>
+      </c>
+      <c r="BK112">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>5406540</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45101.77083333334</v>
+      </c>
+      <c r="F113">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>75</v>
+      </c>
+      <c r="H113" t="s">
+        <v>84</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113" t="s">
+        <v>169</v>
+      </c>
+      <c r="P113" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q113">
+        <v>9</v>
+      </c>
+      <c r="R113">
+        <v>10</v>
+      </c>
+      <c r="S113">
+        <v>19</v>
+      </c>
+      <c r="T113">
+        <v>2.1</v>
+      </c>
+      <c r="U113">
+        <v>2.38</v>
+      </c>
+      <c r="V113">
+        <v>6</v>
+      </c>
+      <c r="W113">
+        <v>1.39</v>
+      </c>
+      <c r="X113">
+        <v>2.75</v>
+      </c>
+      <c r="Y113">
+        <v>2.75</v>
+      </c>
+      <c r="Z113">
+        <v>1.39</v>
+      </c>
+      <c r="AA113">
+        <v>7</v>
+      </c>
+      <c r="AB113">
+        <v>1.08</v>
+      </c>
+      <c r="AC113">
+        <v>1.58</v>
+      </c>
+      <c r="AD113">
+        <v>3.8</v>
+      </c>
+      <c r="AE113">
+        <v>5.4</v>
+      </c>
+      <c r="AF113">
+        <v>1.05</v>
+      </c>
+      <c r="AG113">
+        <v>11</v>
+      </c>
+      <c r="AH113">
+        <v>1.33</v>
+      </c>
+      <c r="AI113">
+        <v>3.3</v>
+      </c>
+      <c r="AJ113">
+        <v>2.03</v>
+      </c>
+      <c r="AK113">
+        <v>1.85</v>
+      </c>
+      <c r="AL113">
+        <v>1.91</v>
+      </c>
+      <c r="AM113">
+        <v>1.91</v>
+      </c>
+      <c r="AN113">
+        <v>1.14</v>
+      </c>
+      <c r="AO113">
+        <v>1.24</v>
+      </c>
+      <c r="AP113">
+        <v>2.25</v>
+      </c>
+      <c r="AQ113">
+        <v>2.2</v>
+      </c>
+      <c r="AR113">
+        <v>0.8</v>
+      </c>
+      <c r="AS113">
+        <v>2.33</v>
+      </c>
+      <c r="AT113">
+        <v>0.67</v>
+      </c>
+      <c r="AU113">
+        <v>1.76</v>
+      </c>
+      <c r="AV113">
+        <v>1.3</v>
+      </c>
+      <c r="AW113">
+        <v>3.06</v>
+      </c>
+      <c r="AX113">
+        <v>1.44</v>
+      </c>
+      <c r="AY113">
+        <v>10.5</v>
+      </c>
+      <c r="AZ113">
+        <v>3.6</v>
+      </c>
+      <c r="BA113">
+        <v>1.1</v>
+      </c>
+      <c r="BB113">
+        <v>1.23</v>
+      </c>
+      <c r="BC113">
+        <v>1.43</v>
+      </c>
+      <c r="BD113">
+        <v>1.75</v>
+      </c>
+      <c r="BE113">
+        <v>2.17</v>
+      </c>
+      <c r="BF113">
+        <v>11</v>
+      </c>
+      <c r="BG113">
+        <v>4</v>
+      </c>
+      <c r="BH113">
+        <v>6</v>
+      </c>
+      <c r="BI113">
+        <v>9</v>
+      </c>
+      <c r="BJ113">
+        <v>17</v>
+      </c>
+      <c r="BK113">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>5406548</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45101.77083333334</v>
+      </c>
+      <c r="F114">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>70</v>
+      </c>
+      <c r="H114" t="s">
+        <v>71</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>170</v>
+      </c>
+      <c r="P114" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q114">
+        <v>3</v>
+      </c>
+      <c r="R114">
+        <v>8</v>
+      </c>
+      <c r="S114">
+        <v>11</v>
+      </c>
+      <c r="T114">
+        <v>3.4</v>
+      </c>
+      <c r="U114">
+        <v>2</v>
+      </c>
+      <c r="V114">
+        <v>3.5</v>
+      </c>
+      <c r="W114">
+        <v>1.44</v>
+      </c>
+      <c r="X114">
+        <v>2.55</v>
+      </c>
+      <c r="Y114">
+        <v>3</v>
+      </c>
+      <c r="Z114">
+        <v>1.33</v>
+      </c>
+      <c r="AA114">
+        <v>8.25</v>
+      </c>
+      <c r="AB114">
+        <v>1.06</v>
+      </c>
+      <c r="AC114">
+        <v>2.39</v>
+      </c>
+      <c r="AD114">
+        <v>3.2</v>
+      </c>
+      <c r="AE114">
+        <v>2.88</v>
+      </c>
+      <c r="AF114">
+        <v>1.07</v>
+      </c>
+      <c r="AG114">
+        <v>7.5</v>
+      </c>
+      <c r="AH114">
+        <v>1.36</v>
+      </c>
+      <c r="AI114">
+        <v>2.87</v>
+      </c>
+      <c r="AJ114">
+        <v>2.38</v>
+      </c>
+      <c r="AK114">
+        <v>1.57</v>
+      </c>
+      <c r="AL114">
+        <v>1.95</v>
+      </c>
+      <c r="AM114">
+        <v>1.8</v>
+      </c>
+      <c r="AN114">
+        <v>1.4</v>
+      </c>
+      <c r="AO114">
+        <v>1.33</v>
+      </c>
+      <c r="AP114">
+        <v>1.52</v>
+      </c>
+      <c r="AQ114">
+        <v>1.8</v>
+      </c>
+      <c r="AR114">
+        <v>1.83</v>
+      </c>
+      <c r="AS114">
+        <v>2</v>
+      </c>
+      <c r="AT114">
+        <v>1.57</v>
+      </c>
+      <c r="AU114">
+        <v>1.99</v>
+      </c>
+      <c r="AV114">
+        <v>1.44</v>
+      </c>
+      <c r="AW114">
+        <v>3.43</v>
+      </c>
+      <c r="AX114">
+        <v>2.03</v>
+      </c>
+      <c r="AY114">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ114">
+        <v>2.14</v>
+      </c>
+      <c r="BA114">
+        <v>1.19</v>
+      </c>
+      <c r="BB114">
+        <v>1.37</v>
+      </c>
+      <c r="BC114">
+        <v>2.2</v>
+      </c>
+      <c r="BD114">
+        <v>2.13</v>
+      </c>
+      <c r="BE114">
+        <v>2.76</v>
+      </c>
+      <c r="BF114">
+        <v>4</v>
+      </c>
+      <c r="BG114">
+        <v>5</v>
+      </c>
+      <c r="BH114">
+        <v>2</v>
+      </c>
+      <c r="BI114">
+        <v>9</v>
+      </c>
+      <c r="BJ114">
+        <v>6</v>
+      </c>
+      <c r="BK114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>5406545</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45101.875</v>
+      </c>
+      <c r="F115">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>78</v>
+      </c>
+      <c r="H115" t="s">
+        <v>77</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>143</v>
+      </c>
+      <c r="P115" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q115">
+        <v>6</v>
+      </c>
+      <c r="R115">
+        <v>5</v>
+      </c>
+      <c r="S115">
+        <v>11</v>
+      </c>
+      <c r="T115">
+        <v>2.88</v>
+      </c>
+      <c r="U115">
+        <v>2.05</v>
+      </c>
+      <c r="V115">
+        <v>4</v>
+      </c>
+      <c r="W115">
+        <v>1.46</v>
+      </c>
+      <c r="X115">
+        <v>2.5</v>
+      </c>
+      <c r="Y115">
+        <v>3.1</v>
+      </c>
+      <c r="Z115">
+        <v>1.32</v>
+      </c>
+      <c r="AA115">
+        <v>8.5</v>
+      </c>
+      <c r="AB115">
+        <v>1.06</v>
+      </c>
+      <c r="AC115">
+        <v>2.2</v>
+      </c>
+      <c r="AD115">
+        <v>3.2</v>
+      </c>
+      <c r="AE115">
+        <v>3.5</v>
+      </c>
+      <c r="AF115">
+        <v>1.08</v>
+      </c>
+      <c r="AG115">
+        <v>8.5</v>
+      </c>
+      <c r="AH115">
+        <v>1.4</v>
+      </c>
+      <c r="AI115">
+        <v>2.95</v>
+      </c>
+      <c r="AJ115">
+        <v>2.15</v>
+      </c>
+      <c r="AK115">
+        <v>1.67</v>
+      </c>
+      <c r="AL115">
+        <v>1.91</v>
+      </c>
+      <c r="AM115">
+        <v>1.91</v>
+      </c>
+      <c r="AN115">
+        <v>1.3</v>
+      </c>
+      <c r="AO115">
+        <v>1.33</v>
+      </c>
+      <c r="AP115">
+        <v>1.66</v>
+      </c>
+      <c r="AQ115">
+        <v>1</v>
+      </c>
+      <c r="AR115">
+        <v>0.6</v>
+      </c>
+      <c r="AS115">
+        <v>1.29</v>
+      </c>
+      <c r="AT115">
+        <v>0.5</v>
+      </c>
+      <c r="AU115">
+        <v>1.88</v>
+      </c>
+      <c r="AV115">
+        <v>1.61</v>
+      </c>
+      <c r="AW115">
+        <v>3.49</v>
+      </c>
+      <c r="AX115">
+        <v>1.55</v>
+      </c>
+      <c r="AY115">
+        <v>10.5</v>
+      </c>
+      <c r="AZ115">
+        <v>3.07</v>
+      </c>
+      <c r="BA115">
+        <v>1.1</v>
+      </c>
+      <c r="BB115">
+        <v>1.22</v>
+      </c>
+      <c r="BC115">
+        <v>1.43</v>
+      </c>
+      <c r="BD115">
+        <v>1.74</v>
+      </c>
+      <c r="BE115">
+        <v>2.16</v>
+      </c>
+      <c r="BF115">
+        <v>0</v>
+      </c>
+      <c r="BG115">
+        <v>9</v>
+      </c>
+      <c r="BH115">
+        <v>6</v>
+      </c>
+      <c r="BI115">
+        <v>3</v>
+      </c>
+      <c r="BJ115">
+        <v>6</v>
+      </c>
+      <c r="BK115">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>5406546</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45102.66666666666</v>
+      </c>
+      <c r="F116">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>74</v>
+      </c>
+      <c r="H116" t="s">
+        <v>82</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>5</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>6</v>
+      </c>
+      <c r="O116" t="s">
+        <v>171</v>
+      </c>
+      <c r="P116" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q116">
+        <v>8</v>
+      </c>
+      <c r="R116">
+        <v>5</v>
+      </c>
+      <c r="S116">
+        <v>13</v>
+      </c>
+      <c r="T116">
+        <v>1.91</v>
+      </c>
+      <c r="U116">
+        <v>2.4</v>
+      </c>
+      <c r="V116">
+        <v>6.5</v>
+      </c>
+      <c r="W116">
+        <v>1.37</v>
+      </c>
+      <c r="X116">
+        <v>2.8</v>
+      </c>
+      <c r="Y116">
+        <v>2.65</v>
+      </c>
+      <c r="Z116">
+        <v>1.41</v>
+      </c>
+      <c r="AA116">
+        <v>6.75</v>
+      </c>
+      <c r="AB116">
+        <v>1.09</v>
+      </c>
+      <c r="AC116">
+        <v>1.45</v>
+      </c>
+      <c r="AD116">
+        <v>4.4</v>
+      </c>
+      <c r="AE116">
+        <v>7</v>
+      </c>
+      <c r="AF116">
+        <v>1.04</v>
+      </c>
+      <c r="AG116">
+        <v>12</v>
+      </c>
+      <c r="AH116">
+        <v>1.28</v>
+      </c>
+      <c r="AI116">
+        <v>3.6</v>
+      </c>
+      <c r="AJ116">
+        <v>1.89</v>
+      </c>
+      <c r="AK116">
+        <v>1.85</v>
+      </c>
+      <c r="AL116">
+        <v>1.95</v>
+      </c>
+      <c r="AM116">
+        <v>1.8</v>
+      </c>
+      <c r="AN116">
+        <v>1.1</v>
+      </c>
+      <c r="AO116">
+        <v>1.22</v>
+      </c>
+      <c r="AP116">
+        <v>2.6</v>
+      </c>
+      <c r="AQ116">
+        <v>2.33</v>
+      </c>
+      <c r="AR116">
+        <v>0.2</v>
+      </c>
+      <c r="AS116">
+        <v>2.43</v>
+      </c>
+      <c r="AT116">
+        <v>0.17</v>
+      </c>
+      <c r="AU116">
+        <v>1.97</v>
+      </c>
+      <c r="AV116">
+        <v>1.13</v>
+      </c>
+      <c r="AW116">
+        <v>3.1</v>
+      </c>
+      <c r="AX116">
+        <v>1.49</v>
+      </c>
+      <c r="AY116">
+        <v>10.5</v>
+      </c>
+      <c r="AZ116">
+        <v>3.31</v>
+      </c>
+      <c r="BA116">
+        <v>1.13</v>
+      </c>
+      <c r="BB116">
+        <v>1.26</v>
+      </c>
+      <c r="BC116">
+        <v>1.46</v>
+      </c>
+      <c r="BD116">
+        <v>1.75</v>
+      </c>
+      <c r="BE116">
+        <v>2.2</v>
+      </c>
+      <c r="BF116">
+        <v>8</v>
+      </c>
+      <c r="BG116">
+        <v>8</v>
+      </c>
+      <c r="BH116">
+        <v>10</v>
+      </c>
+      <c r="BI116">
+        <v>9</v>
+      </c>
+      <c r="BJ116">
+        <v>18</v>
+      </c>
+      <c r="BK116">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>5406542</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45102.66666666666</v>
+      </c>
+      <c r="F117">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>65</v>
+      </c>
+      <c r="H117" t="s">
+        <v>67</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117" t="s">
+        <v>86</v>
+      </c>
+      <c r="P117" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q117">
+        <v>12</v>
+      </c>
+      <c r="R117">
+        <v>1</v>
+      </c>
+      <c r="S117">
+        <v>13</v>
+      </c>
+      <c r="T117">
+        <v>2</v>
+      </c>
+      <c r="U117">
+        <v>2.38</v>
+      </c>
+      <c r="V117">
+        <v>6.5</v>
+      </c>
+      <c r="W117">
+        <v>1.37</v>
+      </c>
+      <c r="X117">
+        <v>2.8</v>
+      </c>
+      <c r="Y117">
+        <v>2.7</v>
+      </c>
+      <c r="Z117">
+        <v>1.4</v>
+      </c>
+      <c r="AA117">
+        <v>6.75</v>
+      </c>
+      <c r="AB117">
+        <v>1.09</v>
+      </c>
+      <c r="AC117">
+        <v>1.6</v>
+      </c>
+      <c r="AD117">
+        <v>3.95</v>
+      </c>
+      <c r="AE117">
+        <v>5.5</v>
+      </c>
+      <c r="AF117">
+        <v>1.04</v>
+      </c>
+      <c r="AG117">
+        <v>12</v>
+      </c>
+      <c r="AH117">
+        <v>1.28</v>
+      </c>
+      <c r="AI117">
+        <v>3.6</v>
+      </c>
+      <c r="AJ117">
+        <v>1.86</v>
+      </c>
+      <c r="AK117">
+        <v>1.88</v>
+      </c>
+      <c r="AL117">
+        <v>1.95</v>
+      </c>
+      <c r="AM117">
+        <v>1.8</v>
+      </c>
+      <c r="AN117">
+        <v>1.14</v>
+      </c>
+      <c r="AO117">
+        <v>1.23</v>
+      </c>
+      <c r="AP117">
+        <v>2.3</v>
+      </c>
+      <c r="AQ117">
+        <v>2.6</v>
+      </c>
+      <c r="AR117">
+        <v>1.8</v>
+      </c>
+      <c r="AS117">
+        <v>2.17</v>
+      </c>
+      <c r="AT117">
+        <v>2</v>
+      </c>
+      <c r="AU117">
+        <v>2.21</v>
+      </c>
+      <c r="AV117">
+        <v>1.23</v>
+      </c>
+      <c r="AW117">
+        <v>3.44</v>
+      </c>
+      <c r="AX117">
+        <v>1.38</v>
+      </c>
+      <c r="AY117">
+        <v>11.5</v>
+      </c>
+      <c r="AZ117">
+        <v>3.9</v>
+      </c>
+      <c r="BA117">
+        <v>1.15</v>
+      </c>
+      <c r="BB117">
+        <v>1.31</v>
+      </c>
+      <c r="BC117">
+        <v>1.52</v>
+      </c>
+      <c r="BD117">
+        <v>1.85</v>
+      </c>
+      <c r="BE117">
+        <v>2.34</v>
+      </c>
+      <c r="BF117">
+        <v>5</v>
+      </c>
+      <c r="BG117">
+        <v>3</v>
+      </c>
+      <c r="BH117">
+        <v>15</v>
+      </c>
+      <c r="BI117">
+        <v>4</v>
+      </c>
+      <c r="BJ117">
+        <v>20</v>
+      </c>
+      <c r="BK117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>5406543</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45102.77083333334</v>
+      </c>
+      <c r="F118">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>80</v>
+      </c>
+      <c r="H118" t="s">
+        <v>72</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>3</v>
+      </c>
+      <c r="N118">
+        <v>5</v>
+      </c>
+      <c r="O118" t="s">
+        <v>172</v>
+      </c>
+      <c r="P118" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q118">
+        <v>2</v>
+      </c>
+      <c r="R118">
+        <v>7</v>
+      </c>
+      <c r="S118">
+        <v>9</v>
+      </c>
+      <c r="T118">
+        <v>4.33</v>
+      </c>
+      <c r="U118">
+        <v>2.05</v>
+      </c>
+      <c r="V118">
+        <v>2.75</v>
+      </c>
+      <c r="W118">
+        <v>1.44</v>
+      </c>
+      <c r="X118">
+        <v>2.55</v>
+      </c>
+      <c r="Y118">
+        <v>3</v>
+      </c>
+      <c r="Z118">
+        <v>1.33</v>
+      </c>
+      <c r="AA118">
+        <v>8.25</v>
+      </c>
+      <c r="AB118">
+        <v>1.06</v>
+      </c>
+      <c r="AC118">
+        <v>3.8</v>
+      </c>
+      <c r="AD118">
+        <v>3.35</v>
+      </c>
+      <c r="AE118">
+        <v>1.97</v>
+      </c>
+      <c r="AF118">
+        <v>1.06</v>
+      </c>
+      <c r="AG118">
+        <v>10</v>
+      </c>
+      <c r="AH118">
+        <v>1.36</v>
+      </c>
+      <c r="AI118">
+        <v>3.2</v>
+      </c>
+      <c r="AJ118">
+        <v>2.12</v>
+      </c>
+      <c r="AK118">
+        <v>1.64</v>
+      </c>
+      <c r="AL118">
+        <v>1.95</v>
+      </c>
+      <c r="AM118">
+        <v>1.8</v>
+      </c>
+      <c r="AN118">
+        <v>1.87</v>
+      </c>
+      <c r="AO118">
+        <v>1.25</v>
+      </c>
+      <c r="AP118">
+        <v>1.25</v>
+      </c>
+      <c r="AQ118">
+        <v>1.5</v>
+      </c>
+      <c r="AR118">
+        <v>1.2</v>
+      </c>
+      <c r="AS118">
+        <v>1.29</v>
+      </c>
+      <c r="AT118">
+        <v>1.5</v>
+      </c>
+      <c r="AU118">
+        <v>1.58</v>
+      </c>
+      <c r="AV118">
+        <v>1.41</v>
+      </c>
+      <c r="AW118">
+        <v>2.99</v>
+      </c>
+      <c r="AX118">
+        <v>2.36</v>
+      </c>
+      <c r="AY118">
+        <v>9</v>
+      </c>
+      <c r="AZ118">
+        <v>1.87</v>
+      </c>
+      <c r="BA118">
+        <v>1.17</v>
+      </c>
+      <c r="BB118">
+        <v>1.39</v>
+      </c>
+      <c r="BC118">
+        <v>1.91</v>
+      </c>
+      <c r="BD118">
+        <v>2.13</v>
+      </c>
+      <c r="BE118">
+        <v>2.8</v>
+      </c>
+      <c r="BF118">
+        <v>7</v>
+      </c>
+      <c r="BG118">
+        <v>5</v>
+      </c>
+      <c r="BH118">
+        <v>4</v>
+      </c>
+      <c r="BI118">
+        <v>1</v>
+      </c>
+      <c r="BJ118">
+        <v>11</v>
+      </c>
+      <c r="BK118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>5406549</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45102.77083333334</v>
+      </c>
+      <c r="F119">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>66</v>
+      </c>
+      <c r="H119" t="s">
+        <v>79</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>3</v>
+      </c>
+      <c r="O119" t="s">
+        <v>173</v>
+      </c>
+      <c r="P119" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q119">
+        <v>3</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>5</v>
+      </c>
+      <c r="T119">
+        <v>3</v>
+      </c>
+      <c r="U119">
+        <v>2.05</v>
+      </c>
+      <c r="V119">
+        <v>4</v>
+      </c>
+      <c r="W119">
+        <v>1.45</v>
+      </c>
+      <c r="X119">
+        <v>2.64</v>
+      </c>
+      <c r="Y119">
+        <v>3.1</v>
+      </c>
+      <c r="Z119">
+        <v>1.34</v>
+      </c>
+      <c r="AA119">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB119">
+        <v>1.06</v>
+      </c>
+      <c r="AC119">
+        <v>2.35</v>
+      </c>
+      <c r="AD119">
+        <v>3.2</v>
+      </c>
+      <c r="AE119">
+        <v>3.05</v>
+      </c>
+      <c r="AF119">
+        <v>1.07</v>
+      </c>
+      <c r="AG119">
+        <v>7.5</v>
+      </c>
+      <c r="AH119">
+        <v>1.36</v>
+      </c>
+      <c r="AI119">
+        <v>3</v>
+      </c>
+      <c r="AJ119">
+        <v>2.09</v>
+      </c>
+      <c r="AK119">
+        <v>1.66</v>
+      </c>
+      <c r="AL119">
+        <v>1.95</v>
+      </c>
+      <c r="AM119">
+        <v>1.8</v>
+      </c>
+      <c r="AN119">
+        <v>1.36</v>
+      </c>
+      <c r="AO119">
+        <v>1.3</v>
+      </c>
+      <c r="AP119">
+        <v>1.57</v>
+      </c>
+      <c r="AQ119">
+        <v>1.17</v>
+      </c>
+      <c r="AR119">
+        <v>0.83</v>
+      </c>
+      <c r="AS119">
+        <v>1</v>
+      </c>
+      <c r="AT119">
+        <v>1.14</v>
+      </c>
+      <c r="AU119">
+        <v>1.82</v>
+      </c>
+      <c r="AV119">
+        <v>1.45</v>
+      </c>
+      <c r="AW119">
+        <v>3.27</v>
+      </c>
+      <c r="AX119">
+        <v>1.9</v>
+      </c>
+      <c r="AY119">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ119">
+        <v>2.3</v>
+      </c>
+      <c r="BA119">
+        <v>1.16</v>
+      </c>
+      <c r="BB119">
+        <v>1.33</v>
+      </c>
+      <c r="BC119">
+        <v>1.91</v>
+      </c>
+      <c r="BD119">
+        <v>2.03</v>
+      </c>
+      <c r="BE119">
+        <v>2.62</v>
+      </c>
+      <c r="BF119">
+        <v>4</v>
+      </c>
+      <c r="BG119">
+        <v>3</v>
+      </c>
+      <c r="BH119">
+        <v>8</v>
+      </c>
+      <c r="BI119">
+        <v>2</v>
+      </c>
+      <c r="BJ119">
+        <v>12</v>
+      </c>
+      <c r="BK119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>5406544</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45102.77083333334</v>
+      </c>
+      <c r="F120">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>68</v>
+      </c>
+      <c r="H120" t="s">
+        <v>83</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>174</v>
+      </c>
+      <c r="P120" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q120">
+        <v>10</v>
+      </c>
+      <c r="R120">
+        <v>4</v>
+      </c>
+      <c r="S120">
+        <v>14</v>
+      </c>
+      <c r="T120">
+        <v>1.95</v>
+      </c>
+      <c r="U120">
+        <v>2.4</v>
+      </c>
+      <c r="V120">
+        <v>6.5</v>
+      </c>
+      <c r="W120">
+        <v>1.36</v>
+      </c>
+      <c r="X120">
+        <v>2.9</v>
+      </c>
+      <c r="Y120">
+        <v>2.65</v>
+      </c>
+      <c r="Z120">
+        <v>1.42</v>
+      </c>
+      <c r="AA120">
+        <v>6.75</v>
+      </c>
+      <c r="AB120">
+        <v>1.09</v>
+      </c>
+      <c r="AC120">
+        <v>1.45</v>
+      </c>
+      <c r="AD120">
+        <v>4.4</v>
+      </c>
+      <c r="AE120">
+        <v>7</v>
+      </c>
+      <c r="AF120">
+        <v>1.04</v>
+      </c>
+      <c r="AG120">
+        <v>12</v>
+      </c>
+      <c r="AH120">
+        <v>1.28</v>
+      </c>
+      <c r="AI120">
+        <v>3.6</v>
+      </c>
+      <c r="AJ120">
+        <v>1.83</v>
+      </c>
+      <c r="AK120">
+        <v>1.81</v>
+      </c>
+      <c r="AL120">
+        <v>1.95</v>
+      </c>
+      <c r="AM120">
+        <v>1.8</v>
+      </c>
+      <c r="AN120">
+        <v>1.11</v>
+      </c>
+      <c r="AO120">
+        <v>1.21</v>
+      </c>
+      <c r="AP120">
+        <v>2.6</v>
+      </c>
+      <c r="AQ120">
+        <v>2.17</v>
+      </c>
+      <c r="AR120">
+        <v>0.67</v>
+      </c>
+      <c r="AS120">
+        <v>2.29</v>
+      </c>
+      <c r="AT120">
+        <v>0.57</v>
+      </c>
+      <c r="AU120">
+        <v>2.07</v>
+      </c>
+      <c r="AV120">
+        <v>1.45</v>
+      </c>
+      <c r="AW120">
+        <v>3.52</v>
+      </c>
+      <c r="AX120">
+        <v>1.31</v>
+      </c>
+      <c r="AY120">
+        <v>11.5</v>
+      </c>
+      <c r="AZ120">
+        <v>4.58</v>
+      </c>
+      <c r="BA120">
+        <v>1.1</v>
+      </c>
+      <c r="BB120">
+        <v>1.22</v>
+      </c>
+      <c r="BC120">
+        <v>1.42</v>
+      </c>
+      <c r="BD120">
+        <v>1.72</v>
+      </c>
+      <c r="BE120">
+        <v>2.14</v>
+      </c>
+      <c r="BF120">
+        <v>7</v>
+      </c>
+      <c r="BG120">
+        <v>0</v>
+      </c>
+      <c r="BH120">
+        <v>8</v>
+      </c>
+      <c r="BI120">
+        <v>2</v>
+      </c>
+      <c r="BJ120">
+        <v>15</v>
+      </c>
+      <c r="BK120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>5406541</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45103.875</v>
+      </c>
+      <c r="F121">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>81</v>
+      </c>
+      <c r="H121" t="s">
+        <v>76</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121" t="s">
+        <v>175</v>
+      </c>
+      <c r="P121" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q121">
+        <v>4</v>
+      </c>
+      <c r="R121">
+        <v>6</v>
+      </c>
+      <c r="S121">
+        <v>10</v>
+      </c>
+      <c r="T121">
+        <v>3</v>
+      </c>
+      <c r="U121">
+        <v>2</v>
+      </c>
+      <c r="V121">
+        <v>4</v>
+      </c>
+      <c r="W121">
+        <v>1.52</v>
+      </c>
+      <c r="X121">
+        <v>2.44</v>
+      </c>
+      <c r="Y121">
+        <v>3.44</v>
+      </c>
+      <c r="Z121">
+        <v>1.29</v>
+      </c>
+      <c r="AA121">
+        <v>9.4</v>
+      </c>
+      <c r="AB121">
+        <v>1.04</v>
+      </c>
+      <c r="AC121">
+        <v>2.25</v>
+      </c>
+      <c r="AD121">
+        <v>3.2</v>
+      </c>
+      <c r="AE121">
+        <v>3.4</v>
+      </c>
+      <c r="AF121">
+        <v>1.08</v>
+      </c>
+      <c r="AG121">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH121">
+        <v>1.42</v>
+      </c>
+      <c r="AI121">
+        <v>2.89</v>
+      </c>
+      <c r="AJ121">
+        <v>2.35</v>
+      </c>
+      <c r="AK121">
+        <v>1.57</v>
+      </c>
+      <c r="AL121">
+        <v>2</v>
+      </c>
+      <c r="AM121">
+        <v>1.75</v>
+      </c>
+      <c r="AN121">
+        <v>1.26</v>
+      </c>
+      <c r="AO121">
+        <v>1.33</v>
+      </c>
+      <c r="AP121">
+        <v>1.77</v>
+      </c>
+      <c r="AQ121">
+        <v>0.2</v>
+      </c>
+      <c r="AR121">
+        <v>1.67</v>
+      </c>
+      <c r="AS121">
+        <v>0.67</v>
+      </c>
+      <c r="AT121">
+        <v>1.43</v>
+      </c>
+      <c r="AU121">
+        <v>2.06</v>
+      </c>
+      <c r="AV121">
+        <v>1.45</v>
+      </c>
+      <c r="AW121">
+        <v>3.51</v>
+      </c>
+      <c r="AX121">
+        <v>1.47</v>
+      </c>
+      <c r="AY121">
+        <v>10.5</v>
+      </c>
+      <c r="AZ121">
+        <v>3.41</v>
+      </c>
+      <c r="BA121">
+        <v>1.13</v>
+      </c>
+      <c r="BB121">
+        <v>1.27</v>
+      </c>
+      <c r="BC121">
+        <v>1.83</v>
+      </c>
+      <c r="BD121">
+        <v>1.87</v>
+      </c>
+      <c r="BE121">
+        <v>2.36</v>
+      </c>
+      <c r="BF121">
+        <v>3</v>
+      </c>
+      <c r="BG121">
+        <v>4</v>
+      </c>
+      <c r="BH121">
+        <v>6</v>
+      </c>
+      <c r="BI121">
+        <v>10</v>
+      </c>
+      <c r="BJ121">
+        <v>9</v>
+      </c>
+      <c r="BK121">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,30 @@
     <t>['77']</t>
   </si>
   <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['14', '64']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['53', '90+5']</t>
+  </si>
+  <si>
+    <t>['2', '28']</t>
+  </si>
+  <si>
+    <t>['67', '72']</t>
+  </si>
+  <si>
+    <t>['53', '75', '86']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
     <t>['45+7']</t>
   </si>
   <si>
@@ -658,9 +682,6 @@
     <t>['26']</t>
   </si>
   <si>
-    <t>['87']</t>
-  </si>
-  <si>
     <t>['37']</t>
   </si>
   <si>
@@ -725,6 +746,18 @@
   </si>
   <si>
     <t>['63', '85']</t>
+  </si>
+  <si>
+    <t>['9', '90+5']</t>
+  </si>
+  <si>
+    <t>['58', '72']</t>
+  </si>
+  <si>
+    <t>['22', '57']</t>
+  </si>
+  <si>
+    <t>['26', '43']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1330,7 +1363,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1521,7 +1554,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1611,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="AT3">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1712,7 +1745,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2181,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT6">
         <v>0.57</v>
@@ -2285,7 +2318,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2476,7 +2509,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="Q8">
         <v>14</v>
@@ -2563,10 +2596,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT8">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2754,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT9">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2858,7 +2891,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -2945,10 +2978,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT10">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3139,7 +3172,7 @@
         <v>2.43</v>
       </c>
       <c r="AT11">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3431,7 +3464,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3518,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AT13">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3709,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT14">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3903,7 +3936,7 @@
         <v>1.29</v>
       </c>
       <c r="AT15">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4004,7 +4037,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4091,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT16">
         <v>1.5</v>
@@ -4386,7 +4419,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4476,7 +4509,7 @@
         <v>0.67</v>
       </c>
       <c r="AT18">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4577,7 +4610,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4667,7 +4700,7 @@
         <v>0.5</v>
       </c>
       <c r="AT19">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4855,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT20">
         <v>0.43</v>
@@ -4959,7 +4992,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5046,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT21">
         <v>2</v>
@@ -5150,7 +5183,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5240,7 +5273,7 @@
         <v>2</v>
       </c>
       <c r="AT22">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>1.91</v>
@@ -5532,7 +5565,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="Q24">
         <v>12</v>
@@ -5723,7 +5756,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5813,7 +5846,7 @@
         <v>1.29</v>
       </c>
       <c r="AT25">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU25">
         <v>1.18</v>
@@ -5914,7 +5947,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6004,7 +6037,7 @@
         <v>2.29</v>
       </c>
       <c r="AT26">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU26">
         <v>1.72</v>
@@ -6105,7 +6138,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6192,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT27">
         <v>0.67</v>
@@ -6296,7 +6329,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6383,7 +6416,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT28">
         <v>2</v>
@@ -6487,7 +6520,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6574,10 +6607,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AT29">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU29">
         <v>1.39</v>
@@ -6765,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT30">
         <v>0.57</v>
@@ -7060,7 +7093,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7150,7 +7183,7 @@
         <v>1.29</v>
       </c>
       <c r="AT32">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU32">
         <v>1.94</v>
@@ -7251,7 +7284,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7341,7 +7374,7 @@
         <v>2.33</v>
       </c>
       <c r="AT33">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU33">
         <v>2.02</v>
@@ -7442,7 +7475,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7720,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT35">
         <v>1.14</v>
@@ -7824,7 +7857,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7911,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT36">
         <v>1.5</v>
@@ -8015,7 +8048,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8102,10 +8135,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT37">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU37">
         <v>1.06</v>
@@ -8397,7 +8430,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8484,10 +8517,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT39">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU39">
         <v>1.92</v>
@@ -8588,7 +8621,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8678,7 +8711,7 @@
         <v>2.43</v>
       </c>
       <c r="AT40">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU40">
         <v>1.68</v>
@@ -8779,7 +8812,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8866,10 +8899,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT41">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU41">
         <v>1.64</v>
@@ -8970,7 +9003,7 @@
         <v>119</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9060,7 +9093,7 @@
         <v>2.29</v>
       </c>
       <c r="AT42">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU42">
         <v>1.58</v>
@@ -9352,7 +9385,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9439,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT44">
         <v>0.67</v>
@@ -9630,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT45">
         <v>0.57</v>
@@ -9734,7 +9767,7 @@
         <v>86</v>
       </c>
       <c r="P46" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9821,7 +9854,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AT46">
         <v>1.57</v>
@@ -9925,7 +9958,7 @@
         <v>86</v>
       </c>
       <c r="P47" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q47">
         <v>16</v>
@@ -10015,7 +10048,7 @@
         <v>1.29</v>
       </c>
       <c r="AT47">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>1.63</v>
@@ -10116,7 +10149,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10206,7 +10239,7 @@
         <v>2.17</v>
       </c>
       <c r="AT48">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU48">
         <v>1.81</v>
@@ -10307,7 +10340,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10397,7 +10430,7 @@
         <v>0.5</v>
       </c>
       <c r="AT49">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU49">
         <v>1.69</v>
@@ -10880,7 +10913,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -10967,7 +11000,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT52">
         <v>1.5</v>
@@ -11262,7 +11295,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>15</v>
@@ -11352,7 +11385,7 @@
         <v>2.17</v>
       </c>
       <c r="AT54">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU54">
         <v>2.16</v>
@@ -11540,7 +11573,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT55">
         <v>1.14</v>
@@ -11734,7 +11767,7 @@
         <v>2.43</v>
       </c>
       <c r="AT56">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU56">
         <v>1.43</v>
@@ -11925,7 +11958,7 @@
         <v>0.67</v>
       </c>
       <c r="AT57">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU57">
         <v>1.67</v>
@@ -12026,7 +12059,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12113,7 +12146,7 @@
         <v>0.67</v>
       </c>
       <c r="AS58">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT58">
         <v>0.5</v>
@@ -12217,7 +12250,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12304,10 +12337,10 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT59">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU59">
         <v>1.36</v>
@@ -12495,7 +12528,7 @@
         <v>3</v>
       </c>
       <c r="AS60">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT60">
         <v>2</v>
@@ -12599,7 +12632,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12689,7 +12722,7 @@
         <v>1</v>
       </c>
       <c r="AT61">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU61">
         <v>1.92</v>
@@ -12790,7 +12823,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12877,7 +12910,7 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT62">
         <v>0.57</v>
@@ -13071,7 +13104,7 @@
         <v>3</v>
       </c>
       <c r="AT63">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU63">
         <v>1.76</v>
@@ -13172,7 +13205,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13259,10 +13292,10 @@
         <v>1.67</v>
       </c>
       <c r="AS64">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT64">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU64">
         <v>1.35</v>
@@ -13554,7 +13587,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13745,7 +13778,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -13835,7 +13868,7 @@
         <v>1</v>
       </c>
       <c r="AT67">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU67">
         <v>1.88</v>
@@ -14026,7 +14059,7 @@
         <v>1.29</v>
       </c>
       <c r="AT68">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU68">
         <v>1.5</v>
@@ -14214,7 +14247,7 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT69">
         <v>0.43</v>
@@ -14318,7 +14351,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14509,7 +14542,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14790,7 +14823,7 @@
         <v>2</v>
       </c>
       <c r="AT72">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU72">
         <v>2.18</v>
@@ -14891,7 +14924,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -14978,10 +15011,10 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT73">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU73">
         <v>1.83</v>
@@ -15082,7 +15115,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15169,10 +15202,10 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT74">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU74">
         <v>2.29</v>
@@ -15273,7 +15306,7 @@
         <v>143</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15360,10 +15393,10 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AT75">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU75">
         <v>1.39</v>
@@ -15551,7 +15584,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT76">
         <v>0.57</v>
@@ -15742,10 +15775,10 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT77">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU77">
         <v>1.79</v>
@@ -15933,7 +15966,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT78">
         <v>0.67</v>
@@ -16127,7 +16160,7 @@
         <v>2.29</v>
       </c>
       <c r="AT79">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU79">
         <v>1.75</v>
@@ -16228,7 +16261,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16315,10 +16348,10 @@
         <v>1.67</v>
       </c>
       <c r="AS80">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT80">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU80">
         <v>1.95</v>
@@ -16509,7 +16542,7 @@
         <v>3</v>
       </c>
       <c r="AT81">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU81">
         <v>1.84</v>
@@ -17079,7 +17112,7 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT84">
         <v>2</v>
@@ -17183,7 +17216,7 @@
         <v>86</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q85">
         <v>12</v>
@@ -17565,7 +17598,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17655,7 +17688,7 @@
         <v>2.33</v>
       </c>
       <c r="AT87">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU87">
         <v>2.04</v>
@@ -17756,7 +17789,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -17947,7 +17980,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>11</v>
@@ -18037,7 +18070,7 @@
         <v>2.17</v>
       </c>
       <c r="AT89">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU89">
         <v>2.25</v>
@@ -18138,7 +18171,7 @@
         <v>86</v>
       </c>
       <c r="P90" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18225,7 +18258,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT90">
         <v>1.43</v>
@@ -18329,7 +18362,7 @@
         <v>154</v>
       </c>
       <c r="P91" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18610,7 +18643,7 @@
         <v>0.5</v>
       </c>
       <c r="AT92">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU92">
         <v>1.65</v>
@@ -18711,7 +18744,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18798,10 +18831,10 @@
         <v>0.75</v>
       </c>
       <c r="AS93">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT93">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU93">
         <v>1.8</v>
@@ -18902,7 +18935,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -18989,10 +19022,10 @@
         <v>1.75</v>
       </c>
       <c r="AS94">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT94">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU94">
         <v>1.87</v>
@@ -19180,7 +19213,7 @@
         <v>1.8</v>
       </c>
       <c r="AS95">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT95">
         <v>1.43</v>
@@ -19374,7 +19407,7 @@
         <v>3</v>
       </c>
       <c r="AT96">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU96">
         <v>1.89</v>
@@ -19475,7 +19508,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -19666,7 +19699,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19753,10 +19786,10 @@
         <v>1.5</v>
       </c>
       <c r="AS98">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT98">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU98">
         <v>1.67</v>
@@ -19944,10 +19977,10 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT99">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU99">
         <v>1.44</v>
@@ -20048,7 +20081,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20135,10 +20168,10 @@
         <v>1.2</v>
       </c>
       <c r="AS100">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT100">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU100">
         <v>1.59</v>
@@ -20326,10 +20359,10 @@
         <v>1.5</v>
       </c>
       <c r="AS101">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT101">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU101">
         <v>2.19</v>
@@ -20430,7 +20463,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q102">
         <v>4</v>
@@ -20517,7 +20550,7 @@
         <v>0.8</v>
       </c>
       <c r="AS102">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT102">
         <v>0.67</v>
@@ -20621,7 +20654,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20711,7 +20744,7 @@
         <v>1.29</v>
       </c>
       <c r="AT103">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU103">
         <v>2</v>
@@ -20812,7 +20845,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21003,7 +21036,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21281,10 +21314,10 @@
         <v>1.8</v>
       </c>
       <c r="AS106">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT106">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU106">
         <v>1.76</v>
@@ -21475,7 +21508,7 @@
         <v>2.43</v>
       </c>
       <c r="AT107">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU107">
         <v>1.79</v>
@@ -21576,7 +21609,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>8</v>
@@ -21767,7 +21800,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -21854,7 +21887,7 @@
         <v>1.5</v>
       </c>
       <c r="AS109">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AT109">
         <v>2</v>
@@ -21958,7 +21991,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22427,7 +22460,7 @@
         <v>0.5</v>
       </c>
       <c r="AS112">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT112">
         <v>0.43</v>
@@ -22531,7 +22564,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22722,7 +22755,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23104,7 +23137,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23194,7 +23227,7 @@
         <v>2.43</v>
       </c>
       <c r="AT116">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU116">
         <v>1.97</v>
@@ -23295,7 +23328,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q117">
         <v>12</v>
@@ -23486,7 +23519,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -23677,7 +23710,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24201,6 +24234,1916 @@
       </c>
       <c r="BK121">
         <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>5406552</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45108.66666666666</v>
+      </c>
+      <c r="F122">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>77</v>
+      </c>
+      <c r="H122" t="s">
+        <v>75</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122" t="s">
+        <v>176</v>
+      </c>
+      <c r="P122" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q122">
+        <v>12</v>
+      </c>
+      <c r="R122">
+        <v>2</v>
+      </c>
+      <c r="S122">
+        <v>14</v>
+      </c>
+      <c r="T122">
+        <v>2.75</v>
+      </c>
+      <c r="U122">
+        <v>2.1</v>
+      </c>
+      <c r="V122">
+        <v>4</v>
+      </c>
+      <c r="W122">
+        <v>1.45</v>
+      </c>
+      <c r="X122">
+        <v>2.87</v>
+      </c>
+      <c r="Y122">
+        <v>3.22</v>
+      </c>
+      <c r="Z122">
+        <v>1.37</v>
+      </c>
+      <c r="AA122">
+        <v>7</v>
+      </c>
+      <c r="AB122">
+        <v>1.07</v>
+      </c>
+      <c r="AC122">
+        <v>3.38</v>
+      </c>
+      <c r="AD122">
+        <v>2.45</v>
+      </c>
+      <c r="AE122">
+        <v>2.48</v>
+      </c>
+      <c r="AF122">
+        <v>1.05</v>
+      </c>
+      <c r="AG122">
+        <v>8</v>
+      </c>
+      <c r="AH122">
+        <v>1.33</v>
+      </c>
+      <c r="AI122">
+        <v>3</v>
+      </c>
+      <c r="AJ122">
+        <v>2</v>
+      </c>
+      <c r="AK122">
+        <v>1.72</v>
+      </c>
+      <c r="AL122">
+        <v>1.75</v>
+      </c>
+      <c r="AM122">
+        <v>2</v>
+      </c>
+      <c r="AN122">
+        <v>1.28</v>
+      </c>
+      <c r="AO122">
+        <v>1.31</v>
+      </c>
+      <c r="AP122">
+        <v>1.78</v>
+      </c>
+      <c r="AQ122">
+        <v>2.5</v>
+      </c>
+      <c r="AR122">
+        <v>1.17</v>
+      </c>
+      <c r="AS122">
+        <v>2.57</v>
+      </c>
+      <c r="AT122">
+        <v>1</v>
+      </c>
+      <c r="AU122">
+        <v>1.74</v>
+      </c>
+      <c r="AV122">
+        <v>1.66</v>
+      </c>
+      <c r="AW122">
+        <v>3.4</v>
+      </c>
+      <c r="AX122">
+        <v>1.67</v>
+      </c>
+      <c r="AY122">
+        <v>8.5</v>
+      </c>
+      <c r="AZ122">
+        <v>2.5</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>1.23</v>
+      </c>
+      <c r="BC122">
+        <v>1.43</v>
+      </c>
+      <c r="BD122">
+        <v>1.71</v>
+      </c>
+      <c r="BE122">
+        <v>2.1</v>
+      </c>
+      <c r="BF122">
+        <v>7</v>
+      </c>
+      <c r="BG122">
+        <v>2</v>
+      </c>
+      <c r="BH122">
+        <v>16</v>
+      </c>
+      <c r="BI122">
+        <v>3</v>
+      </c>
+      <c r="BJ122">
+        <v>23</v>
+      </c>
+      <c r="BK122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>5406550</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45108.77083333334</v>
+      </c>
+      <c r="F123">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>72</v>
+      </c>
+      <c r="H123" t="s">
+        <v>70</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>177</v>
+      </c>
+      <c r="P123" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q123">
+        <v>5</v>
+      </c>
+      <c r="R123">
+        <v>4</v>
+      </c>
+      <c r="S123">
+        <v>9</v>
+      </c>
+      <c r="T123">
+        <v>2.2</v>
+      </c>
+      <c r="U123">
+        <v>2.38</v>
+      </c>
+      <c r="V123">
+        <v>5</v>
+      </c>
+      <c r="W123">
+        <v>1.38</v>
+      </c>
+      <c r="X123">
+        <v>2.9</v>
+      </c>
+      <c r="Y123">
+        <v>2.65</v>
+      </c>
+      <c r="Z123">
+        <v>1.42</v>
+      </c>
+      <c r="AA123">
+        <v>7</v>
+      </c>
+      <c r="AB123">
+        <v>1.09</v>
+      </c>
+      <c r="AC123">
+        <v>2.02</v>
+      </c>
+      <c r="AD123">
+        <v>3.18</v>
+      </c>
+      <c r="AE123">
+        <v>3.34</v>
+      </c>
+      <c r="AF123">
+        <v>1.05</v>
+      </c>
+      <c r="AG123">
+        <v>12.5</v>
+      </c>
+      <c r="AH123">
+        <v>1.28</v>
+      </c>
+      <c r="AI123">
+        <v>3.75</v>
+      </c>
+      <c r="AJ123">
+        <v>1.76</v>
+      </c>
+      <c r="AK123">
+        <v>1.95</v>
+      </c>
+      <c r="AL123">
+        <v>1.75</v>
+      </c>
+      <c r="AM123">
+        <v>2</v>
+      </c>
+      <c r="AN123">
+        <v>1.15</v>
+      </c>
+      <c r="AO123">
+        <v>1.25</v>
+      </c>
+      <c r="AP123">
+        <v>2.2</v>
+      </c>
+      <c r="AQ123">
+        <v>2.17</v>
+      </c>
+      <c r="AR123">
+        <v>1.33</v>
+      </c>
+      <c r="AS123">
+        <v>2.29</v>
+      </c>
+      <c r="AT123">
+        <v>1.14</v>
+      </c>
+      <c r="AU123">
+        <v>2.06</v>
+      </c>
+      <c r="AV123">
+        <v>1.55</v>
+      </c>
+      <c r="AW123">
+        <v>3.61</v>
+      </c>
+      <c r="AX123">
+        <v>1.44</v>
+      </c>
+      <c r="AY123">
+        <v>9</v>
+      </c>
+      <c r="AZ123">
+        <v>3.35</v>
+      </c>
+      <c r="BA123">
+        <v>1.19</v>
+      </c>
+      <c r="BB123">
+        <v>1.35</v>
+      </c>
+      <c r="BC123">
+        <v>2</v>
+      </c>
+      <c r="BD123">
+        <v>1.98</v>
+      </c>
+      <c r="BE123">
+        <v>2.5</v>
+      </c>
+      <c r="BF123">
+        <v>5</v>
+      </c>
+      <c r="BG123">
+        <v>7</v>
+      </c>
+      <c r="BH123">
+        <v>3</v>
+      </c>
+      <c r="BI123">
+        <v>4</v>
+      </c>
+      <c r="BJ123">
+        <v>8</v>
+      </c>
+      <c r="BK123">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>5406558</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45108.77083333334</v>
+      </c>
+      <c r="F124">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>84</v>
+      </c>
+      <c r="H124" t="s">
+        <v>74</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124" t="s">
+        <v>178</v>
+      </c>
+      <c r="P124" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q124">
+        <v>7</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>9</v>
+      </c>
+      <c r="T124">
+        <v>2.88</v>
+      </c>
+      <c r="U124">
+        <v>2.2</v>
+      </c>
+      <c r="V124">
+        <v>3.6</v>
+      </c>
+      <c r="W124">
+        <v>1.41</v>
+      </c>
+      <c r="X124">
+        <v>2.79</v>
+      </c>
+      <c r="Y124">
+        <v>2.91</v>
+      </c>
+      <c r="Z124">
+        <v>1.38</v>
+      </c>
+      <c r="AA124">
+        <v>7.4</v>
+      </c>
+      <c r="AB124">
+        <v>1.07</v>
+      </c>
+      <c r="AC124">
+        <v>5.01</v>
+      </c>
+      <c r="AD124">
+        <v>5.55</v>
+      </c>
+      <c r="AE124">
+        <v>1.37</v>
+      </c>
+      <c r="AF124">
+        <v>1.05</v>
+      </c>
+      <c r="AG124">
+        <v>11</v>
+      </c>
+      <c r="AH124">
+        <v>1.33</v>
+      </c>
+      <c r="AI124">
+        <v>3.3</v>
+      </c>
+      <c r="AJ124">
+        <v>1.89</v>
+      </c>
+      <c r="AK124">
+        <v>1.81</v>
+      </c>
+      <c r="AL124">
+        <v>1.75</v>
+      </c>
+      <c r="AM124">
+        <v>2</v>
+      </c>
+      <c r="AN124">
+        <v>1.45</v>
+      </c>
+      <c r="AO124">
+        <v>1.28</v>
+      </c>
+      <c r="AP124">
+        <v>1.55</v>
+      </c>
+      <c r="AQ124">
+        <v>1.33</v>
+      </c>
+      <c r="AR124">
+        <v>1.2</v>
+      </c>
+      <c r="AS124">
+        <v>1.14</v>
+      </c>
+      <c r="AT124">
+        <v>1.5</v>
+      </c>
+      <c r="AU124">
+        <v>1.68</v>
+      </c>
+      <c r="AV124">
+        <v>1.46</v>
+      </c>
+      <c r="AW124">
+        <v>3.14</v>
+      </c>
+      <c r="AX124">
+        <v>1.82</v>
+      </c>
+      <c r="AY124">
+        <v>8</v>
+      </c>
+      <c r="AZ124">
+        <v>2.25</v>
+      </c>
+      <c r="BA124">
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <v>1.27</v>
+      </c>
+      <c r="BC124">
+        <v>1.91</v>
+      </c>
+      <c r="BD124">
+        <v>1.98</v>
+      </c>
+      <c r="BE124">
+        <v>2.23</v>
+      </c>
+      <c r="BF124">
+        <v>5</v>
+      </c>
+      <c r="BG124">
+        <v>8</v>
+      </c>
+      <c r="BH124">
+        <v>7</v>
+      </c>
+      <c r="BI124">
+        <v>5</v>
+      </c>
+      <c r="BJ124">
+        <v>12</v>
+      </c>
+      <c r="BK124">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>5406556</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45108.875</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>79</v>
+      </c>
+      <c r="H125" t="s">
+        <v>78</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125" t="s">
+        <v>86</v>
+      </c>
+      <c r="P125" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q125">
+        <v>2</v>
+      </c>
+      <c r="R125">
+        <v>4</v>
+      </c>
+      <c r="S125">
+        <v>6</v>
+      </c>
+      <c r="T125">
+        <v>2.88</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
+        <v>4.33</v>
+      </c>
+      <c r="W125">
+        <v>1.44</v>
+      </c>
+      <c r="X125">
+        <v>2.63</v>
+      </c>
+      <c r="Y125">
+        <v>3.25</v>
+      </c>
+      <c r="Z125">
+        <v>1.33</v>
+      </c>
+      <c r="AA125">
+        <v>9</v>
+      </c>
+      <c r="AB125">
+        <v>1.07</v>
+      </c>
+      <c r="AC125">
+        <v>2.15</v>
+      </c>
+      <c r="AD125">
+        <v>3.2</v>
+      </c>
+      <c r="AE125">
+        <v>3.6</v>
+      </c>
+      <c r="AF125">
+        <v>1.07</v>
+      </c>
+      <c r="AG125">
+        <v>9</v>
+      </c>
+      <c r="AH125">
+        <v>1.38</v>
+      </c>
+      <c r="AI125">
+        <v>3</v>
+      </c>
+      <c r="AJ125">
+        <v>2.15</v>
+      </c>
+      <c r="AK125">
+        <v>1.67</v>
+      </c>
+      <c r="AL125">
+        <v>1.95</v>
+      </c>
+      <c r="AM125">
+        <v>1.8</v>
+      </c>
+      <c r="AN125">
+        <v>1.35</v>
+      </c>
+      <c r="AO125">
+        <v>1.28</v>
+      </c>
+      <c r="AP125">
+        <v>1.66</v>
+      </c>
+      <c r="AQ125">
+        <v>2.4</v>
+      </c>
+      <c r="AR125">
+        <v>1.6</v>
+      </c>
+      <c r="AS125">
+        <v>2.17</v>
+      </c>
+      <c r="AT125">
+        <v>1.5</v>
+      </c>
+      <c r="AU125">
+        <v>1.39</v>
+      </c>
+      <c r="AV125">
+        <v>1.72</v>
+      </c>
+      <c r="AW125">
+        <v>3.11</v>
+      </c>
+      <c r="AX125">
+        <v>1.71</v>
+      </c>
+      <c r="AY125">
+        <v>8</v>
+      </c>
+      <c r="AZ125">
+        <v>2.45</v>
+      </c>
+      <c r="BA125">
+        <v>0</v>
+      </c>
+      <c r="BB125">
+        <v>1.3</v>
+      </c>
+      <c r="BC125">
+        <v>1.83</v>
+      </c>
+      <c r="BD125">
+        <v>1.85</v>
+      </c>
+      <c r="BE125">
+        <v>2.4</v>
+      </c>
+      <c r="BF125">
+        <v>5</v>
+      </c>
+      <c r="BG125">
+        <v>4</v>
+      </c>
+      <c r="BH125">
+        <v>8</v>
+      </c>
+      <c r="BI125">
+        <v>5</v>
+      </c>
+      <c r="BJ125">
+        <v>13</v>
+      </c>
+      <c r="BK125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>5406553</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45109.45833333334</v>
+      </c>
+      <c r="F126">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>73</v>
+      </c>
+      <c r="H126" t="s">
+        <v>68</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>86</v>
+      </c>
+      <c r="P126" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q126">
+        <v>4</v>
+      </c>
+      <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
+        <v>6</v>
+      </c>
+      <c r="T126">
+        <v>3.4</v>
+      </c>
+      <c r="U126">
+        <v>1.95</v>
+      </c>
+      <c r="V126">
+        <v>3.6</v>
+      </c>
+      <c r="W126">
+        <v>1.5</v>
+      </c>
+      <c r="X126">
+        <v>2.5</v>
+      </c>
+      <c r="Y126">
+        <v>3.4</v>
+      </c>
+      <c r="Z126">
+        <v>1.3</v>
+      </c>
+      <c r="AA126">
+        <v>10</v>
+      </c>
+      <c r="AB126">
+        <v>1.06</v>
+      </c>
+      <c r="AC126">
+        <v>2.37</v>
+      </c>
+      <c r="AD126">
+        <v>3.05</v>
+      </c>
+      <c r="AE126">
+        <v>2.84</v>
+      </c>
+      <c r="AF126">
+        <v>1.09</v>
+      </c>
+      <c r="AG126">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AH126">
+        <v>1.41</v>
+      </c>
+      <c r="AI126">
+        <v>2.92</v>
+      </c>
+      <c r="AJ126">
+        <v>2.26</v>
+      </c>
+      <c r="AK126">
+        <v>1.57</v>
+      </c>
+      <c r="AL126">
+        <v>2</v>
+      </c>
+      <c r="AM126">
+        <v>1.75</v>
+      </c>
+      <c r="AN126">
+        <v>1.4</v>
+      </c>
+      <c r="AO126">
+        <v>1.38</v>
+      </c>
+      <c r="AP126">
+        <v>1.55</v>
+      </c>
+      <c r="AQ126">
+        <v>1.8</v>
+      </c>
+      <c r="AR126">
+        <v>0.8</v>
+      </c>
+      <c r="AS126">
+        <v>1.5</v>
+      </c>
+      <c r="AT126">
+        <v>1.17</v>
+      </c>
+      <c r="AU126">
+        <v>1.81</v>
+      </c>
+      <c r="AV126">
+        <v>1.45</v>
+      </c>
+      <c r="AW126">
+        <v>3.26</v>
+      </c>
+      <c r="AX126">
+        <v>1.74</v>
+      </c>
+      <c r="AY126">
+        <v>8</v>
+      </c>
+      <c r="AZ126">
+        <v>2.4</v>
+      </c>
+      <c r="BA126">
+        <v>1.18</v>
+      </c>
+      <c r="BB126">
+        <v>1.34</v>
+      </c>
+      <c r="BC126">
+        <v>1.83</v>
+      </c>
+      <c r="BD126">
+        <v>1.97</v>
+      </c>
+      <c r="BE126">
+        <v>2.48</v>
+      </c>
+      <c r="BF126">
+        <v>5</v>
+      </c>
+      <c r="BG126">
+        <v>6</v>
+      </c>
+      <c r="BH126">
+        <v>4</v>
+      </c>
+      <c r="BI126">
+        <v>5</v>
+      </c>
+      <c r="BJ126">
+        <v>9</v>
+      </c>
+      <c r="BK126">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>5406551</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45109.66666666666</v>
+      </c>
+      <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>67</v>
+      </c>
+      <c r="H127" t="s">
+        <v>81</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>179</v>
+      </c>
+      <c r="P127" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q127">
+        <v>4</v>
+      </c>
+      <c r="R127">
+        <v>8</v>
+      </c>
+      <c r="S127">
+        <v>12</v>
+      </c>
+      <c r="T127">
+        <v>2.38</v>
+      </c>
+      <c r="U127">
+        <v>2.1</v>
+      </c>
+      <c r="V127">
+        <v>5.5</v>
+      </c>
+      <c r="W127">
+        <v>1.44</v>
+      </c>
+      <c r="X127">
+        <v>2.63</v>
+      </c>
+      <c r="Y127">
+        <v>3.25</v>
+      </c>
+      <c r="Z127">
+        <v>1.33</v>
+      </c>
+      <c r="AA127">
+        <v>9</v>
+      </c>
+      <c r="AB127">
+        <v>1.07</v>
+      </c>
+      <c r="AC127">
+        <v>1.76</v>
+      </c>
+      <c r="AD127">
+        <v>3.45</v>
+      </c>
+      <c r="AE127">
+        <v>4.2</v>
+      </c>
+      <c r="AF127">
+        <v>1.06</v>
+      </c>
+      <c r="AG127">
+        <v>9</v>
+      </c>
+      <c r="AH127">
+        <v>1.38</v>
+      </c>
+      <c r="AI127">
+        <v>3</v>
+      </c>
+      <c r="AJ127">
+        <v>2.11</v>
+      </c>
+      <c r="AK127">
+        <v>1.6</v>
+      </c>
+      <c r="AL127">
+        <v>2.05</v>
+      </c>
+      <c r="AM127">
+        <v>1.7</v>
+      </c>
+      <c r="AN127">
+        <v>1.16</v>
+      </c>
+      <c r="AO127">
+        <v>1.27</v>
+      </c>
+      <c r="AP127">
+        <v>2.19</v>
+      </c>
+      <c r="AQ127">
+        <v>3</v>
+      </c>
+      <c r="AR127">
+        <v>0.83</v>
+      </c>
+      <c r="AS127">
+        <v>3</v>
+      </c>
+      <c r="AT127">
+        <v>0.71</v>
+      </c>
+      <c r="AU127">
+        <v>1.95</v>
+      </c>
+      <c r="AV127">
+        <v>1.28</v>
+      </c>
+      <c r="AW127">
+        <v>3.23</v>
+      </c>
+      <c r="AX127">
+        <v>1.44</v>
+      </c>
+      <c r="AY127">
+        <v>9</v>
+      </c>
+      <c r="AZ127">
+        <v>3.35</v>
+      </c>
+      <c r="BA127">
+        <v>1.18</v>
+      </c>
+      <c r="BB127">
+        <v>1.33</v>
+      </c>
+      <c r="BC127">
+        <v>1.91</v>
+      </c>
+      <c r="BD127">
+        <v>1.95</v>
+      </c>
+      <c r="BE127">
+        <v>2.45</v>
+      </c>
+      <c r="BF127">
+        <v>8</v>
+      </c>
+      <c r="BG127">
+        <v>5</v>
+      </c>
+      <c r="BH127">
+        <v>10</v>
+      </c>
+      <c r="BI127">
+        <v>8</v>
+      </c>
+      <c r="BJ127">
+        <v>18</v>
+      </c>
+      <c r="BK127">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>5406555</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45109.66666666666</v>
+      </c>
+      <c r="F128">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>71</v>
+      </c>
+      <c r="H128" t="s">
+        <v>66</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128" t="s">
+        <v>180</v>
+      </c>
+      <c r="P128" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q128">
+        <v>4</v>
+      </c>
+      <c r="R128">
+        <v>7</v>
+      </c>
+      <c r="S128">
+        <v>11</v>
+      </c>
+      <c r="T128">
+        <v>2</v>
+      </c>
+      <c r="U128">
+        <v>2.25</v>
+      </c>
+      <c r="V128">
+        <v>7</v>
+      </c>
+      <c r="W128">
+        <v>1.36</v>
+      </c>
+      <c r="X128">
+        <v>3</v>
+      </c>
+      <c r="Y128">
+        <v>2.75</v>
+      </c>
+      <c r="Z128">
+        <v>1.4</v>
+      </c>
+      <c r="AA128">
+        <v>7</v>
+      </c>
+      <c r="AB128">
+        <v>1.1</v>
+      </c>
+      <c r="AC128">
+        <v>1.62</v>
+      </c>
+      <c r="AD128">
+        <v>3.9</v>
+      </c>
+      <c r="AE128">
+        <v>4.55</v>
+      </c>
+      <c r="AF128">
+        <v>1.04</v>
+      </c>
+      <c r="AG128">
+        <v>8.5</v>
+      </c>
+      <c r="AH128">
+        <v>1.22</v>
+      </c>
+      <c r="AI128">
+        <v>3.7</v>
+      </c>
+      <c r="AJ128">
+        <v>1.88</v>
+      </c>
+      <c r="AK128">
+        <v>1.76</v>
+      </c>
+      <c r="AL128">
+        <v>2.2</v>
+      </c>
+      <c r="AM128">
+        <v>1.62</v>
+      </c>
+      <c r="AN128">
+        <v>1.03</v>
+      </c>
+      <c r="AO128">
+        <v>1.22</v>
+      </c>
+      <c r="AP128">
+        <v>2.65</v>
+      </c>
+      <c r="AQ128">
+        <v>1.6</v>
+      </c>
+      <c r="AR128">
+        <v>0.2</v>
+      </c>
+      <c r="AS128">
+        <v>1.5</v>
+      </c>
+      <c r="AT128">
+        <v>0.33</v>
+      </c>
+      <c r="AU128">
+        <v>1.78</v>
+      </c>
+      <c r="AV128">
+        <v>1.29</v>
+      </c>
+      <c r="AW128">
+        <v>3.07</v>
+      </c>
+      <c r="AX128">
+        <v>1.33</v>
+      </c>
+      <c r="AY128">
+        <v>10</v>
+      </c>
+      <c r="AZ128">
+        <v>4.1</v>
+      </c>
+      <c r="BA128">
+        <v>0</v>
+      </c>
+      <c r="BB128">
+        <v>1.28</v>
+      </c>
+      <c r="BC128">
+        <v>1.91</v>
+      </c>
+      <c r="BD128">
+        <v>1.83</v>
+      </c>
+      <c r="BE128">
+        <v>2.25</v>
+      </c>
+      <c r="BF128">
+        <v>6</v>
+      </c>
+      <c r="BG128">
+        <v>12</v>
+      </c>
+      <c r="BH128">
+        <v>7</v>
+      </c>
+      <c r="BI128">
+        <v>13</v>
+      </c>
+      <c r="BJ128">
+        <v>13</v>
+      </c>
+      <c r="BK128">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>5406557</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45109.66666666666</v>
+      </c>
+      <c r="F129">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>69</v>
+      </c>
+      <c r="H129" t="s">
+        <v>65</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129" t="s">
+        <v>181</v>
+      </c>
+      <c r="P129" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q129">
+        <v>7</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>9</v>
+      </c>
+      <c r="T129">
+        <v>3.6</v>
+      </c>
+      <c r="U129">
+        <v>2.05</v>
+      </c>
+      <c r="V129">
+        <v>3.2</v>
+      </c>
+      <c r="W129">
+        <v>1.44</v>
+      </c>
+      <c r="X129">
+        <v>2.63</v>
+      </c>
+      <c r="Y129">
+        <v>3.25</v>
+      </c>
+      <c r="Z129">
+        <v>1.33</v>
+      </c>
+      <c r="AA129">
+        <v>9</v>
+      </c>
+      <c r="AB129">
+        <v>1.07</v>
+      </c>
+      <c r="AC129">
+        <v>3.45</v>
+      </c>
+      <c r="AD129">
+        <v>2.98</v>
+      </c>
+      <c r="AE129">
+        <v>2.13</v>
+      </c>
+      <c r="AF129">
+        <v>1.06</v>
+      </c>
+      <c r="AG129">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH129">
+        <v>1.33</v>
+      </c>
+      <c r="AI129">
+        <v>3.02</v>
+      </c>
+      <c r="AJ129">
+        <v>2.14</v>
+      </c>
+      <c r="AK129">
+        <v>1.58</v>
+      </c>
+      <c r="AL129">
+        <v>1.8</v>
+      </c>
+      <c r="AM129">
+        <v>1.95</v>
+      </c>
+      <c r="AN129">
+        <v>1.58</v>
+      </c>
+      <c r="AO129">
+        <v>1.35</v>
+      </c>
+      <c r="AP129">
+        <v>1.38</v>
+      </c>
+      <c r="AQ129">
+        <v>2.5</v>
+      </c>
+      <c r="AR129">
+        <v>1.5</v>
+      </c>
+      <c r="AS129">
+        <v>2.29</v>
+      </c>
+      <c r="AT129">
+        <v>1.43</v>
+      </c>
+      <c r="AU129">
+        <v>1.93</v>
+      </c>
+      <c r="AV129">
+        <v>1.41</v>
+      </c>
+      <c r="AW129">
+        <v>3.34</v>
+      </c>
+      <c r="AX129">
+        <v>2.02</v>
+      </c>
+      <c r="AY129">
+        <v>8</v>
+      </c>
+      <c r="AZ129">
+        <v>2</v>
+      </c>
+      <c r="BA129">
+        <v>0</v>
+      </c>
+      <c r="BB129">
+        <v>1.3</v>
+      </c>
+      <c r="BC129">
+        <v>1.52</v>
+      </c>
+      <c r="BD129">
+        <v>1.86</v>
+      </c>
+      <c r="BE129">
+        <v>2.33</v>
+      </c>
+      <c r="BF129">
+        <v>8</v>
+      </c>
+      <c r="BG129">
+        <v>7</v>
+      </c>
+      <c r="BH129">
+        <v>21</v>
+      </c>
+      <c r="BI129">
+        <v>5</v>
+      </c>
+      <c r="BJ129">
+        <v>29</v>
+      </c>
+      <c r="BK129">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>5406559</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45109.77083333334</v>
+      </c>
+      <c r="F130">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>76</v>
+      </c>
+      <c r="H130" t="s">
+        <v>80</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>3</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>182</v>
+      </c>
+      <c r="P130" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q130">
+        <v>9</v>
+      </c>
+      <c r="R130">
+        <v>5</v>
+      </c>
+      <c r="S130">
+        <v>14</v>
+      </c>
+      <c r="T130">
+        <v>3</v>
+      </c>
+      <c r="U130">
+        <v>1.95</v>
+      </c>
+      <c r="V130">
+        <v>4.5</v>
+      </c>
+      <c r="W130">
+        <v>1.57</v>
+      </c>
+      <c r="X130">
+        <v>2.25</v>
+      </c>
+      <c r="Y130">
+        <v>3.75</v>
+      </c>
+      <c r="Z130">
+        <v>1.25</v>
+      </c>
+      <c r="AA130">
+        <v>13</v>
+      </c>
+      <c r="AB130">
+        <v>1.04</v>
+      </c>
+      <c r="AC130">
+        <v>2.28</v>
+      </c>
+      <c r="AD130">
+        <v>3.05</v>
+      </c>
+      <c r="AE130">
+        <v>3.05</v>
+      </c>
+      <c r="AF130">
+        <v>1.11</v>
+      </c>
+      <c r="AG130">
+        <v>7</v>
+      </c>
+      <c r="AH130">
+        <v>1.5</v>
+      </c>
+      <c r="AI130">
+        <v>2.37</v>
+      </c>
+      <c r="AJ130">
+        <v>2.43</v>
+      </c>
+      <c r="AK130">
+        <v>1.45</v>
+      </c>
+      <c r="AL130">
+        <v>2.1</v>
+      </c>
+      <c r="AM130">
+        <v>1.67</v>
+      </c>
+      <c r="AN130">
+        <v>1.3</v>
+      </c>
+      <c r="AO130">
+        <v>1.33</v>
+      </c>
+      <c r="AP130">
+        <v>1.66</v>
+      </c>
+      <c r="AQ130">
+        <v>0.4</v>
+      </c>
+      <c r="AR130">
+        <v>0.8</v>
+      </c>
+      <c r="AS130">
+        <v>0.83</v>
+      </c>
+      <c r="AT130">
+        <v>0.67</v>
+      </c>
+      <c r="AU130">
+        <v>1.62</v>
+      </c>
+      <c r="AV130">
+        <v>1.16</v>
+      </c>
+      <c r="AW130">
+        <v>2.78</v>
+      </c>
+      <c r="AX130">
+        <v>1.7</v>
+      </c>
+      <c r="AY130">
+        <v>8</v>
+      </c>
+      <c r="AZ130">
+        <v>2.48</v>
+      </c>
+      <c r="BA130">
+        <v>1.21</v>
+      </c>
+      <c r="BB130">
+        <v>1.4</v>
+      </c>
+      <c r="BC130">
+        <v>2.1</v>
+      </c>
+      <c r="BD130">
+        <v>2.1</v>
+      </c>
+      <c r="BE130">
+        <v>2.7</v>
+      </c>
+      <c r="BF130">
+        <v>7</v>
+      </c>
+      <c r="BG130">
+        <v>3</v>
+      </c>
+      <c r="BH130">
+        <v>4</v>
+      </c>
+      <c r="BI130">
+        <v>1</v>
+      </c>
+      <c r="BJ130">
+        <v>11</v>
+      </c>
+      <c r="BK130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>5406554</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45110.83333333334</v>
+      </c>
+      <c r="F131">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>83</v>
+      </c>
+      <c r="H131" t="s">
+        <v>82</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>2</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>183</v>
+      </c>
+      <c r="P131" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q131">
+        <v>7</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>9</v>
+      </c>
+      <c r="T131">
+        <v>2.75</v>
+      </c>
+      <c r="U131">
+        <v>2.05</v>
+      </c>
+      <c r="V131">
+        <v>4.5</v>
+      </c>
+      <c r="W131">
+        <v>1.5</v>
+      </c>
+      <c r="X131">
+        <v>2.5</v>
+      </c>
+      <c r="Y131">
+        <v>3.4</v>
+      </c>
+      <c r="Z131">
+        <v>1.3</v>
+      </c>
+      <c r="AA131">
+        <v>10</v>
+      </c>
+      <c r="AB131">
+        <v>1.06</v>
+      </c>
+      <c r="AC131">
+        <v>2</v>
+      </c>
+      <c r="AD131">
+        <v>3.25</v>
+      </c>
+      <c r="AE131">
+        <v>4</v>
+      </c>
+      <c r="AF131">
+        <v>1.1</v>
+      </c>
+      <c r="AG131">
+        <v>6.5</v>
+      </c>
+      <c r="AH131">
+        <v>1.44</v>
+      </c>
+      <c r="AI131">
+        <v>2.62</v>
+      </c>
+      <c r="AJ131">
+        <v>2.25</v>
+      </c>
+      <c r="AK131">
+        <v>1.62</v>
+      </c>
+      <c r="AL131">
+        <v>2</v>
+      </c>
+      <c r="AM131">
+        <v>1.75</v>
+      </c>
+      <c r="AN131">
+        <v>1.25</v>
+      </c>
+      <c r="AO131">
+        <v>1.33</v>
+      </c>
+      <c r="AP131">
+        <v>1.81</v>
+      </c>
+      <c r="AQ131">
+        <v>1.4</v>
+      </c>
+      <c r="AR131">
+        <v>0.17</v>
+      </c>
+      <c r="AS131">
+        <v>1.17</v>
+      </c>
+      <c r="AT131">
+        <v>0.57</v>
+      </c>
+      <c r="AU131">
+        <v>1.72</v>
+      </c>
+      <c r="AV131">
+        <v>1.26</v>
+      </c>
+      <c r="AW131">
+        <v>2.98</v>
+      </c>
+      <c r="AX131">
+        <v>1.55</v>
+      </c>
+      <c r="AY131">
+        <v>8.5</v>
+      </c>
+      <c r="AZ131">
+        <v>2.88</v>
+      </c>
+      <c r="BA131">
+        <v>1.18</v>
+      </c>
+      <c r="BB131">
+        <v>1.34</v>
+      </c>
+      <c r="BC131">
+        <v>1.83</v>
+      </c>
+      <c r="BD131">
+        <v>1.98</v>
+      </c>
+      <c r="BE131">
+        <v>2.5</v>
+      </c>
+      <c r="BF131">
+        <v>7</v>
+      </c>
+      <c r="BG131">
+        <v>8</v>
+      </c>
+      <c r="BH131">
+        <v>11</v>
+      </c>
+      <c r="BI131">
+        <v>7</v>
+      </c>
+      <c r="BJ131">
+        <v>18</v>
+      </c>
+      <c r="BK131">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
